--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="13_ncr:1_{E96C369D-DFC8-4885-B39F-79A398A444BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39B8BC8F-A6BB-4901-9F7D-4BC8B403AB79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="401">
   <si>
     <t>id</t>
   </si>
@@ -1237,6 +1237,119 @@
   </si>
   <si>
     <t>thumbnails\tata.png</t>
+  </si>
+  <si>
+    <t>bp1-titka</t>
+  </si>
+  <si>
+    <t>Mysti és a BudapestOne Irodaház Rejtélye</t>
+  </si>
+  <si>
+    <t>gy reggel Mysti cica eltévedt a forgalmas városban, és egy hatalmas, üvegfalú épület előtt találta magát. A táblán ez állt: Budapest ONE. A ház szögletes tükörfalaiban a napfény úgy csillant meg, mintha maga az épület is figyelné a külvilágot. Mysti észrevett valamit: négy sarkon és a belső udvarban apró, villanó fényeket látott — talán mindegyik egy újabb nyom a testvérei felé?</t>
+  </si>
+  <si>
+    <t>47.46495523756118</t>
+  </si>
+  <si>
+    <t>19.01540374584782</t>
+  </si>
+  <si>
+    <t>A csatornafedél üzenete (nyugati sarok)
+Mysti az épület sarka felé szaladt, ahol egy kerek, fémből készült csatornafedél pihent a járdán. A napfény visszaverődött róla, és a cica észrevett rajta számokat, betűket.</t>
+  </si>
+  <si>
+    <t>47.46474150078843</t>
+  </si>
+  <si>
+    <t>19.01506999015164</t>
+  </si>
+  <si>
+    <t>A csatorna fedél tetején található számjegyek összege.</t>
+  </si>
+  <si>
+    <t>A növények között keresd</t>
+  </si>
+  <si>
+    <t>EN 124-el kezdődik</t>
+  </si>
+  <si>
+    <t>A szellőző rács titka
+A másik saroknál a földbe süllyesztett szellőzőrács halkan zümmögött. Mysti kíváncsian megszámolta a kis lyukakat – de gyorsan elvesztette a fonalat, mert túl sok volt.</t>
+  </si>
+  <si>
+    <t>47.46427385257778</t>
+  </si>
+  <si>
+    <t>19.016141466314537</t>
+  </si>
+  <si>
+    <t>Vajon hány teljes négyzet alakú lyuk van a rövidebbik oldalon?</t>
+  </si>
+  <si>
+    <t>Csak a teljes négyzeteket számold, több mint 50.</t>
+  </si>
+  <si>
+    <t>Kevesebb mint 55</t>
+  </si>
+  <si>
+    <t>A biciklitárolók rejtélye (déli sarok)
+A következő sarkon egy hosszú sor fekete biciklitároló állt katonás rendben. Mysti minden másodikat megérintett a tappancsával, hogy ne számolja el magát.</t>
+  </si>
+  <si>
+    <t>Bicikli tárolók száma ösztva a kőlapok számával amin állnak.</t>
+  </si>
+  <si>
+    <t>18 bicikli tartó van</t>
+  </si>
+  <si>
+    <t>6 kőlapon van kihelyezve</t>
+  </si>
+  <si>
+    <t>47.464340759175414</t>
+  </si>
+  <si>
+    <t>19.016813136416125</t>
+  </si>
+  <si>
+    <t>A pad titka (keleti sarok)
+Egy modern fa pad állt a bejárat közelében. Mysti felugrott rá, és minden deszkát megérintett a mancsával – a fából áradó meleg napfény jól esett neki.</t>
+  </si>
+  <si>
+    <t>Mennyi deszkából áll a pad?</t>
+  </si>
+  <si>
+    <t>47.46502073440931</t>
+  </si>
+  <si>
+    <t>19.017371955574596</t>
+  </si>
+  <si>
+    <t>Több mint 50</t>
+  </si>
+  <si>
+    <t>47.46487786233104</t>
+  </si>
+  <si>
+    <t>19.01629836266431</t>
+  </si>
+  <si>
+    <t>Az udvari menedék (belső udvar)
+Mysti végül besurrant az épület belső udvarába. A közepén eső ellen védő tetők álltak, mindegyik fémlábakon. Mysti körbesétálta őket, miközben az utolsó fényes követ kereste.</t>
+  </si>
+  <si>
+    <t>Számold meg, hány lábon állnak az esővédő fedelek összesen!</t>
+  </si>
+  <si>
+    <t>Mindegyiknek 3 lába van</t>
+  </si>
+  <si>
+    <t>5 ilyen van össesen.</t>
+  </si>
+  <si>
+    <t>Amikor Mysti megszámolta az utolsó lábat is, a medálja halványan felizzott. A Budapest ONE hatalmas üvegfalaiban hirtelen saját tükörképét látta – de mintha a háttérben ott suhant volna egy másik narancsszín árnyék is… Talán az egyik testvére? Mysti megállt, dorombolt egyet, és tudta: ez a városi kaland csak a kezdet volt.</t>
+  </si>
+  <si>
+    <t>thumbnails\bp1.png</t>
   </si>
 </sst>
 </file>
@@ -1295,7 +1408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1309,6 +1422,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1528,11 +1642,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1545,13 +1659,14 @@
     <col min="6" max="6" width="22.44140625" style="2"/>
     <col min="7" max="7" width="22" style="2" customWidth="1"/>
     <col min="8" max="8" width="24.44140625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="40.44140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="22.88671875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.77734375" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="22.44140625" style="2"/>
+    <col min="9" max="9" width="14.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.44140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="22.88671875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.77734375" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="22.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="13.8">
+    <row r="1" spans="1:13" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1576,88 +1691,94 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>228</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1">
+      <c r="M1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>365</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>366</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>367</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>368</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
+        <v>369</v>
+      </c>
+      <c r="I2" s="2">
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1">
+        <v>399</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>304</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>354</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>308</v>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>306</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>309</v>
+        <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1">
+        <v>17</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>55</v>
+        <v>304</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>354</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>29</v>
@@ -1666,30 +1787,30 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>103</v>
+        <v>308</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>57</v>
+        <v>306</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1">
+        <v>307</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>354</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -1697,31 +1818,31 @@
       <c r="E5" s="2">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>72</v>
+      <c r="F5" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1">
+        <v>56</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>29</v>
@@ -1730,30 +1851,30 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1">
+        <v>75</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
@@ -1762,30 +1883,30 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1">
+        <v>86</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>205</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
@@ -1793,31 +1914,31 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>206</v>
+      <c r="F8" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1">
+        <v>168</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
@@ -1825,31 +1946,31 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>231</v>
+      <c r="F9" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1">
+        <v>208</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C10" t="s">
-        <v>270</v>
+      <c r="C10" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -1857,69 +1978,101 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A11" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1">
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1">
+    <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1">
+    <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1">
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="F16" s="6"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1">
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="I17" s="3"/>
+      <c r="F17" s="6"/>
       <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1">
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="F18" s="6"/>
-      <c r="I18" s="3"/>
+      <c r="F18" s="3"/>
       <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="6"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1934,11 +2087,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2450,7 +2603,7 @@
       <c r="I17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="7">
         <v>10</v>
       </c>
     </row>
@@ -3633,6 +3786,166 @@
       </c>
       <c r="J57" s="2">
         <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A58" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E58" s="2">
+        <v>10</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="J58" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B59" s="2">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E59" s="2">
+        <v>10</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J59" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B60" s="2">
+        <v>3</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="E60" s="2">
+        <v>10</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="J60" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A61" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B61" s="2">
+        <v>4</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="E61" s="2">
+        <v>10</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="J61" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A62" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B62" s="2">
+        <v>5</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="E62" s="2">
+        <v>20</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J62" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1133C609-A4D0-4239-A077-1BEE6CA116A2}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -1245,9 +1245,6 @@
     <t>Mysti és a BudapestOne Irodaház Rejtélye</t>
   </si>
   <si>
-    <t>gy reggel Mysti cica eltévedt a forgalmas városban, és egy hatalmas, üvegfalú épület előtt találta magát. A táblán ez állt: Budapest ONE. A ház szögletes tükörfalaiban a napfény úgy csillant meg, mintha maga az épület is figyelné a külvilágot. Mysti észrevett valamit: négy sarkon és a belső udvarban apró, villanó fényeket látott — talán mindegyik egy újabb nyom a testvérei felé?</t>
-  </si>
-  <si>
     <t>47.46495523756118</t>
   </si>
   <si>
@@ -1350,6 +1347,9 @@
   </si>
   <si>
     <t>thumbnails\bp1.png</t>
+  </si>
+  <si>
+    <t>Egy reggel Mysti cica eltévedt a forgalmas városban, és egy hatalmas, üvegfalú épület előtt találta magát. A táblán ez állt: Budapest ONE. A ház szögletes tükörfalaiban a napfény úgy csillant meg, mintha maga az épület is figyelné a külvilágot. Mysti észrevett valamit: négy sarkon és a belső udvarban apró, villanó fényeket látott — talán mindegyik egy újabb nyom a testvérei felé?</t>
   </si>
 </sst>
 </file>
@@ -1644,9 +1644,9 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1720,22 +1720,22 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="I2" s="2">
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -2089,8 +2089,8 @@
   </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
@@ -3796,25 +3796,25 @@
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>371</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>372</v>
       </c>
       <c r="E58" s="2">
         <v>10</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="J58" s="2">
         <v>16</v>
@@ -3828,25 +3828,25 @@
         <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>378</v>
       </c>
       <c r="E59" s="2">
         <v>10</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G59" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="H59" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="J59" s="2">
         <v>54</v>
@@ -3860,25 +3860,25 @@
         <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="E60" s="2">
         <v>10</v>
       </c>
       <c r="F60" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="J60" s="2">
         <v>3</v>
@@ -3892,25 +3892,25 @@
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="E61" s="2">
         <v>10</v>
       </c>
       <c r="F61" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>389</v>
-      </c>
       <c r="H61" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J61" s="2">
         <v>52</v>
@@ -3924,25 +3924,25 @@
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>394</v>
       </c>
       <c r="E62" s="2">
         <v>20</v>
       </c>
       <c r="F62" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="J62" s="2">
         <v>15</v>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1133C609-A4D0-4239-A077-1BEE6CA116A2}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35971FDC-402A-4A9F-97CF-49A21B59DC29}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -1302,12 +1302,6 @@
     <t>6 kőlapon van kihelyezve</t>
   </si>
   <si>
-    <t>47.464340759175414</t>
-  </si>
-  <si>
-    <t>19.016813136416125</t>
-  </si>
-  <si>
     <t>A pad titka (keleti sarok)
 Egy modern fa pad állt a bejárat közelében. Mysti felugrott rá, és minden deszkát megérintett a mancsával – a fából áradó meleg napfény jól esett neki.</t>
   </si>
@@ -1315,12 +1309,6 @@
     <t>Mennyi deszkából áll a pad?</t>
   </si>
   <si>
-    <t>47.46502073440931</t>
-  </si>
-  <si>
-    <t>19.017371955574596</t>
-  </si>
-  <si>
     <t>Több mint 50</t>
   </si>
   <si>
@@ -1350,6 +1338,18 @@
   </si>
   <si>
     <t>Egy reggel Mysti cica eltévedt a forgalmas városban, és egy hatalmas, üvegfalú épület előtt találta magát. A táblán ez állt: Budapest ONE. A ház szögletes tükörfalaiban a napfény úgy csillant meg, mintha maga az épület is figyelné a külvilágot. Mysti észrevett valamit: négy sarkon és a belső udvarban apró, villanó fényeket látott — talán mindegyik egy újabb nyom a testvérei felé?</t>
+  </si>
+  <si>
+    <t>47.4650813734896</t>
+  </si>
+  <si>
+    <t>19.017331473301724</t>
+  </si>
+  <si>
+    <t>47.464398823911075</t>
+  </si>
+  <si>
+    <t>19.016727269054062</t>
   </si>
 </sst>
 </file>
@@ -1644,9 +1644,9 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>367</v>
@@ -1732,10 +1732,10 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -2089,9 +2089,9 @@
   </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I63" sqref="I63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3860,10 +3860,10 @@
         <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="E60" s="2">
         <v>10</v>
@@ -3892,22 +3892,22 @@
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="E61" s="2">
         <v>10</v>
       </c>
       <c r="F61" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H61" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>380</v>
@@ -3924,25 +3924,25 @@
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="E62" s="2">
+        <v>30</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H62" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="E62" s="2">
-        <v>20</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="J62" s="2">
         <v>15</v>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35971FDC-402A-4A9F-97CF-49A21B59DC29}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A41EA1B3-7EC5-4B45-81C5-B5E437C4F05D}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2089,9 +2089,9 @@
   </sheetPr>
   <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3849,7 +3849,7 @@
         <v>380</v>
       </c>
       <c r="J59" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A41EA1B3-7EC5-4B45-81C5-B5E437C4F05D}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E536672-CA03-429E-89F1-7BD7D88C3309}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1293,9 +1293,6 @@
 A következő sarkon egy hosszú sor fekete biciklitároló állt katonás rendben. Mysti minden másodikat megérintett a tappancsával, hogy ne számolja el magát.</t>
   </si>
   <si>
-    <t>Bicikli tárolók száma ösztva a kőlapok számával amin állnak.</t>
-  </si>
-  <si>
     <t>18 bicikli tartó van</t>
   </si>
   <si>
@@ -1350,6 +1347,9 @@
   </si>
   <si>
     <t>19.016727269054062</t>
+  </si>
+  <si>
+    <t>Bicikli tárolók száma osztva a kőlapok számával amin állnak.</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>367</v>
@@ -1732,10 +1732,10 @@
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -2091,7 +2091,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3860,10 +3860,10 @@
         <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>399</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>400</v>
       </c>
       <c r="E60" s="2">
         <v>10</v>
@@ -3872,13 +3872,13 @@
         <v>381</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="J60" s="2">
         <v>3</v>
@@ -3892,22 +3892,22 @@
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>398</v>
       </c>
       <c r="E61" s="2">
         <v>10</v>
       </c>
       <c r="F61" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>380</v>
@@ -3924,25 +3924,25 @@
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="E62" s="2">
         <v>30</v>
       </c>
       <c r="F62" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G62" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="J62" s="2">
         <v>15</v>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E536672-CA03-429E-89F1-7BD7D88C3309}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DD05A2A-BAF0-4595-8346-24BCB8E16CBE}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2091,7 +2091,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3930,7 +3930,7 @@
         <v>388</v>
       </c>
       <c r="E62" s="2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>389</v>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DD05A2A-BAF0-4595-8346-24BCB8E16CBE}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE5E494A-8FB4-4FEF-9C82-F717293990F2}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="450">
   <si>
     <t>id</t>
   </si>
@@ -1187,18 +1187,6 @@
     <t>a J elött van</t>
   </si>
   <si>
-    <t>Mysti cica és barátja, Misi egymás mellett ültek a padon.
-Mysti azt mondta: „Kétszer annyi idős vagyok, mint amikor te voltál annyi idős, mint most én.”
-Misi így válaszolt: „Akkor te most 12 éves vagy.”
-Hány éves Misi?</t>
-  </si>
-  <si>
-    <t>Gondold végig, hogy hány évvel ezelőtt volt Misi fiatalabb Mystinél ugyanannyi különbséggel.</t>
-  </si>
-  <si>
-    <t>A korkülönbség mindig ugyanannyi marad.</t>
-  </si>
-  <si>
     <t>Három ajtó van:
 1 - Az első mögött tűz ég.
 2 - A második mögött egy mérges oroszlán van, amit 3 éve nem etettek.
@@ -1350,6 +1338,169 @@
   </si>
   <si>
     <t>Bicikli tárolók száma osztva a kőlapok számával amin állnak.</t>
+  </si>
+  <si>
+    <t>salata-teszt</t>
+  </si>
+  <si>
+    <t>Mysti és Lilla együtt 18 évesek. Mysti 2 évvel idősebb Lillánál.
+Hány éves Mysti?</t>
+  </si>
+  <si>
+    <t>Gondold végig.</t>
+  </si>
+  <si>
+    <t>Misi 8 éves</t>
+  </si>
+  <si>
+    <t>47.397518190277</t>
+  </si>
+  <si>
+    <t>19.192421602501135</t>
+  </si>
+  <si>
+    <t>47.39599016283379</t>
+  </si>
+  <si>
+    <t>19.19439279298384</t>
+  </si>
+  <si>
+    <t>47.3952695164264</t>
+  </si>
+  <si>
+    <t>19.193301150479297</t>
+  </si>
+  <si>
+    <t>47.393822086635815</t>
+  </si>
+  <si>
+    <t>19.19300342979714</t>
+  </si>
+  <si>
+    <t>47.3942373870064</t>
+  </si>
+  <si>
+    <t>19.190756991915887</t>
+  </si>
+  <si>
+    <t>47.39596573430608</t>
+  </si>
+  <si>
+    <t>19.18838424802246</t>
+  </si>
+  <si>
+    <t>47.398530668182985</t>
+  </si>
+  <si>
+    <t>19.188880449170814</t>
+  </si>
+  <si>
+    <t>Mysti és az Erdő Csillaga - Saláta u.</t>
+  </si>
+  <si>
+    <t>Egy csendes kertvárosi utcában élt Mysti, a kis narancssárga cica. Reggelente szeretett az ablakban ülni, és figyelni, ahogy a madarak csivitelnek. Egy nap különös dolgot látott: egy fényes csillag zuhant le az égboltról, nem messze, az erdő szélén. Mysti kíváncsi lett — elindult, hogy megkeresse a titokzatos fényt. A tappancsa alatt ropogott a kavics, és kezdődött a kaland!</t>
+  </si>
+  <si>
+    <t>Mysti visszasétált a kertvárosi utcába, ahol a házak ablakai is mintha fényesebben ragyogtak volna. A csillagfény most már az ő szívében élt tovább, és ha este felnézett az égre, tudta, hogy egy darabka csillag mindig vele marad. Dorombolva feküdt le, és álmaiban újabb kalandokat látott – mert a világ tele van fényes titkokkal, csak meg kell keresni őket. 🌟</t>
+  </si>
+  <si>
+    <t>thumbnails\salata.png</t>
+  </si>
+  <si>
+    <t>A sárga kapunál
+Mysti elsétált a sárga kerítéskapuig, amely mindig egy kicsit nyikorogva köszöntötte őt. A kapu mellett egy pillangó szállt a vállára, mintha azt mondaná: „Erre menj, Mysti!”</t>
+  </si>
+  <si>
+    <t>A nagy tölgyfa alatt
+Ahogy beért az erdőbe, egy hatalmas tölgyfa árnyékában pihent meg. A levelek közt madarak csicseregtek, és a cica észrevett egy aranyszín levelet – pont, mint a csillag fénye.</t>
+  </si>
+  <si>
+    <t>A kis pataknál
+Mysti átsétált egy apró fahídon. A víz csillogott, és a cica tappancsát belelógatta – hűvös és friss volt. A víztükörben mintha valami fény villant volna… talán a csillag tükröződése?</t>
+  </si>
+  <si>
+    <t>A mókus házánál
+Egy mókus integetett neki a fákról. A mókus kezében egy dió világított halványan. „Ezt keresed?” – kérdezte mosolyogva, majd elgurította Mysti felé.</t>
+  </si>
+  <si>
+    <t>A virágos réten
+A fák közül kiérve Mysti színes virágokat látott mindenütt. A rét közepén egy apró fénygömb pihent – meleg és ragyogó volt, akár egy mini napocska. Mysti közelebb lépett, és a fény odasuhant a medáljára.</t>
+  </si>
+  <si>
+    <t>A domb tetején
+Mysti felmászott a dombra, és onnan lenézve az egész erdőt látta. A csillag fénye immár a nyakában ragyogott, és az egész táj aranyló színekbe borult. A kis cica boldogan hunyta be a szemét.</t>
+  </si>
+  <si>
+    <t>Hogy hívják a mancsőrjárat rendőr kutyáját?</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Hogy hívják a kis hableányt a mesében?</t>
+  </si>
+  <si>
+    <t>Ariel</t>
+  </si>
+  <si>
+    <t>Milyen színű Villám McQueen a Verdák című mesében?</t>
+  </si>
+  <si>
+    <t>Piros</t>
+  </si>
+  <si>
+    <t>Melyik állat volt nagyon lassú a Zootropolis című filmben?</t>
+  </si>
+  <si>
+    <t>Lajhár</t>
+  </si>
+  <si>
+    <t>Hogy hívják az Oroszlánkirály kicsi hősét?</t>
+  </si>
+  <si>
+    <t>Simba</t>
+  </si>
+  <si>
+    <t>Milyen állat Peppa, a híres rajzfilmfigura?</t>
+  </si>
+  <si>
+    <t>Malac</t>
+  </si>
+  <si>
+    <t>Kék egyenruhát visel, és mindig rendet tart a városban.</t>
+  </si>
+  <si>
+    <t>A neve angolul azt jelenti, hogy „üldözni”.</t>
+  </si>
+  <si>
+    <t>A haja hosszú és piros, és szeret énekelni a tengerben.</t>
+  </si>
+  <si>
+    <t>A neve „A”-val kezdődik, és tenger alatti hercegnő.</t>
+  </si>
+  <si>
+    <t>Ugyanolyan színű, mint a tűzoltóautó.</t>
+  </si>
+  <si>
+    <t>A színe a versenypályán is feltűnik messziről!</t>
+  </si>
+  <si>
+    <t>Mindig komótosan mozog, és sokat alszik.</t>
+  </si>
+  <si>
+    <t>Az állat neve „L”-lel kezdődik, és hosszú karjai vannak.</t>
+  </si>
+  <si>
+    <t>Ő lesz a dzsungel királya, mikor felnő.</t>
+  </si>
+  <si>
+    <t>A neve rövid, és „S”-sel kezdődik.</t>
+  </si>
+  <si>
+    <t>Rózsaszín, és szeret pocsolyákban ugrálni.</t>
+  </si>
+  <si>
+    <t>Hangosan röfög, ha boldog.</t>
   </si>
 </sst>
 </file>
@@ -1644,9 +1795,9 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1705,13 +1856,13 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -1720,22 +1871,22 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I2" s="2">
         <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
@@ -1767,7 +1918,7 @@
         <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
@@ -1775,7 +1926,7 @@
         <v>304</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>305</v>
@@ -1799,7 +1950,7 @@
         <v>309</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
@@ -1807,7 +1958,7 @@
         <v>55</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>102</v>
@@ -1831,7 +1982,7 @@
         <v>104</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
@@ -1863,7 +2014,7 @@
         <v>75</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
@@ -1895,7 +2046,7 @@
         <v>86</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
@@ -1927,7 +2078,7 @@
         <v>168</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
@@ -1959,7 +2110,7 @@
         <v>209</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
@@ -1991,7 +2142,7 @@
         <v>234</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
@@ -2023,13 +2174,43 @@
         <v>272</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="A12" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="3"/>
@@ -2087,11 +2268,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2575,7 +2756,7 @@
         <v>28</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -3712,7 +3893,7 @@
         <v>330</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>345</v>
@@ -3776,45 +3957,45 @@
         <v>329</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>352</v>
+        <v>401</v>
       </c>
       <c r="J57" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E58" s="2">
         <v>10</v>
       </c>
       <c r="F58" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G58" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="H58" s="2" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J58" s="2">
         <v>16</v>
@@ -3822,31 +4003,31 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E59" s="2">
         <v>10</v>
       </c>
       <c r="F59" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="G59" s="2" t="s">
-        <v>378</v>
-      </c>
       <c r="H59" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J59" s="2">
         <v>53</v>
@@ -3854,31 +4035,31 @@
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B60" s="2">
         <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E60" s="2">
         <v>10</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J60" s="2">
         <v>3</v>
@@ -3886,31 +4067,31 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B61" s="2">
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E61" s="2">
         <v>10</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="J61" s="2">
         <v>52</v>
@@ -3918,34 +4099,208 @@
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B62" s="2">
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E62" s="2">
         <v>35</v>
       </c>
       <c r="F62" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I62" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>392</v>
       </c>
       <c r="J62" s="2">
         <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A63" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A64" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B65" s="2">
+        <v>3</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A67" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B67" s="2">
+        <v>5</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A68" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B68" s="2">
+        <v>6</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I68" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE5E494A-8FB4-4FEF-9C82-F717293990F2}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B69FAE6-E4F7-4EE3-B760-32F37D13CE40}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -1464,9 +1464,6 @@
     <t>Milyen állat Peppa, a híres rajzfilmfigura?</t>
   </si>
   <si>
-    <t>Malac</t>
-  </si>
-  <si>
     <t>Kék egyenruhát visel, és mindig rendet tart a városban.</t>
   </si>
   <si>
@@ -1501,6 +1498,9 @@
   </si>
   <si>
     <t>Hangosan röfög, ha boldog.</t>
+  </si>
+  <si>
+    <t>Malac; Disznó; sertés</t>
   </si>
 </sst>
 </file>
@@ -1795,7 +1795,7 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
@@ -2270,9 +2270,9 @@
   </sheetPr>
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4149,10 +4149,10 @@
         <v>426</v>
       </c>
       <c r="H63" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="I63" s="2" t="s">
         <v>438</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>439</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>427</v>
@@ -4178,10 +4178,10 @@
         <v>428</v>
       </c>
       <c r="H64" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="J64" s="2" t="s">
         <v>429</v>
@@ -4207,10 +4207,10 @@
         <v>430</v>
       </c>
       <c r="H65" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I65" s="2" t="s">
         <v>442</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>443</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>431</v>
@@ -4236,10 +4236,10 @@
         <v>432</v>
       </c>
       <c r="H66" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>445</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>433</v>
@@ -4265,10 +4265,10 @@
         <v>434</v>
       </c>
       <c r="H67" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>435</v>
@@ -4294,13 +4294,13 @@
         <v>436</v>
       </c>
       <c r="H68" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>437</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B69FAE6-E4F7-4EE3-B760-32F37D13CE40}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF0EA810-1CF9-4C64-B2DC-3D1D7D9B777A}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1500,7 +1500,7 @@
     <t>Hangosan röfög, ha boldog.</t>
   </si>
   <si>
-    <t>Malac; Disznó; sertés</t>
+    <t>Malac;Disznó;sertés</t>
   </si>
 </sst>
 </file>
@@ -2272,7 +2272,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J69" sqref="J69"/>
+      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF0EA810-1CF9-4C64-B2DC-3D1D7D9B777A}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F6CB9A4-E2DE-45C8-8A36-1E1AFE1A0326}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="451">
   <si>
     <t>id</t>
   </si>
@@ -1501,6 +1501,9 @@
   </si>
   <si>
     <t>Malac;Disznó;sertés</t>
+  </si>
+  <si>
+    <t>Peppa</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1573,7 +1576,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2271,8 +2273,8 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J68" sqref="J68"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2776,7 +2778,7 @@
         <v>77</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>61</v>
+        <v>450</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>68</v>
@@ -2784,8 +2786,8 @@
       <c r="I17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="7">
-        <v>10</v>
+      <c r="J17" s="2" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F6CB9A4-E2DE-45C8-8A36-1E1AFE1A0326}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{520F6AE3-DE22-4187-A561-7CEFF00DC9A6}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="493">
   <si>
     <t>id</t>
   </si>
@@ -1504,6 +1504,137 @@
   </si>
   <si>
     <t>Peppa</t>
+  </si>
+  <si>
+    <t>zalaegerszeg-teszt</t>
+  </si>
+  <si>
+    <t>47.43886145763263</t>
+  </si>
+  <si>
+    <t>19.142091149849684</t>
+  </si>
+  <si>
+    <t>thumbnails\zalaegerszeg.png</t>
+  </si>
+  <si>
+    <t>Mysti és az Udvarok Titkos Ösvénye - Zalaegerszeg utca</t>
+  </si>
+  <si>
+    <t>Egy napsütéses délután Mysti cica a külvárosban sétált. A házak magasak voltak, de a köztük húzódó kis ösvényeken madarak csiviteltek és virágok nyíltak. A szellő lágyan fújta Mysti bajuszát, és valami különös illatot hozott: levendula és frissen nyírt fű keveredett. A cica megérezte, hogy ezen a helyen valami titok lappang… és elindult, hogy kiderítse, mi az.</t>
+  </si>
+  <si>
+    <t>A szél halkan susogott a házak között, mintha maga a város is mesélne. Mysti cica megállt, és visszanézett az útra, ahol járt. A házak most már barátságosabbnak tűntek, az udvarok fényei melegen ragyogtak. Dorombolt egyet, és továbbindult — mert tudta, minden kis utca egy új kaland kezdete lehet. 🌙</t>
+  </si>
+  <si>
+    <t>A postaládasor mellett
+Mysti elsétált egy hosszú sor zöld postaláda előtt. Az egyikre valaki kis napot rajzolt krétával. Mysti megérintette a tappancsával, és úgy tűnt, a napocska fénye egy pillanatra felragyogott.</t>
+  </si>
+  <si>
+    <t>47.43901689360386</t>
+  </si>
+  <si>
+    <t>19.141960530049342</t>
+  </si>
+  <si>
+    <t>47.43927522599351</t>
+  </si>
+  <si>
+    <t>19.141871518042</t>
+  </si>
+  <si>
+    <t>A padnál, ahol a galambok ülnek
+A házak között egy régi pad állt. Két galamb tollászkodott rajta, és Mysti észrevette, hogy a pad alatt egy apró fényes gomb csillog a porban. Dorombolva megérintette, és a gomb melegen felizzott.</t>
+  </si>
+  <si>
+    <t>A bokrok között
+Mysti bebújt két ház közti bokorsor mögé. Ott kis katicák mászkáltak a leveleken, és a földön egy gyerek által elhagyott piros labda feküdt. Amikor hozzáért, a labda halkan pukkant egyet, mintha kuncogott volna.</t>
+  </si>
+  <si>
+    <t>47.4394496880346</t>
+  </si>
+  <si>
+    <t>19.142393085296504</t>
+  </si>
+  <si>
+    <t>A homokozónál
+A házak udvarán gyerekek nevetgéltek. Mysti csendben figyelte, ahogy a homokozóban kis formákból vár épül. A legmagasabb torony tetején egy kavics csillogott — pont olyan színben, mint Mysti medálja.</t>
+  </si>
+  <si>
+    <t>47.439014638611305</t>
+  </si>
+  <si>
+    <t>19.142244380563717</t>
+  </si>
+  <si>
+    <t>47.440009591444046</t>
+  </si>
+  <si>
+    <t>19.143660527661062</t>
+  </si>
+  <si>
+    <t>A kis játszótér mellett
+Az utolsó udvarban egy kis csúszda és két hinta állt. Mysti felugrott a csúszda aljához, és ott, a homokban egy apró, csillogó csillagformát talált. Amikor megérintette, a házak ablakai egy pillanatra mind felragyogtak.</t>
+  </si>
+  <si>
+    <t>Mi a neve annak a helynek, ahonnan a láva a földfelszínre tör?</t>
+  </si>
+  <si>
+    <t>Ilyenkor a hegy „füstöl” és lávát ont magából.</t>
+  </si>
+  <si>
+    <t>Olaszországban az Etna és a Vezúv is ilyen.</t>
+  </si>
+  <si>
+    <t>Vulkán</t>
+  </si>
+  <si>
+    <t>Melyik tenger mossa Olaszország nyugati partját?</t>
+  </si>
+  <si>
+    <t>Nevét egy régi nép, az etruszkok földjéről kapta.</t>
+  </si>
+  <si>
+    <t>Ugyanebbe a tengerbe folyik a Tiberis is.</t>
+  </si>
+  <si>
+    <t>Adriai;Adria;Tirrén;Tirrén tenger</t>
+  </si>
+  <si>
+    <t>Milyen formában tárolja az elem az energiát?</t>
+  </si>
+  <si>
+    <t>Nem mozgásban, hanem készenlétben van.</t>
+  </si>
+  <si>
+    <t>Az ellentétes pólusok között feszültség van.</t>
+  </si>
+  <si>
+    <t>Elektromos;kémiai</t>
+  </si>
+  <si>
+    <t>Ki írta a Toldi című művet?</t>
+  </si>
+  <si>
+    <t>Ő írta a „Családi kör” című verset is.</t>
+  </si>
+  <si>
+    <t>Vezetékneve „A” betűvel kezdődik.</t>
+  </si>
+  <si>
+    <t>Arany János</t>
+  </si>
+  <si>
+    <t>Hogyan nevezzük, amikor a levegőben a vízpára apró cseppekké válik és lehull a földre?</t>
+  </si>
+  <si>
+    <t>Ilyenkor az emberek esernyőt nyitnak.</t>
+  </si>
+  <si>
+    <t>Gyakran szivárvány követi.</t>
+  </si>
+  <si>
+    <t>Eső</t>
   </si>
 </sst>
 </file>
@@ -1799,7 +1930,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2215,8 +2346,36 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="3"/>
@@ -2270,11 +2429,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4305,6 +4464,166 @@
         <v>449</v>
       </c>
     </row>
+    <row r="69" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A69" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B69" s="2">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E69" s="2">
+        <v>10</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="I69" t="s">
+        <v>475</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A70" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="E70" s="2">
+        <v>10</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A71" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B71" s="2">
+        <v>3</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="E71" s="2">
+        <v>10</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A72" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B72" s="2">
+        <v>4</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="E72" s="2">
+        <v>5</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="J72" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A73" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B73" s="2">
+        <v>5</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="E73" s="2">
+        <v>10</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J5" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="179" documentId="14_{6919B7F3-4672-429A-9C3E-D1E368625577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{520F6AE3-DE22-4187-A561-7CEFF00DC9A6}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="14_{F9DBB4A3-1350-481C-B0BA-05D32293069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7FBEEF5-F432-4856-9FD9-CA594EB471A0}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
     <sheet name="tasks" sheetId="2" r:id="rId2"/>
+    <sheet name="kids feladatok" sheetId="3" r:id="rId3"/>
+    <sheet name="Filmes feladatok" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tasks!$A$1:$J$5</definedName>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="815">
   <si>
     <t>id</t>
   </si>
@@ -1636,12 +1638,985 @@
   <si>
     <t>Eső</t>
   </si>
+  <si>
+    <t>12+</t>
+  </si>
+  <si>
+    <t>gloriett-erdo2</t>
+  </si>
+  <si>
+    <t>Kérdés</t>
+  </si>
+  <si>
+    <t>Segítség 1</t>
+  </si>
+  <si>
+    <t>Segítség 2</t>
+  </si>
+  <si>
+    <t>Megoldás</t>
+  </si>
+  <si>
+    <t>Hogy hívják a Mancs őrjárat rendőr kutyáját?</t>
+  </si>
+  <si>
+    <t>Kék ruhát visel és mindig rendet tart.</t>
+  </si>
+  <si>
+    <t>A neve angolul azt jelenti: „Üldözni”.</t>
+  </si>
+  <si>
+    <t>Ki a Mancs őrjárat tűzoltó kutyája?</t>
+  </si>
+  <si>
+    <t>Fehér bundáján fekete foltok vannak.</t>
+  </si>
+  <si>
+    <t>Piros sisakot visel.</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Hogy hívják a kis hableányt a Disney mesében?</t>
+  </si>
+  <si>
+    <t>Piros haja van, és a tenger mélyén él.</t>
+  </si>
+  <si>
+    <t>A neve „A”-val kezdődik.</t>
+  </si>
+  <si>
+    <t>Ki az Oroszlánkirály kicsi hőse?</t>
+  </si>
+  <si>
+    <t>Ő Mufasa fia.</t>
+  </si>
+  <si>
+    <t>A neve „S”-sel kezdődik.</t>
+  </si>
+  <si>
+    <t>Milyen varázsereje van Elzának a Jégvarázsban?</t>
+  </si>
+  <si>
+    <t>Hideg dologgal tud varázsolni.</t>
+  </si>
+  <si>
+    <t>Tud havat és jeget létrehozni.</t>
+  </si>
+  <si>
+    <t>Jégvarázslat / fagyasztás</t>
+  </si>
+  <si>
+    <t>Hogy hívják a hóembert a Jégvarázsban?</t>
+  </si>
+  <si>
+    <t>Ő Elza és Anna barátja.</t>
+  </si>
+  <si>
+    <t>Mindig vágyik a nyárra.</t>
+  </si>
+  <si>
+    <t>Olaf</t>
+  </si>
+  <si>
+    <t>Milyen hal Nemo a „Némó nyomában” című mesében?</t>
+  </si>
+  <si>
+    <t>Kicsi, narancssárga és fehér csíkos.</t>
+  </si>
+  <si>
+    <t>A faj neve bohóchal.</t>
+  </si>
+  <si>
+    <t>Bohóchal</t>
+  </si>
+  <si>
+    <t>Hogy hívják a fekete sárkányt az „Így neveld a sárkányodat” filmben?</t>
+  </si>
+  <si>
+    <t>Éjfekete és tud repülni.</t>
+  </si>
+  <si>
+    <t>Nevét a fogairól kapta.</t>
+  </si>
+  <si>
+    <t>Fogatlan</t>
+  </si>
+  <si>
+    <t>Milyen színű Villám McQueen a Verdák című filmben?</t>
+  </si>
+  <si>
+    <t>A színe a sebességet jelképezi.</t>
+  </si>
+  <si>
+    <t>Milyen játék Woody a Toy Story-ban?</t>
+  </si>
+  <si>
+    <t>Kalapot visel és csillag van a mellén.</t>
+  </si>
+  <si>
+    <t>Ő egy vadnyugati hős.</t>
+  </si>
+  <si>
+    <t>Cowboy</t>
+  </si>
+  <si>
+    <t>Mi a szuperereje Mr. Irdatlannak?</t>
+  </si>
+  <si>
+    <t>Nagyon erős.</t>
+  </si>
+  <si>
+    <t>Mindenkinél nagyobb súlyt képes felemelni.</t>
+  </si>
+  <si>
+    <t>Szupererő</t>
+  </si>
+  <si>
+    <t>Mi Dumbo különleges képessége?</t>
+  </si>
+  <si>
+    <t>Nem ember, de mégis repül.</t>
+  </si>
+  <si>
+    <t>A füleit használja hozzá.</t>
+  </si>
+  <si>
+    <t>A füleivel repül</t>
+  </si>
+  <si>
+    <t>Ki Aladdin gonosz varázsló ellenfele?</t>
+  </si>
+  <si>
+    <t>Nagy fekete kígyóvá is átváltozik.</t>
+  </si>
+  <si>
+    <t>A neve „J”-vel kezdődik.</t>
+  </si>
+  <si>
+    <t>Jafar</t>
+  </si>
+  <si>
+    <t>Milyen állat Micimackó?</t>
+  </si>
+  <si>
+    <t>Mézet szeret enni.</t>
+  </si>
+  <si>
+    <t>A barátai Malacka és Füles.</t>
+  </si>
+  <si>
+    <t>Mackó</t>
+  </si>
+  <si>
+    <t>Ki Pán Péter kis tündér barátja?</t>
+  </si>
+  <si>
+    <t>Zöld ruhát visel, és tud repülni.</t>
+  </si>
+  <si>
+    <t>A neve T-vel kezdődik, és aprócska.</t>
+  </si>
+  <si>
+    <t>Csingiling</t>
+  </si>
+  <si>
+    <t>Mi a neve a lány szuperhősnek a „Hihetetlen család”-ban?</t>
+  </si>
+  <si>
+    <t>Képes láthatatlanná válni.</t>
+  </si>
+  <si>
+    <t>Ő Mr. Irdatlan lánya.</t>
+  </si>
+  <si>
+    <t>Violet</t>
+  </si>
+  <si>
+    <t>Ki a Bosszúállók zöld színű, hatalmas tagja?</t>
+  </si>
+  <si>
+    <t>Nagyon dühös, ha feldühítik.</t>
+  </si>
+  <si>
+    <t>A ruhája elszakad, mikor átváltozik.</t>
+  </si>
+  <si>
+    <t>Hulk</t>
+  </si>
+  <si>
+    <t>Ki Remy a „L’ecsó” című filmben?</t>
+  </si>
+  <si>
+    <t>Nem ember, de nagyon szeret főzni.</t>
+  </si>
+  <si>
+    <t>Egy patkány, aki szakács akar lenni.</t>
+  </si>
+  <si>
+    <t>Patkány</t>
+  </si>
+  <si>
+    <t>Milyen állat a Madagaszkár filmben Skipper, Kowalski, Rico és Katica?</t>
+  </si>
+  <si>
+    <t>Mind feketefehér és egyenruhásnak tűnik.</t>
+  </si>
+  <si>
+    <t>Jégből jöttek, és katonásan mozognak.</t>
+  </si>
+  <si>
+    <t>Pingvinek</t>
+  </si>
+  <si>
+    <t>Mi Harry Potter varázslóiskolájának neve?</t>
+  </si>
+  <si>
+    <t>Itt tanul varázslatot és seprűn repül.</t>
+  </si>
+  <si>
+    <t>A neve R betűre végződik.</t>
+  </si>
+  <si>
+    <t>Roxfort</t>
+  </si>
+  <si>
+    <t>Hogy hívják Shrek barátját, a beszédes állatot?</t>
+  </si>
+  <si>
+    <t>Mindig viccelődik és nem ember.</t>
+  </si>
+  <si>
+    <t>Egy szürke, beszélő állat.</t>
+  </si>
+  <si>
+    <t>Szamár</t>
+  </si>
+  <si>
+    <t>Milyen színű Shrek?</t>
+  </si>
+  <si>
+    <t>Nem emberi bőrű, hanem mesés színű.</t>
+  </si>
+  <si>
+    <t>Ugyanolyan színű, mint a fű.</t>
+  </si>
+  <si>
+    <t>Zöld</t>
+  </si>
+  <si>
+    <t>Milyen állat Balu A dzsungel könyvében?</t>
+  </si>
+  <si>
+    <t>Szereti a „dzsungel törvényét”.</t>
+  </si>
+  <si>
+    <t>Mézet és banánt eszik.</t>
+  </si>
+  <si>
+    <t>Medve</t>
+  </si>
+  <si>
+    <t>Hogy hívják Aladdin repülő barátját, a majmot?</t>
+  </si>
+  <si>
+    <t>Kicsi és barna.</t>
+  </si>
+  <si>
+    <t>Abu</t>
+  </si>
+  <si>
+    <t>Milyen állat Timon az Oroszlánkirályban?</t>
+  </si>
+  <si>
+    <t>Mindig Pumbával van együtt.</t>
+  </si>
+  <si>
+    <t>Kicsi, gyors és a föld alá is bújik.</t>
+  </si>
+  <si>
+    <t>Szurikáta</t>
+  </si>
+  <si>
+    <t>Milyen állat Pumba az Oroszlánkirályban?</t>
+  </si>
+  <si>
+    <t>Timon barátja.</t>
+  </si>
+  <si>
+    <t>Nagy, szarvval rendelkező vadmalac.</t>
+  </si>
+  <si>
+    <t>Varacskosdisznó</t>
+  </si>
+  <si>
+    <t>Hogy hívják a hercegnőt, akinek egy varangyos béka adja vissza a boldogságát?</t>
+  </si>
+  <si>
+    <t>A történet New Orleansban játszódik.</t>
+  </si>
+  <si>
+    <t>Ő a „béka hercegnő”.</t>
+  </si>
+  <si>
+    <t>Tiana</t>
+  </si>
+  <si>
+    <t>Melyik mese hőse beszélget a tükörrel?</t>
+  </si>
+  <si>
+    <t>A tükör mindig az igazat mondja.</t>
+  </si>
+  <si>
+    <t>A gonosz királynő egyik kérdése róla szól.</t>
+  </si>
+  <si>
+    <t>Hófehérke</t>
+  </si>
+  <si>
+    <t>Ki volt Hófehérke barátai közül a legkisebb?</t>
+  </si>
+  <si>
+    <t>Szeret aludni.</t>
+  </si>
+  <si>
+    <t>A neve „Sz” betűvel kezdődik.</t>
+  </si>
+  <si>
+    <t>Szundi</t>
+  </si>
+  <si>
+    <t>Milyen állat Bambi?</t>
+  </si>
+  <si>
+    <t>Erdei állat, akinek foltos a háta.</t>
+  </si>
+  <si>
+    <t>Agancsa lesz, mikor felnő.</t>
+  </si>
+  <si>
+    <t>Őz</t>
+  </si>
+  <si>
+    <t>Milyen állat Tré a Verdákban?</t>
+  </si>
+  <si>
+    <t>Rozsdás és vicces.</t>
+  </si>
+  <si>
+    <t>Nem versenyautó, hanem vontató.</t>
+  </si>
+  <si>
+    <t>Vontatóautó</t>
+  </si>
+  <si>
+    <t>Milyen állat Judy Hopps a Zootropolisban?</t>
+  </si>
+  <si>
+    <t>Rendőrként dolgozik.</t>
+  </si>
+  <si>
+    <t>Kicsi, szürke, hosszú füle van.</t>
+  </si>
+  <si>
+    <t>Nyúl</t>
+  </si>
+  <si>
+    <t>Ki SpongeBob legjobb barátja?</t>
+  </si>
+  <si>
+    <t>Rózsaszín és butácska, de aranyos.</t>
+  </si>
+  <si>
+    <t>Csillag alakú tengeri élőlény.</t>
+  </si>
+  <si>
+    <t>Patrik</t>
+  </si>
+  <si>
+    <t>Milyen háziállat Garfield?</t>
+  </si>
+  <si>
+    <t>Imádja a lasagnét.</t>
+  </si>
+  <si>
+    <t>Narancssárga és lusta.</t>
+  </si>
+  <si>
+    <t>Macska</t>
+  </si>
+  <si>
+    <t>Hogy hívják Mickey egér barátnőjét?</t>
+  </si>
+  <si>
+    <t>Masnit visel a fején.</t>
+  </si>
+  <si>
+    <t>Ugyanolyan név, csak nőiesebb.</t>
+  </si>
+  <si>
+    <t>Minnie egér</t>
+  </si>
+  <si>
+    <t>Milyen állat Goofy?</t>
+  </si>
+  <si>
+    <t>Nagy fülű, vicces, két lábon járó karakter.</t>
+  </si>
+  <si>
+    <t>Gyakran csinál butaságokat.</t>
+  </si>
+  <si>
+    <t>Kutya</t>
+  </si>
+  <si>
+    <t>Ki a herceg Elza húga a Jégvarázsban?</t>
+  </si>
+  <si>
+    <t>Ő nem tud varázsolni.</t>
+  </si>
+  <si>
+    <t>A szőke herceg helyett Kristoffot választja.</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Milyen állat Scooby-Doo?</t>
+  </si>
+  <si>
+    <t>Félénk, de imádja a jutalomfalatot.</t>
+  </si>
+  <si>
+    <t>Egy hatalmas barna kutya.</t>
+  </si>
+  <si>
+    <t>Dán dog</t>
+  </si>
+  <si>
+    <t>Hogy hívják a rózsaszín disznót a Peppa Pig mesében?</t>
+  </si>
+  <si>
+    <t>Kislány, szereti a sarat.</t>
+  </si>
+  <si>
+    <t>A neve benne van a címben is.</t>
+  </si>
+  <si>
+    <t>Ki Tapsi Hapsi?</t>
+  </si>
+  <si>
+    <t>Szereti a répát.</t>
+  </si>
+  <si>
+    <t>Gyakran mondja: „Mi a helyzet, doki?”</t>
+  </si>
+  <si>
+    <t>Ki a Kung Fu Panda főhőse?</t>
+  </si>
+  <si>
+    <t>Nagy, fekete-fehér állat, aki harcos lesz.</t>
+  </si>
+  <si>
+    <t>A neve rövid, két betűs.</t>
+  </si>
+  <si>
+    <t>Po</t>
+  </si>
+  <si>
+    <t>Milyen állat Alex a Madagaszkárban?</t>
+  </si>
+  <si>
+    <t>A fő attrakció az állatkertben.</t>
+  </si>
+  <si>
+    <t>A „dzsungel királya”.</t>
+  </si>
+  <si>
+    <t>Oroszlán</t>
+  </si>
+  <si>
+    <t>Ki vezeti az autókat a „Verdák” világában?</t>
+  </si>
+  <si>
+    <t>Senki, mert az autók maguktól mozognak.</t>
+  </si>
+  <si>
+    <t>Minden autó „élő”.</t>
+  </si>
+  <si>
+    <t>Az autók maguk</t>
+  </si>
+  <si>
+    <t>Melyik mesében szerepel Elsa és Anna?</t>
+  </si>
+  <si>
+    <t>Egy jeges világban élnek.</t>
+  </si>
+  <si>
+    <t>Az egyik legnépszerűbb Disney-film.</t>
+  </si>
+  <si>
+    <t>Jégvarázs</t>
+  </si>
+  <si>
+    <t>Hogy hívják a kis, sárga figurákat a Gru filmekben?</t>
+  </si>
+  <si>
+    <t>Egyformák, vicces hangjuk van.</t>
+  </si>
+  <si>
+    <t>Bananát kiáltanak.</t>
+  </si>
+  <si>
+    <t>Minyonok</t>
+  </si>
+  <si>
+    <t>Ki a Gru film gonosz hőse, aki végül jó lesz?</t>
+  </si>
+  <si>
+    <t>Három kislányt fogad örökbe.</t>
+  </si>
+  <si>
+    <t>Kopasz, orrban nagy, sárga lényekkel dolgozik.</t>
+  </si>
+  <si>
+    <t>Gru</t>
+  </si>
+  <si>
+    <t>Ki a Moana című film főszereplője?</t>
+  </si>
+  <si>
+    <t>Egy bátor polinéz lány.</t>
+  </si>
+  <si>
+    <t>A tenger hívja őt kalandra.</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Milyen állat Sid a Jégkorszakban?</t>
+  </si>
+  <si>
+    <t>Lusta, de vicces.</t>
+  </si>
+  <si>
+    <t>Hosszú karjai vannak, és sokat beszél.</t>
+  </si>
+  <si>
+    <t>Milyen állat Diego a Jégkorszakban?</t>
+  </si>
+  <si>
+    <t>Erős, nagy fogai vannak.</t>
+  </si>
+  <si>
+    <t>Kardfogú ragadozó.</t>
+  </si>
+  <si>
+    <t>Kardfogú tigris</t>
+  </si>
+  <si>
+    <t>Ki a Jégkorszak mamutja?</t>
+  </si>
+  <si>
+    <t>Nagy, szőrös, ormányos állat.</t>
+  </si>
+  <si>
+    <t>A neve „M”-mel kezdődik.</t>
+  </si>
+  <si>
+    <t>Manny</t>
+  </si>
+  <si>
+    <t>Ki az, aki varázsszőnyegen repül?</t>
+  </si>
+  <si>
+    <t>Talál egy lámpát, amiből dzsinn jön elő.</t>
+  </si>
+  <si>
+    <t>Egy hercegnő szerelme.</t>
+  </si>
+  <si>
+    <t>Aladdin</t>
+  </si>
+  <si>
+    <t>Marshall;Marsal;Marshal</t>
+  </si>
+  <si>
+    <t>Chase;Chéz</t>
+  </si>
+  <si>
+    <t>Jégvarázslat;fagyasztás</t>
+  </si>
+  <si>
+    <t>47.42718451163582</t>
+  </si>
+  <si>
+    <t>19.178043429525424</t>
+  </si>
+  <si>
+    <t>47.426235018983945</t>
+  </si>
+  <si>
+    <t>19.176920654518014</t>
+  </si>
+  <si>
+    <t>47.425216453279795</t>
+  </si>
+  <si>
+    <t>19.17861757583603</t>
+  </si>
+  <si>
+    <t>47.42420650002883</t>
+  </si>
+  <si>
+    <t>19.179689315615835</t>
+  </si>
+  <si>
+    <t>47.42294618927473</t>
+  </si>
+  <si>
+    <t>19.181245890288764</t>
+  </si>
+  <si>
+    <t>47.422747644423936</t>
+  </si>
+  <si>
+    <t>19.181934865861493</t>
+  </si>
+  <si>
+    <t>47.42395616670534</t>
+  </si>
+  <si>
+    <t>19.183095917289616</t>
+  </si>
+  <si>
+    <t>47.42533730105485</t>
+  </si>
+  <si>
+    <t>19.182406941716884</t>
+  </si>
+  <si>
+    <t>47.426935572452386</t>
+  </si>
+  <si>
+    <t>19.180570283581336</t>
+  </si>
+  <si>
+    <t>47.427530756055134</t>
+  </si>
+  <si>
+    <t>19.178928771828303</t>
+  </si>
+  <si>
+    <t>Egy nap Mysti cica elindult felfedezni a Budapest melletti nagy erdőt. A levelek között madarak csiviteltek, a fák között átszűrődött a napfény, és mindenütt virágillat lengte be a levegőt. Mysti dorombolva lépkedett az ösvényen, de ahogy haladt, észrevette, hogy az erdő tele van apró rejtélyekkel — mintha maga a természet is meséket suttogna.
+„Ha válaszolsz a kérdéseimre” – mondta Mysti mosolyogva –, „minden fánál egy új mesetitok tárul fel!” 🌿</t>
+  </si>
+  <si>
+    <t>Mysti megállt egy vastag, göcsörtös törzsű tölgyfa mellett. A kéregre valaki mancsnyomot rajzolt krétával.</t>
+  </si>
+  <si>
+    <t>Egy régi, mohás fatörzs feküdt az ösvény mellett. Mysti felmászott rá, körbenézett és nevetett.</t>
+  </si>
+  <si>
+    <t>A fák közül egy apró rét nyílt, ahol sárga és lila virágok lengedeztek a szélben. Mysti megállt, és elmosolyodott.</t>
+  </si>
+  <si>
+    <t>Mysti bebújt egy árnyékos fatörzs mögé, ahol apró bogarak mászkáltak.</t>
+  </si>
+  <si>
+    <t>A napfény átszűrődött a fenyők ágai között, a levegő hűvös és csendes volt. Mysti megállt, és megkérdezte:</t>
+  </si>
+  <si>
+    <t>Egy vastag tuskón zöld moha nőtt. Mysti felugrott rá, és bajuszát megigazította.</t>
+  </si>
+  <si>
+    <t>Mysti egy zörgő levélkupacba ugrott, és nagyot nevetett.</t>
+  </si>
+  <si>
+    <t>Egy kis emelkedő mellett Mysti megpillantott egy fák közé akadt tükrös fémlapot.</t>
+  </si>
+  <si>
+    <t>A fák ágai között madarak csiviteltek, Mysti pedig a gyerekekhez fordult.</t>
+  </si>
+  <si>
+    <t>A nap sugarai áttörtek a fák között, és megvilágították a puha füvet. Mysti megállt, farkát lassan lengette.</t>
+  </si>
+  <si>
+    <t>Mysti leült egy kidőlt fa mellé, és elégedetten dorombolt. Az erdőben halk szellő zúgott, a levelek susogása mintha meséket súgott volna.
+– Látjátok? – mondta mosolyogva. – Az erdő ismeri az összes történetet, csak meg kell hallgatni! 🌿
+A gyerekek nevetve válaszoltak a kérdésekre, Mysti pedig boldogan nézett körül — mert tudta, a kaland folytatódik, amíg léteznek mesék és kíváncsi gyerekek. 🌞</t>
+  </si>
+  <si>
+    <t>thumbnails\erdo2mese.png</t>
+  </si>
+  <si>
+    <t>Mysti és az Erdő Mesés Kérdései - Halmi Erdő</t>
+  </si>
+  <si>
+    <t>attila-teszt</t>
+  </si>
+  <si>
+    <t>47.44489542009956</t>
+  </si>
+  <si>
+    <t>19.21261318529525</t>
+  </si>
+  <si>
+    <t>thumbnails\attila.png</t>
+  </si>
+  <si>
+    <t>A mozi kezdődik:
+Egy hűvös őszi estén két ember találkozik a város egyik parkjának sarkán. Nem ez az első randijuk, de valami különlegesre vágynak — nem egy kávézóra vagy mozira, hanem egy közös kalandra. A telefonjukon egy MystiGo-játék várja őket: tíz állomás, mindegyik egy apró filmes rejtvény.
+A szabály egyszerű: ha jól válaszolnak, mehetnek tovább. Ha nem... nos, a filmekhez hasonlóan, néha újra kell venni a jelenetet. 🎬</t>
+  </si>
+  <si>
+    <t>A játék utolsó pontján a két játékos egy padon ül le, a város fényei lassan kigyúlnak a távolban.
+A telefon kijelzőjén ez áll: „Gratulálok! A film még csak most kezdődik.”
+Mindketten elmosolyodnak — mert tudják, hogy ez a közös történet nem a stáblistával ér véget. 🌙🎞️</t>
+  </si>
+  <si>
+    <t>Attila Kutyasétáltatós Filmes randija</t>
+  </si>
+  <si>
+    <t>„Én vagyok az apád” – Melyik filmben hangzik el ez a híres mondat?</t>
+  </si>
+  <si>
+    <t>A leghíresebb űreposzok egyike.</t>
+  </si>
+  <si>
+    <t>A gonosz apa neve Darth Vader.</t>
+  </si>
+  <si>
+    <t>Star Wars – A Birodalom visszavág</t>
+  </si>
+  <si>
+    <t>„Hakuna Matata” – melyik mese üzenete ez?</t>
+  </si>
+  <si>
+    <t>Afrikai szavannán játszódik.</t>
+  </si>
+  <si>
+    <t>Timon és Pumba is ezt mondják.</t>
+  </si>
+  <si>
+    <t>Oroszlánkirály</t>
+  </si>
+  <si>
+    <t>„Senki sem tökéletes” – mivel zárul ez a vígjáték?</t>
+  </si>
+  <si>
+    <t>Két férfi nőnek öltözik.</t>
+  </si>
+  <si>
+    <t>Marilyn Monroe is szerepel.</t>
+  </si>
+  <si>
+    <t>Van, aki forrón szereti</t>
+  </si>
+  <si>
+    <t>Melyik filmben hangzik el: „Az élet olyan, mint egy doboz bonbon”?</t>
+  </si>
+  <si>
+    <t>Egy futó férfi mondja ezt.</t>
+  </si>
+  <si>
+    <t>Tom Hanks játssza.</t>
+  </si>
+  <si>
+    <t>Forrest Gump</t>
+  </si>
+  <si>
+    <t>„Csak ússz tovább!” – melyik animációs film szlogenje?</t>
+  </si>
+  <si>
+    <t>Egy bohóchal szerepel benne.</t>
+  </si>
+  <si>
+    <t>Szenilla is benne van.</t>
+  </si>
+  <si>
+    <t>Némó nyomában</t>
+  </si>
+  <si>
+    <t>Melyik filmben szerepel egy mágikus gyűrű, ami láthatatlanná tesz?</t>
+  </si>
+  <si>
+    <t>Tolkien írása alapján készült.</t>
+  </si>
+  <si>
+    <t>Főhőse egy hobbit.</t>
+  </si>
+  <si>
+    <t>A Gyűrűk Ura</t>
+  </si>
+  <si>
+    <t>Ki mondja: „Varázslatos napot, Potter”?</t>
+  </si>
+  <si>
+    <t>Ő a varázslóiskola igazgatója.</t>
+  </si>
+  <si>
+    <t>Hosszú, fehér szakálla van.</t>
+  </si>
+  <si>
+    <t>Dumbledore</t>
+  </si>
+  <si>
+    <t>„Télapó is van a városban” – melyik film főhőse karácsonykor találja meg önmagát?</t>
+  </si>
+  <si>
+    <t>Egy zöld lény utálja az ünnepeket.</t>
+  </si>
+  <si>
+    <t>A film címe egy szó: Grincs.</t>
+  </si>
+  <si>
+    <t>A Grincs</t>
+  </si>
+  <si>
+    <t>Melyik filmben szól a dal: „Let It Go”?</t>
+  </si>
+  <si>
+    <t>Egy jeges királyságban játszódik.</t>
+  </si>
+  <si>
+    <t>Elza énekli.</t>
+  </si>
+  <si>
+    <t>Mi volt a neve az autós időgépnek a „Vissza a jövőbe” filmben?</t>
+  </si>
+  <si>
+    <t>Ezüst színű sportautó.</t>
+  </si>
+  <si>
+    <t>88 mérföld/óránál működik.</t>
+  </si>
+  <si>
+    <t>DeLorean</t>
+  </si>
+  <si>
+    <t>Melyik filmben található R2-D2 és C-3PO?</t>
+  </si>
+  <si>
+    <t>Robotok, akik mindig együtt járnak.</t>
+  </si>
+  <si>
+    <t>Űreposz a Jedikről.</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Milyen állat Shrek legjobb barátja?</t>
+  </si>
+  <si>
+    <t>Beszél, vicces és makacs.</t>
+  </si>
+  <si>
+    <t>Egy szamár.</t>
+  </si>
+  <si>
+    <t>Melyik filmben hangzik el: „You shall not pass!”?</t>
+  </si>
+  <si>
+    <t>Egy öreg varázsló mondja egy hídon.</t>
+  </si>
+  <si>
+    <t>Gandalf neve ismerős lehet.</t>
+  </si>
+  <si>
+    <t>A Gyűrűk Ura: A Gyűrű Szövetsége</t>
+  </si>
+  <si>
+    <t>Mi volt Jack utolsó szava Rose-hoz a Titanicban?</t>
+  </si>
+  <si>
+    <t>Egyetlen szó volt.</t>
+  </si>
+  <si>
+    <t>A lány neve.</t>
+  </si>
+  <si>
+    <t>Rose</t>
+  </si>
+  <si>
+    <t>Melyik filmben találkozhatunk Buzz Lightyear és Woody karakterével?</t>
+  </si>
+  <si>
+    <t>Játékok életre kelnek.</t>
+  </si>
+  <si>
+    <t>Pixar-klasszikus.</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Melyik filmben van egy kék, gyors mozgású sündisznó?</t>
+  </si>
+  <si>
+    <t>Videójátékból készült film.</t>
+  </si>
+  <si>
+    <t>Sonic, a sündisznó</t>
+  </si>
+  <si>
+    <t>Milyen állat Po a „Kung Fu Panda” című filmben?</t>
+  </si>
+  <si>
+    <t>Fekete-fehér, nagy és ügyetlen.</t>
+  </si>
+  <si>
+    <t>Később harcmester lesz.</t>
+  </si>
+  <si>
+    <t>Panda</t>
+  </si>
+  <si>
+    <t>Melyik filmben szerepel Elsa húga, Anna?</t>
+  </si>
+  <si>
+    <t>Szintén egy fagyos világban játszódik.</t>
+  </si>
+  <si>
+    <t>Kettes számú rész is készült belőle.</t>
+  </si>
+  <si>
+    <t>Az erdőben él, agancsa lesz.</t>
+  </si>
+  <si>
+    <t>Anyukáját elveszti a film elején.</t>
+  </si>
+  <si>
+    <t>Melyik filmben hangzik el: „Bond. James Bond.”?</t>
+  </si>
+  <si>
+    <t>Titkosügynök film.</t>
+  </si>
+  <si>
+    <t>Első rész: Dr. No.</t>
+  </si>
+  <si>
+    <t>James Bond – Dr. No</t>
+  </si>
+  <si>
+    <t>„Én vagyok az apád” – A Star Wars melyik részében hangzik el ez a híres mondat?</t>
+  </si>
+  <si>
+    <t>A Birodalom visszavág;Birodalom visszavág</t>
+  </si>
+  <si>
+    <t>Forrest Gump;Forest Gump</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1671,6 +2646,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1693,7 +2675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1706,6 +2688,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1930,7 +2918,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2097,7 +3085,7 @@
         <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>493</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -2378,12 +3366,68 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>729</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>734</v>
+      </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
@@ -2429,11 +3473,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4624,6 +5668,412 @@
         <v>492</v>
       </c>
     </row>
+    <row r="74" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A74" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B74" s="2">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>697</v>
+      </c>
+      <c r="D74" t="s">
+        <v>698</v>
+      </c>
+      <c r="F74" t="s">
+        <v>718</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="I74" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="J74" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A75" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B75" s="2">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="D75" t="s">
+        <v>700</v>
+      </c>
+      <c r="F75" t="s">
+        <v>719</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="I75" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="J75" s="8" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A76" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B76" s="2">
+        <v>3</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="D76" t="s">
+        <v>702</v>
+      </c>
+      <c r="F76" t="s">
+        <v>720</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A77" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B77" s="2">
+        <v>4</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="D77" t="s">
+        <v>704</v>
+      </c>
+      <c r="F77" t="s">
+        <v>721</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="H77" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="I77" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A78" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B78" s="2">
+        <v>5</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D78" t="s">
+        <v>706</v>
+      </c>
+      <c r="F78" t="s">
+        <v>722</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="J78" s="8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A79" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B79" s="2">
+        <v>6</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="D79" t="s">
+        <v>708</v>
+      </c>
+      <c r="F79" t="s">
+        <v>723</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="I79" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="J79" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A80" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B80" s="2">
+        <v>7</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="D80" t="s">
+        <v>710</v>
+      </c>
+      <c r="F80" t="s">
+        <v>724</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="J80" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A81" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B81" s="2">
+        <v>8</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="D81" t="s">
+        <v>712</v>
+      </c>
+      <c r="F81" t="s">
+        <v>725</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="H81" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="I81" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="J81" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A82" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B82" s="2">
+        <v>9</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="D82" t="s">
+        <v>714</v>
+      </c>
+      <c r="F82" t="s">
+        <v>726</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="J82" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A83" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B83" s="2">
+        <v>10</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="D83" t="s">
+        <v>716</v>
+      </c>
+      <c r="F83" t="s">
+        <v>727</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="I83" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A84" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="H84" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="I84" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A85" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B85" s="2">
+        <v>2</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="H85" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="I85" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A86" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B86" s="2">
+        <v>3</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="I86" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A87" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B87" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A88" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B88" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A89" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B89" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A90" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B90" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A91" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B91" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A92" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B92" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A93" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="B93" s="2">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J5" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4631,4 +6081,1068 @@
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 C2 General</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B9CE32-7434-4EBC-8E6B-DB471C0DA13A}">
+  <dimension ref="A1:D52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="49.6640625" defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4">
+      <c r="A9" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="26.4">
+      <c r="A20" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="26.4">
+      <c r="A28" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>598</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>603</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>643</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>646</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>653</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>693</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEA013B-782E-477E-A33B-0D3B97A68F73}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="37.6640625" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="41.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26.4">
+      <c r="A2" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="26.4">
+      <c r="A4" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="26.4">
+      <c r="A5" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.4">
+      <c r="A6" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.4">
+      <c r="A7" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.4">
+      <c r="A9" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4">
+      <c r="A10" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="26.4">
+      <c r="A11" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="26.4">
+      <c r="A12" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="26.4">
+      <c r="A14" s="8" t="s">
+        <v>784</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4">
+      <c r="A15" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="26.4">
+      <c r="A16" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4">
+      <c r="A17" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="26.4">
+      <c r="A18" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>801</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="26.4">
+      <c r="A19" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>804</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>806</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="26.4">
+      <c r="A21" s="8" t="s">
+        <v>808</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>809</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>811</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="14_{F9DBB4A3-1350-481C-B0BA-05D32293069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7FBEEF5-F432-4856-9FD9-CA594EB471A0}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="14_{F9DBB4A3-1350-481C-B0BA-05D32293069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ADFF8E0-DE4B-4EE2-990E-36FCFE4A2CDB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="844">
   <si>
     <t>id</t>
   </si>
@@ -2611,12 +2611,162 @@
   <si>
     <t>Forrest Gump;Forest Gump</t>
   </si>
+  <si>
+    <t>Némó nyomában;Némó</t>
+  </si>
+  <si>
+    <t>Milyen színű volt Neo kabátja a Mátrixban?</t>
+  </si>
+  <si>
+    <t>A film komor, futurisztikus hangulatú.</t>
+  </si>
+  <si>
+    <t>A kabát színe olyan, mint a film tónusa.</t>
+  </si>
+  <si>
+    <t>Fekete</t>
+  </si>
+  <si>
+    <t>A „Rózsaszín párduc” – milyen állat ez valójában a filmben?</t>
+  </si>
+  <si>
+    <t>Nem élőlény, hanem valami más.</t>
+  </si>
+  <si>
+    <t>Egy drágakő.</t>
+  </si>
+  <si>
+    <t>Ékszer;gyémánt</t>
+  </si>
+  <si>
+    <t>A „Szerelem hullámhosszán” film fináléja melyik városban játszódik?</t>
+  </si>
+  <si>
+    <t>Egy híres felhőkarcoló tetején történik.</t>
+  </si>
+  <si>
+    <t>Az Empire State Building áll ott.</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Melyik Bosszúálló emeli meg Thor kalapácsát az „Ultron kora” című film végén?</t>
+  </si>
+  <si>
+    <t>Csak az tudja felemelni, aki méltó rá.</t>
+  </si>
+  <si>
+    <t>Egy piros-ezüst páncélos hős, mesterséges intelligenciával.</t>
+  </si>
+  <si>
+    <t>Vision</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Az erdő mélyén egy különös fénycsóva villan, mintha lézerkard hasítaná ketté a sötétséget. A levegő vibrál, és egy mély hang szól: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>„Én vagyok az apád.”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Vajon felismered, melyik űreposzban hallottuk ezt először?</t>
+    </r>
+  </si>
+  <si>
+    <t>Az ösvény szélén egy pad áll, rajta egy doboz bonbon. Mysti szerint minden randi és minden kaland pont ilyen — sosem tudhatod, mi vár rád. De vajon ki mondta először ezt a híres mondatot?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A fák árnyékában egy apró, fénylő bagolyfigura ül. Az erdő mintha varázslattól pezsegne, és a levegőben halványan zeng egy hang: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>„Varázslatos napot, Potter!”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Emlékszel, ki üdvözölte így a fiatal varázslót?</t>
+    </r>
+  </si>
+  <si>
+    <t>Egy rozsdás táblán villogó számokat látsz: 88, 1955, 2015… mintha valaki itt járt volna az időn túl. Vajon mi volt annak a legendás autónak a neve, amivel Marty McFly utazott?</t>
+  </si>
+  <si>
+    <t>A fák között halkan susog a szél, mint a tenger hullámai. Mysti megáll, és szinte hallani véli a suttogást: „Ne engedd el.” De mi volt Jack utolsó szava Rose-hoz a híres hajó tragédiájában?</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A gyalogút mentén apró kék kavicsok vezetnek tovább, mintha a tenger fenekét jelölnék. Mysti kuncog: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>„Csak ússz tovább!”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> — hallatszik a fejében egy ismerős hang. De melyik filmben biztatnak ezzel?</t>
+    </r>
+  </si>
+  <si>
+    <t>A fák közül fekete madár száll fel, a levegő hirtelen sűrűvé válik, mint a digitális kódok az égen. Mysti hátrapillant, és érzi, hogy ez nem a valóság. Emlékszel, milyen színű kabátban lépett be Neo a Mátrix világába?</t>
+  </si>
+  <si>
+    <t>A leveleken halvány rózsaszín fény játszik, mintha egy ékkő ragyogna. Mysti megdörzsöli a szemét – nincs is itt párduc! Vagy mégis? Tudod, mi is valójában a „Rózsaszín párduc”?</t>
+  </si>
+  <si>
+    <t>Az út végén egy padon ül két szív alakú graffiti. Mysti felnéz az égre, és a felhők között egy felhőkarcoló sziluettje rajzolódik ki. Melyik városban találkoznak ott a szerelmesek?</t>
+  </si>
+  <si>
+    <t>Az erdei ösvényen egy kőbe szúrt fémkalapács áll. A játékosok próbálják megemelni, de meg se mozdul — csak az, aki méltó rá, képes felemelni. Vajon ki volt az, akinek ez a filmben sikerült? ⚡</t>
+  </si>
+  <si>
+    <t>47.443808785306835</t>
+  </si>
+  <si>
+    <t>19.212115593654556</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2648,6 +2798,19 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2711,6 +2874,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2918,7 +3085,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3475,9 +3642,9 @@
   </sheetPr>
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5965,6 +6132,15 @@
       <c r="B84" s="2">
         <v>1</v>
       </c>
+      <c r="C84" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F84" t="s">
+        <v>832</v>
+      </c>
       <c r="G84" s="8" t="s">
         <v>812</v>
       </c>
@@ -5985,6 +6161,15 @@
       <c r="B85" s="2">
         <v>2</v>
       </c>
+      <c r="C85" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F85" t="s">
+        <v>833</v>
+      </c>
       <c r="G85" s="8" t="s">
         <v>750</v>
       </c>
@@ -6005,6 +6190,15 @@
       <c r="B86" s="2">
         <v>3</v>
       </c>
+      <c r="C86" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F86" t="s">
+        <v>834</v>
+      </c>
       <c r="G86" s="8" t="s">
         <v>762</v>
       </c>
@@ -6025,6 +6219,27 @@
       <c r="B87" s="2">
         <v>4</v>
       </c>
+      <c r="C87" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="H87" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>776</v>
+      </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
@@ -6033,6 +6248,27 @@
       <c r="B88" s="2">
         <v>5</v>
       </c>
+      <c r="C88" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="H88" s="8" t="s">
+        <v>789</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>791</v>
+      </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
@@ -6041,6 +6277,27 @@
       <c r="B89" s="2">
         <v>6</v>
       </c>
+      <c r="C89" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F89" t="s">
+        <v>837</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="I89" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="J89" s="8" t="s">
+        <v>815</v>
+      </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
@@ -6049,6 +6306,27 @@
       <c r="B90" s="2">
         <v>7</v>
       </c>
+      <c r="C90" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>816</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>818</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>819</v>
+      </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
@@ -6057,6 +6335,27 @@
       <c r="B91" s="2">
         <v>8</v>
       </c>
+      <c r="C91" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>820</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
@@ -6065,6 +6364,27 @@
       <c r="B92" s="2">
         <v>9</v>
       </c>
+      <c r="C92" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>824</v>
+      </c>
+      <c r="H92" s="8" t="s">
+        <v>825</v>
+      </c>
+      <c r="I92" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="J92" s="8" t="s">
+        <v>827</v>
+      </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
@@ -6072,6 +6392,27 @@
       </c>
       <c r="B93" s="2">
         <v>10</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>828</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>829</v>
+      </c>
+      <c r="I93" s="8" t="s">
+        <v>830</v>
+      </c>
+      <c r="J93" s="8" t="s">
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -6836,7 +7177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEA013B-782E-477E-A33B-0D3B97A68F73}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="148" documentId="14_{F9DBB4A3-1350-481C-B0BA-05D32293069B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ADFF8E0-DE4B-4EE2-990E-36FCFE4A2CDB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F52ED03-A119-41B3-AC92-011BD083402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -2766,7 +2766,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2798,12 +2798,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -2874,10 +2868,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F52ED03-A119-41B3-AC92-011BD083402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{4F52ED03-A119-41B3-AC92-011BD083402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E36C167-8AFF-4F02-B739-2E600978B0A5}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="844">
   <si>
     <t>id</t>
   </si>
@@ -3633,8 +3633,8 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6382,9 +6382,6 @@
       </c>
       <c r="B93" s="2">
         <v>10</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>843</v>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{4F52ED03-A119-41B3-AC92-011BD083402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E36C167-8AFF-4F02-B739-2E600978B0A5}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{4F52ED03-A119-41B3-AC92-011BD083402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07FA6B6D-3AFE-537D-B953-6E7FD963D817}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="844">
   <si>
     <t>id</t>
   </si>
@@ -3633,8 +3633,8 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6382,6 +6382,9 @@
       </c>
       <c r="B93" s="2">
         <v>10</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>842</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>843</v>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{4F52ED03-A119-41B3-AC92-011BD083402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07FA6B6D-3AFE-537D-B953-6E7FD963D817}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{4F52ED03-A119-41B3-AC92-011BD083402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F442A1B-6C6D-46D2-AF3D-AFEEAB966B4A}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="862">
   <si>
     <t>id</t>
   </si>
@@ -2760,6 +2760,60 @@
   </si>
   <si>
     <t>19.212115593654556</t>
+  </si>
+  <si>
+    <t>47.44284370757273</t>
+  </si>
+  <si>
+    <t>19.213789294974305</t>
+  </si>
+  <si>
+    <t>47.44173349973655</t>
+  </si>
+  <si>
+    <t>19.214819263261774</t>
+  </si>
+  <si>
+    <t>47.440630524950926</t>
+  </si>
+  <si>
+    <t>19.215516637508053</t>
+  </si>
+  <si>
+    <t>47.43962911992409</t>
+  </si>
+  <si>
+    <t>19.214787076688175</t>
+  </si>
+  <si>
+    <t>47.43907761335556</t>
+  </si>
+  <si>
+    <t>19.214443753860277</t>
+  </si>
+  <si>
+    <t>47.43818503129704</t>
+  </si>
+  <si>
+    <t>19.213778566091072</t>
+  </si>
+  <si>
+    <t>47.43716180883292</t>
+  </si>
+  <si>
+    <t>19.213081191764363</t>
+  </si>
+  <si>
+    <t>47.436428849997945</t>
+  </si>
+  <si>
+    <t>19.21442229626966</t>
+  </si>
+  <si>
+    <t>47.43546365101761</t>
+  </si>
+  <si>
+    <t>19.216256927225103</t>
   </si>
 </sst>
 </file>
@@ -3633,8 +3687,8 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6151,11 +6205,11 @@
       <c r="B85" s="2">
         <v>2</v>
       </c>
-      <c r="C85" s="2" t="s">
-        <v>842</v>
+      <c r="C85" s="3" t="s">
+        <v>844</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="F85" t="s">
         <v>833</v>
@@ -6180,11 +6234,11 @@
       <c r="B86" s="2">
         <v>3</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>842</v>
+      <c r="C86" s="3" t="s">
+        <v>846</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="F86" t="s">
         <v>834</v>
@@ -6209,11 +6263,11 @@
       <c r="B87" s="2">
         <v>4</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>842</v>
+      <c r="C87" s="3" t="s">
+        <v>848</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>835</v>
@@ -6238,11 +6292,11 @@
       <c r="B88" s="2">
         <v>5</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>842</v>
+      <c r="C88" s="3" t="s">
+        <v>850</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>836</v>
@@ -6267,11 +6321,11 @@
       <c r="B89" s="2">
         <v>6</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>842</v>
+      <c r="C89" s="3" t="s">
+        <v>852</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="F89" t="s">
         <v>837</v>
@@ -6296,11 +6350,11 @@
       <c r="B90" s="2">
         <v>7</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>842</v>
+      <c r="C90" s="3" t="s">
+        <v>854</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>843</v>
+        <v>855</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>838</v>
@@ -6325,11 +6379,11 @@
       <c r="B91" s="2">
         <v>8</v>
       </c>
-      <c r="C91" s="2" t="s">
-        <v>842</v>
+      <c r="C91" s="3" t="s">
+        <v>856</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>839</v>
@@ -6354,11 +6408,11 @@
       <c r="B92" s="2">
         <v>9</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>842</v>
+      <c r="C92" s="3" t="s">
+        <v>858</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>840</v>
@@ -6383,11 +6437,11 @@
       <c r="B93" s="2">
         <v>10</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>842</v>
+      <c r="C93" s="3" t="s">
+        <v>860</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>841</v>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{4F52ED03-A119-41B3-AC92-011BD083402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F442A1B-6C6D-46D2-AF3D-AFEEAB966B4A}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{4F52ED03-A119-41B3-AC92-011BD083402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5B31444-E256-4906-8A59-75A844A4E28D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="864">
   <si>
     <t>id</t>
   </si>
@@ -2625,9 +2625,6 @@
   </si>
   <si>
     <t>Fekete</t>
-  </si>
-  <si>
-    <t>A „Rózsaszín párduc” – milyen állat ez valójában a filmben?</t>
   </si>
   <si>
     <t>Nem élőlény, hanem valami más.</t>
@@ -2814,6 +2811,15 @@
   </si>
   <si>
     <t>19.216256927225103</t>
+  </si>
+  <si>
+    <t>A „Rózsaszín párduc” – mi ez valójában a filmben?</t>
+  </si>
+  <si>
+    <t>A második rész.</t>
+  </si>
+  <si>
+    <t>Azaz a 5.</t>
   </si>
 </sst>
 </file>
@@ -3686,9 +3692,9 @@
   </sheetPr>
   <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6177,22 +6183,22 @@
         <v>1</v>
       </c>
       <c r="C84" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>843</v>
-      </c>
       <c r="F84" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G84" s="8" t="s">
         <v>812</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>739</v>
+        <v>862</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>740</v>
+        <v>863</v>
       </c>
       <c r="J84" s="8" t="s">
         <v>813</v>
@@ -6206,13 +6212,13 @@
         <v>2</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>845</v>
-      </c>
       <c r="F85" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G85" s="8" t="s">
         <v>750</v>
@@ -6235,13 +6241,13 @@
         <v>3</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>847</v>
-      </c>
       <c r="F86" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G86" s="8" t="s">
         <v>762</v>
@@ -6264,13 +6270,13 @@
         <v>4</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>849</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G87" s="8" t="s">
         <v>773</v>
@@ -6293,13 +6299,13 @@
         <v>5</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>851</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>788</v>
@@ -6322,13 +6328,13 @@
         <v>6</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>853</v>
-      </c>
       <c r="F89" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G89" s="8" t="s">
         <v>754</v>
@@ -6351,13 +6357,13 @@
         <v>7</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>855</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G90" s="8" t="s">
         <v>816</v>
@@ -6380,25 +6386,25 @@
         <v>8</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>857</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G91" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="H91" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="I91" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="J91" s="8" t="s">
         <v>822</v>
-      </c>
-      <c r="J91" s="8" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
@@ -6409,25 +6415,25 @@
         <v>9</v>
       </c>
       <c r="C92" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="D92" s="2" t="s">
-        <v>859</v>
-      </c>
       <c r="F92" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G92" s="8" t="s">
+        <v>823</v>
+      </c>
+      <c r="H92" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="H92" s="8" t="s">
+      <c r="I92" s="8" t="s">
         <v>825</v>
       </c>
-      <c r="I92" s="8" t="s">
+      <c r="J92" s="8" t="s">
         <v>826</v>
-      </c>
-      <c r="J92" s="8" t="s">
-        <v>827</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
@@ -6438,25 +6444,25 @@
         <v>10</v>
       </c>
       <c r="C93" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="D93" s="2" t="s">
-        <v>861</v>
-      </c>
       <c r="F93" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G93" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="H93" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="H93" s="8" t="s">
+      <c r="I93" s="8" t="s">
         <v>829</v>
       </c>
-      <c r="I93" s="8" t="s">
+      <c r="J93" s="8" t="s">
         <v>830</v>
-      </c>
-      <c r="J93" s="8" t="s">
-        <v>831</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="8_{4F52ED03-A119-41B3-AC92-011BD083402D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5B31444-E256-4906-8A59-75A844A4E28D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="924">
   <si>
     <t>id</t>
   </si>
@@ -2820,6 +2820,191 @@
   </si>
   <si>
     <t>Azaz a 5.</t>
+  </si>
+  <si>
+    <t>vajdahunyad-kids</t>
+  </si>
+  <si>
+    <t>Mysti cica a Vajdahunyad vár titkai</t>
+  </si>
+  <si>
+    <t>Egy napsütéses délután Mysti cica a Városligetben sétálgatott, mikor megpillantotta a tó partján álló gyönyörű Vajdahunyad várát. A tornyok között madarak repkedtek, és a víz tükrében megcsillant Mysti medálja.
+„Milyen különös hely ez!” – gondolta, majd észrevett egy apró, aranyszínű nyomot a földön. „Talán ez elvezet a testvéreimhez?”
+Így kezdődött Mysti új kalandja, amelyben két gyerek – egy kisfiú és egy kislány – is segített neki megfejteni a vár körüli rejtélyeket.</t>
+  </si>
+  <si>
+    <t>Amikor Mysti a medálját a kulcslyukhoz illesztette, az ajtó kinyílt, és belül egy kis térképet talált.
+A térképen egy új nyom vezetett tovább – talán épp oda, ahol az egyik testvére várja!
+A gyerekek megölelték Mystit, és megfogadták, hogy a következő kalandon is vele tartanak.
+„A rejtélyek sosem fogynak el, csak új utakat nyitnak meg!” – dorombolta Mysti boldogan. 🐱💫</t>
+  </si>
+  <si>
+    <t>thumbnails\vajdahunyad.png</t>
+  </si>
+  <si>
+    <t>47.51630430860921</t>
+  </si>
+  <si>
+    <t>19.08104684541953</t>
+  </si>
+  <si>
+    <t>A nagy kapunál egy kőoroszlán őrizte a bejáratot. Mysti megszámolta a szemeit.</t>
+  </si>
+  <si>
+    <t>47.515980477966615</t>
+  </si>
+  <si>
+    <t>19.08161444478657</t>
+  </si>
+  <si>
+    <t>Hány szeme van összesen két kőoroszlánnak?</t>
+  </si>
+  <si>
+    <t>47.515555028595145</t>
+  </si>
+  <si>
+    <t>19.082451134592333</t>
+  </si>
+  <si>
+    <t>Milyen szóval kezdődik a szobron lévő felirat?</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Jobb alsó részen keresd</t>
+  </si>
+  <si>
+    <t>Nem magyarul van.</t>
+  </si>
+  <si>
+    <t>47.515291626361524</t>
+  </si>
+  <si>
+    <t>19.08316669837372</t>
+  </si>
+  <si>
+    <t>Toll</t>
+  </si>
+  <si>
+    <t>írunk vele</t>
+  </si>
+  <si>
+    <t>Hány pap látható a boltív tetején?</t>
+  </si>
+  <si>
+    <t>Több mint 10</t>
+  </si>
+  <si>
+    <t>Csak a boltív tetejét nézd.</t>
+  </si>
+  <si>
+    <t>19.08262757439081</t>
+  </si>
+  <si>
+    <t>47.51548546145668</t>
+  </si>
+  <si>
+    <t>Keresd meg Pethe Ferenc szobrát, melyik évben született?</t>
+  </si>
+  <si>
+    <t>47.515078743144336</t>
+  </si>
+  <si>
+    <t>19.0836526820893</t>
+  </si>
+  <si>
+    <t>17…</t>
+  </si>
+  <si>
+    <t>Keresd meg Lajos szobrát</t>
+  </si>
+  <si>
+    <t>Melyik évben halt meg ?</t>
+  </si>
+  <si>
+    <t>Miterpacher Lajos</t>
+  </si>
+  <si>
+    <t>18…</t>
+  </si>
+  <si>
+    <t>47.514711445630795</t>
+  </si>
+  <si>
+    <t>19.083590822727636</t>
+  </si>
+  <si>
+    <t>47.51472077181524</t>
+  </si>
+  <si>
+    <t>19.082387756214796</t>
+  </si>
+  <si>
+    <t>Olvas</t>
+  </si>
+  <si>
+    <t>Mit csinál a mini szobor?</t>
+  </si>
+  <si>
+    <t>Drakula</t>
+  </si>
+  <si>
+    <t>Könyvet tart a kezében.</t>
+  </si>
+  <si>
+    <t>Keress egy Kolodko mini szobrot.</t>
+  </si>
+  <si>
+    <t>47.51414424197708</t>
+  </si>
+  <si>
+    <t>19.083439070218486</t>
+  </si>
+  <si>
+    <t>Add össze az összes számjegyet amit a szobron találsz. Mennyi a végösszeg</t>
+  </si>
+  <si>
+    <t>A számjegyeket add össze és ne a teljes számokat.</t>
+  </si>
+  <si>
+    <t>Nézd körbe jól a szobrot.</t>
+  </si>
+  <si>
+    <t>47.51287604227905</t>
+  </si>
+  <si>
+    <t>19.082969248574926</t>
+  </si>
+  <si>
+    <t>Magyar Zene Háza körül a földön fém mozgó valamik amik hangot adnak ki.</t>
+  </si>
+  <si>
+    <t>Milyen hangbokornak hívják?</t>
+  </si>
+  <si>
+    <t>Spirális</t>
+  </si>
+  <si>
+    <t>Másnéven csigavonalas</t>
+  </si>
+  <si>
+    <t>Vagy tekergő</t>
+  </si>
+  <si>
+    <t>Mysti cica lassan elsétált a Vajdahunyad vár mögötti sétányon, ahol egy elegáns férfialak szobra állt. Amikor közelebb lépett, elolvasta a talapzaton a nevet: Darányi Ignác – és érezte, hogy itt is rejlik egy új nyom a múlt titkaiból.</t>
+  </si>
+  <si>
+    <t>Mysti  óvatosan lépett közelebb az árnyékban ülő, titokzatos alakhoz – az Anonymus-szoborhoz. A tollat tartó kéz mintha megmozdult volna, és Mysti úgy érezte, a szobor éppen egy új történet első sorait készül leírni róla.</t>
+  </si>
+  <si>
+    <t>Mysti a vár udvarán sétálva megpillantotta a jáki templom gyönyörű, faragott kapuját. Elámult a díszes köveken, és azon tűnődött, vajon melyik angyalszobor rejtheti a következő nyomot.</t>
+  </si>
+  <si>
+    <t>Mysti kíváncsian nézett fel Pethe Ferenc szobrára, aki komolyan, mégis nyugodtan tekintett a távolba. A cica megérezte, hogy ez az ember valaha a természet barátja volt, és talán az ő emlékében is rejtőzik egy apró titok, amit érdemes felfedezni.</t>
+  </si>
+  <si>
+    <t>Mysti megállt a bátor tekintetű George Castriota Scanderbeg szobor előtt, aki lovon ülve őrizte a vár bejáratát. A cica elcsodálkozott, milyen erőt sugároz ez a hős alak, és elhatározta, hogy ő is ilyen bátran kutatja tovább a nyomokat.</t>
   </si>
 </sst>
 </file>
@@ -3131,11 +3316,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3194,13 +3379,13 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>362</v>
+        <v>864</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>363</v>
+        <v>865</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -3208,162 +3393,165 @@
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>392</v>
+      <c r="F2" s="5" t="s">
+        <v>866</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>364</v>
+        <v>869</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>365</v>
+        <v>870</v>
       </c>
       <c r="I2" s="2">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>390</v>
+      <c r="J2" s="5" t="s">
+        <v>867</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>391</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>362</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>363</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>392</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>364</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>365</v>
+      </c>
+      <c r="I3" s="2">
+        <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>17</v>
+        <v>390</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>304</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>351</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>305</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>308</v>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>306</v>
+        <v>15</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>309</v>
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>304</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>351</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
+        <v>305</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>493</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>103</v>
+        <v>308</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>57</v>
+        <v>306</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>56</v>
+        <v>307</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>351</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>493</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>72</v>
+      <c r="F6" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>163</v>
+        <v>57</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>75</v>
+        <v>56</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>29</v>
@@ -3372,30 +3560,30 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>85</v>
+        <v>164</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>165</v>
+        <v>81</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>166</v>
+        <v>82</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
@@ -3404,30 +3592,30 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>167</v>
+        <v>83</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>201</v>
+        <v>84</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>202</v>
+        <v>85</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>168</v>
+        <v>86</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>205</v>
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
@@ -3435,31 +3623,31 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>206</v>
+      <c r="F9" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>209</v>
+        <v>202</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -3467,31 +3655,31 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>231</v>
+      <c r="F10" s="6" t="s">
+        <v>206</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>234</v>
+        <v>208</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C11" t="s">
-        <v>270</v>
+      <c r="C11" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -3499,98 +3687,98 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>271</v>
+      <c r="F11" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>361</v>
+        <v>233</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>398</v>
+      <c r="A12" s="3" t="s">
+        <v>273</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>416</v>
+      <c r="C12" t="s">
+        <v>270</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>417</v>
+        <v>271</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>402</v>
+        <v>268</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="I12" s="2">
-        <v>10</v>
+        <v>269</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>418</v>
+        <v>272</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>419</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>451</v>
+      <c r="A13" s="2" t="s">
+        <v>398</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>455</v>
+        <v>416</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>452</v>
+        <v>402</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>453</v>
+        <v>403</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>457</v>
+        <v>418</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>494</v>
+        <v>451</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>204</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>730</v>
+        <v>455</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -3598,73 +3786,92 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>717</v>
+      <c r="F14" s="2" t="s">
+        <v>456</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>57</v>
+        <v>452</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>728</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>729</v>
+        <v>453</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>1000</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="6"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="6"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
@@ -3673,9 +3880,18 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="6"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3690,11 +3906,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6464,6 +6680,288 @@
       <c r="J93" s="8" t="s">
         <v>830</v>
       </c>
+    </row>
+    <row r="94" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A94" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="E94" s="2">
+        <v>20</v>
+      </c>
+      <c r="F94" t="s">
+        <v>871</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="J94" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A95" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="E95" s="2">
+        <v>5</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A96" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B96" s="2">
+        <v>3</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>888</v>
+      </c>
+      <c r="E96" s="2">
+        <v>5</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="J96" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A97" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B97" s="2">
+        <v>4</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="E97" s="2">
+        <v>5</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A98" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B98" s="2">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>891</v>
+      </c>
+      <c r="D98" t="s">
+        <v>892</v>
+      </c>
+      <c r="E98" s="2">
+        <v>5</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="J98" s="2">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B99" s="2">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>898</v>
+      </c>
+      <c r="D99" t="s">
+        <v>899</v>
+      </c>
+      <c r="E99" s="2">
+        <v>10</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="J99" s="2">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A100" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B100" s="2">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>900</v>
+      </c>
+      <c r="D100" t="s">
+        <v>901</v>
+      </c>
+      <c r="E100" s="2">
+        <v>10</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A101" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B101" s="2">
+        <v>8</v>
+      </c>
+      <c r="C101" t="s">
+        <v>907</v>
+      </c>
+      <c r="D101" t="s">
+        <v>908</v>
+      </c>
+      <c r="E101" s="2">
+        <v>10</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="J101" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A102" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="B102" s="2">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>912</v>
+      </c>
+      <c r="D102" t="s">
+        <v>913</v>
+      </c>
+      <c r="E102" s="2">
+        <v>20</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A103" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J5" xr:uid="{00000000-0001-0000-0100-000000000000}"/>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A68C7BFC-DB9E-46C3-9F12-F1CA364582BF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="924">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="939">
   <si>
     <t>id</t>
   </si>
@@ -500,46 +500,6 @@
   </si>
   <si>
     <t>19.189590493838498</t>
-  </si>
-  <si>
-    <t>Az ébredés.
-Egy puha mohakupacban ébredt, a nap sugarai áttörtek a lombok között. A fény meleg volt, és a madarak újra énekeltek. A kosár üresen feküdt mellette, csak egy apró ezüstlevél maradt benne. Mysti elmosolyodott – tudta, hogy az Ezüsterdő nem álom volt, csak nem mindenki látja, aki jár benne.</t>
-  </si>
-  <si>
-    <t>A fény felrobban.
-Amint a gömb hozzáért, vakító fény töltötte be az erdőt. A fák koronái megmozdultak, a folyó újra lefelé kezdett folyni, és a harang ismét megszólalt. Az ezüst levegő vibrálni kezdett, mintha az egész világ lélegezne. Mysti hirtelen zuhanni kezdett – de nem félt.</t>
-  </si>
-  <si>
-    <t>A döntés.
-„Ha mindhárom fényt visszaveszed, örökre itt maradsz” – mondta a nő. „Ha elengeded őket, elfelejtesz mindent, és visszatérsz az emberi világba.” Mysti szíve hevesen vert, miközben a fénygömbök lassan köröztek körülötte. Végül lehunyta a szemét, és megérintette az egyiket – a múlt legszebb emlékét.</t>
-  </si>
-  <si>
-    <t>A múlt árnyai.
-A nő egy fonott kosarat nyújtott át, benne három fénygömbbel. „Ezek az emlékeid, amiket elfelejtettél, amikor elhagytad az erdőt.” Mysti tétován nézett rá – soha nem járt itt, mégis valami belülről ismerte a helyet. Az egyik fénygömb megmozdult, és képet vetített a levegőbe: egy gyerek önfeledten fut az erdei pataknál – ő maga, évekkel ezelőtt.</t>
-  </si>
-  <si>
-    <t>Az idő megáll.
-A levegőben megdermedtek a falevelek, és még a szél is megfagyott. Mysti körülnézett – minden szín elszürkült, csak ő maradt mozgásban. A távolból egy alak közeledett: egy fehér ruhás nő, aki mintha a ködből született volna. „Végre visszatértél” – suttogta.</t>
-  </si>
-  <si>
-    <t>A harangtorony a fák között.
-A sűrűségben egyszer csak fémes csilingelést hallott. Egy elhagyatott, mohával benőtt kis harangtorony állt előtte, mintha egy rég eltűnt falu maradványa lenne. A harang magától mozdult meg, lassan kondult egyet. A hang hullámai átszelték az erdőt, és hirtelen minden mozdulatlanná vált.</t>
-  </si>
-  <si>
-    <t>A fák szemei.
-A fák törzsén kis gödrök tátongtak, mint szemüregek. Egy pillanatra úgy tűnt, mintha tényleg pislognának. Amikor elhaladt mellettük, mind felé fordultak, követve minden mozdulatát. Mysti lehajtotta a fejét és gyorsított a léptein – az erdő most már nemcsak figyelt, hanem próbára is tette.</t>
-  </si>
-  <si>
-    <t>A szikla, ami suttogott.
-A folyó mentén egy hatalmas, mohás szikla állt, rajta ősi rovásokkal. Ahogy közelebb hajolt, a kövek suttogni kezdtek – a saját nevét hallotta. „Mysti… te is emlékszel, igaz?” – mondta a hang. A lány hátrahőkölt: soha életében nem járt itt, mégis minden ismerősnek tűnt.</t>
-  </si>
-  <si>
-    <t>A folyó, ami visszafelé folyt.
-Egy keskeny folyóhoz ért, amelyben a víz felfelé hömpölygött, mintha az ég felé sietne. Amikor belemártotta az ujját, a víz hideg volt, de a bőrét meleg bizsergés járta át. A túlparton egy árnyék suhant el, emberi alak, de hangtalanul. Mysti nem tudta, követnie kellene-e, vagy menekülnie.</t>
-  </si>
-  <si>
-    <t>A fénylő ösvény.
-A talaj alatt apró, kékes fények izzottak, mint elrejtett csillagok. Mysti mezítláb lépett tovább, mert a cipője túl hangosan csoszogott ebben a némaságban. A fények minden lépésére reagáltak, mintha életre keltek volna. A lány érezte: az erdő él, és figyeli őt.</t>
   </si>
   <si>
     <t>Rejtélyes szám.
@@ -3005,6 +2965,81 @@
   </si>
   <si>
     <t>Mysti megállt a bátor tekintetű George Castriota Scanderbeg szobor előtt, aki lovon ülve őrizte a vár bejáratát. A cica elcsodálkozott, milyen erőt sugároz ez a hős alak, és elhatározta, hogy ő is ilyen bátran kutatja tovább a nyomokat.</t>
+  </si>
+  <si>
+    <t>176.</t>
+  </si>
+  <si>
+    <t>Egy oroszlánnak 2 szeme van</t>
+  </si>
+  <si>
+    <t>2*2</t>
+  </si>
+  <si>
+    <t>A fák között keskeny ösvény kanyarog, a levegőben madárdal hallatszik. Az első lépések mindig a legizgalmasabbak – innen kezdődik a kaland.</t>
+  </si>
+  <si>
+    <t>A lombok sűrűn összeborulnak, csak néhány napsugár szűrődik át rajtuk. A levegő friss, és az avar illata lassan megtölti a teret.</t>
+  </si>
+  <si>
+    <t>Az ösvény hirtelen irányt vált, a fák mintha figyelnének. Itt mindig történik valami érdekes, ha nyitott szemmel jársz.</t>
+  </si>
+  <si>
+    <t>Egy vastag tuskó áll az út szélén, moha borítja, mint egy puha párna. A természet csendje csak egy-egy madárszóval törik meg.</t>
+  </si>
+  <si>
+    <t>A napfény alig ér ide, a levegő hűvös. A csendben hallani lehet, ahogy a szél megmozgatja a leveleket.</t>
+  </si>
+  <si>
+    <t>Egy rigó dalol valahol a távolban, mintha kísérné a játékosokat. Az út finoman emelkedik, a fák között átsuhan egy pillangó.</t>
+  </si>
+  <si>
+    <t>Az út mentén egy nagyobb ág hever, mellette virágok nőnek. A napfény megcsillan a leveleken, és minden csendesnek tűnik – de a kaland folytatódik.</t>
+  </si>
+  <si>
+    <t>Az út apró íveket rajzol a fák között, minden kanyar után új részlet bukkan elő. Itt könnyű elfelejteni, mennyire közel van a város.</t>
+  </si>
+  <si>
+    <t>A fák ritkulnak, a fény erősebb lesz, és az avar illatát friss virágillat váltja fel. Itt mindig történik valami különleges.</t>
+  </si>
+  <si>
+    <t>A fák lassan távolodnak, és az ösvény véget ér. A kaland viszont nem – csak új irányt vesz.</t>
+  </si>
+  <si>
+    <t>Hogyan hívják azt a varázslóiskolát, ahová Harry Potter jár?</t>
+  </si>
+  <si>
+    <t>A név „R” betűvel kezdődik.</t>
+  </si>
+  <si>
+    <t>Dumbledore az igazgatója.</t>
+  </si>
+  <si>
+    <t>Egy háromjegyű számkód. A számjegyek összege 12. Az első szám 3-mal nagyobb, mint a második, az utolsó szám háromszorosa az elsőnek. Mi a kód?</t>
+  </si>
+  <si>
+    <t>Kezdd azzal, hogy az első legyen x.</t>
+  </si>
+  <si>
+    <t>2-0-6 majdnem jó</t>
+  </si>
+  <si>
+    <t>309;3-0-9</t>
+  </si>
+  <si>
+    <t>Add össze az Aranybulla évszámának számjegyeit, ez a szám adja meg az Angol ABC egy betűjét.</t>
+  </si>
+  <si>
+    <t>Mi a neve az autós időgépnek a Vissza a jövőbe filmben?</t>
+  </si>
+  <si>
+    <t>Ezüst sportkocsi.</t>
+  </si>
+  <si>
+    <t>88 mph-nál indul az időutazás.</t>
+  </si>
+  <si>
+    <t>DeLorean;Delorien;delorian</t>
   </si>
 </sst>
 </file>
@@ -3366,7 +3401,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -3379,13 +3414,13 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
@@ -3394,33 +3429,33 @@
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="I2" s="2">
         <v>10</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>29</v>
@@ -3429,22 +3464,22 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="I3" s="2">
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
@@ -3476,18 +3511,18 @@
         <v>17</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>29</v>
@@ -3496,19 +3531,19 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
@@ -3516,13 +3551,13 @@
         <v>55</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -3540,7 +3575,7 @@
         <v>104</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
@@ -3563,16 +3598,16 @@
         <v>72</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>75</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
@@ -3604,18 +3639,18 @@
         <v>86</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
@@ -3624,30 +3659,30 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>29</v>
@@ -3656,30 +3691,30 @@
         <v>0</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>29</v>
@@ -3688,30 +3723,30 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>29</v>
@@ -3720,30 +3755,30 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>29</v>
@@ -3752,33 +3787,33 @@
         <v>1000</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="I13" s="2">
         <v>10</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>29</v>
@@ -3787,30 +3822,30 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>29</v>
@@ -3819,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>57</v>
@@ -3828,21 +3863,21 @@
         <v>56</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>13</v>
@@ -3851,19 +3886,19 @@
         <v>1000</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
@@ -3908,9 +3943,9 @@
   </sheetPr>
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3940,7 +3975,7 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>22</v>
@@ -4091,7 +4126,7 @@
         <v>56</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>159</v>
+        <v>917</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>128</v>
@@ -4121,19 +4156,19 @@
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="6" t="s">
-        <v>158</v>
+        <v>918</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>133</v>
+        <v>927</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>109</v>
+        <v>928</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>111</v>
+        <v>929</v>
+      </c>
+      <c r="J7" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
@@ -4150,19 +4185,19 @@
         <v>135</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>157</v>
+        <v>919</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>162</v>
+        <v>930</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>112</v>
+        <v>931</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="2">
-        <v>4</v>
+        <v>932</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -4179,7 +4214,7 @@
         <v>137</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>156</v>
+        <v>920</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>114</v>
@@ -4208,10 +4243,10 @@
         <v>139</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>155</v>
+        <v>921</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>117</v>
+        <v>934</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>119</v>
@@ -4237,7 +4272,7 @@
         <v>141</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>154</v>
+        <v>922</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>120</v>
@@ -4266,19 +4301,19 @@
         <v>143</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>153</v>
+        <v>923</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>123</v>
+        <v>935</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>125</v>
+        <v>936</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12" s="2">
-        <v>6</v>
+        <v>937</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -4295,10 +4330,10 @@
         <v>145</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>152</v>
+        <v>924</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>131</v>
@@ -4324,7 +4359,7 @@
         <v>147</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>151</v>
+        <v>925</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>105</v>
@@ -4353,10 +4388,10 @@
         <v>149</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>160</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>126</v>
@@ -4394,7 +4429,7 @@
         <v>28</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -4414,7 +4449,7 @@
         <v>77</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>68</v>
@@ -4423,7 +4458,7 @@
         <v>69</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
@@ -4573,28 +4608,28 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="J23" s="2">
         <v>5</v>
@@ -4602,28 +4637,28 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="J24" s="2">
         <v>16</v>
@@ -4631,57 +4666,57 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B25" s="2">
         <v>3</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="J26" s="2">
         <v>3</v>
@@ -4689,48 +4724,48 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B27" s="2">
         <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B28" s="4">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>128</v>
@@ -4747,19 +4782,19 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B29" s="4">
         <v>2</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>114</v>
@@ -4776,22 +4811,22 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B30" s="4">
         <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>112</v>
@@ -4805,19 +4840,19 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B31" s="4">
         <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>117</v>
@@ -4834,19 +4869,19 @@
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B32" s="4">
         <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>120</v>
@@ -4863,22 +4898,22 @@
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B33" s="4">
         <v>6</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>126</v>
@@ -4892,48 +4927,48 @@
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>128</v>
@@ -4950,19 +4985,19 @@
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B36" s="2">
         <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>133</v>
@@ -4979,22 +5014,22 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B37" s="2">
         <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>112</v>
@@ -5008,19 +5043,19 @@
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B38" s="2">
         <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>114</v>
@@ -5037,19 +5072,19 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B39" s="2">
         <v>6</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>120</v>
@@ -5066,19 +5101,19 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B40" s="2">
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>123</v>
@@ -5095,22 +5130,22 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B41" s="2">
         <v>8</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>131</v>
@@ -5124,19 +5159,19 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B42" s="2">
         <v>9</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>105</v>
@@ -5153,22 +5188,22 @@
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B43" s="2">
         <v>10</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>126</v>
@@ -5182,28 +5217,28 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B44" s="2">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="J44" s="2">
         <v>7</v>
@@ -5211,19 +5246,19 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B45" s="2">
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>114</v>
@@ -5240,86 +5275,86 @@
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B46" s="2">
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B47" s="2">
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B48" s="2">
         <v>5</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="J48" s="2">
         <v>16</v>
@@ -5327,48 +5362,48 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B49" s="2">
         <v>6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="B50" s="2">
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>120</v>
@@ -5385,95 +5420,95 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B51" s="2">
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="E51" s="2">
         <v>10</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B52" s="2">
         <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E52" s="2">
         <v>10</v>
       </c>
       <c r="F52" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B53" s="2">
         <v>3</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="E53" s="2">
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="J53" s="2">
         <v>1989</v>
@@ -5481,31 +5516,31 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B54" s="2">
         <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="E54" s="2">
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="J54" s="2">
         <v>10</v>
@@ -5513,31 +5548,31 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B55" s="2">
         <v>5</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E55" s="2">
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="J55" s="2">
         <v>2</v>
@@ -5545,63 +5580,63 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B56" s="2">
         <v>6</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E56" s="2">
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="H56" s="2">
         <v>1186</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B57" s="2">
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="E57" s="2">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="J57" s="2">
         <v>10</v>
@@ -5609,31 +5644,31 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B58" s="2">
         <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="E58" s="2">
         <v>10</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="J58" s="2">
         <v>16</v>
@@ -5641,31 +5676,31 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B59" s="2">
         <v>2</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="E59" s="2">
         <v>10</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="J59" s="2">
         <v>53</v>
@@ -5673,31 +5708,31 @@
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B60" s="2">
         <v>3</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="E60" s="2">
         <v>10</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="J60" s="2">
         <v>3</v>
@@ -5705,31 +5740,31 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B61" s="2">
         <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="E61" s="2">
         <v>10</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="J61" s="2">
         <v>52</v>
@@ -5737,31 +5772,31 @@
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B62" s="2">
         <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="E62" s="2">
         <v>35</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="J62" s="2">
         <v>15</v>
@@ -5769,939 +5804,945 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B63" s="2">
         <v>1</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B64" s="2">
         <v>2</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B65" s="2">
         <v>3</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B66" s="2">
         <v>4</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="F66" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B67" s="2">
         <v>5</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="F67" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>434</v>
-      </c>
       <c r="H67" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="I67" s="2" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="B68" s="2">
         <v>6</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D68" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F68" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>425</v>
-      </c>
       <c r="G68" s="2" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B69" s="2">
         <v>1</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="E69" s="2">
         <v>10</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="I69" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B70" s="2">
         <v>2</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="E70" s="2">
         <v>10</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B71" s="2">
         <v>3</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="E71" s="2">
         <v>10</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B72" s="2">
         <v>4</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="E72" s="2">
         <v>5</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="I72" s="2" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="J72" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="B73" s="2">
         <v>5</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="E73" s="2">
         <v>10</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B74" s="2">
         <v>1</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="D74" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="F74" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B75" s="2">
         <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="D75" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="F75" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B76" s="2">
         <v>3</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="D76" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="F76" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B77" s="2">
         <v>4</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="D77" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="F77" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B78" s="2">
         <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="D78" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="F78" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B79" s="2">
         <v>6</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="D79" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="F79" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B80" s="2">
         <v>7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="D80" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="F80" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B81" s="2">
         <v>8</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="D81" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="F81" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B82" s="2">
         <v>9</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="D82" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="F82" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="B83" s="2">
         <v>10</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="D83" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="F83" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B84" s="2">
         <v>1</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="F84" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B85" s="2">
         <v>2</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="F85" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B86" s="2">
         <v>3</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="F86" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B87" s="2">
         <v>4</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B88" s="2">
         <v>5</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B89" s="2">
         <v>6</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="F89" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B90" s="2">
         <v>7</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B91" s="2">
         <v>8</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B92" s="2">
         <v>9</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="J92" s="8" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B93" s="2">
         <v>10</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
       <c r="J93" s="8" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B94" s="2">
         <v>1</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="E94" s="2">
         <v>20</v>
       </c>
       <c r="F94" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>874</v>
+        <v>864</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="I94" s="2" t="s">
+        <v>916</v>
       </c>
       <c r="J94" s="2">
         <v>4</v>
@@ -6709,63 +6750,63 @@
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B95" s="2">
         <v>2</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="E95" s="2">
         <v>5</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B96" s="2">
         <v>3</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="E96" s="2">
         <v>5</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="J96" s="2">
         <v>11</v>
@@ -6773,22 +6814,22 @@
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B97" s="2">
         <v>4</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="E97" s="2">
         <v>5</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>52</v>
@@ -6797,36 +6838,39 @@
         <v>47</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B98" s="2">
         <v>5</v>
       </c>
       <c r="C98" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
       <c r="D98" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
       <c r="E98" s="2">
         <v>5</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>893</v>
+        <v>883</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>914</v>
       </c>
       <c r="J98" s="2">
         <v>1763</v>
@@ -6834,31 +6878,31 @@
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B99" s="2">
         <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
       <c r="D99" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
       <c r="E99" s="2">
         <v>10</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="J99" s="2">
         <v>1814</v>
@@ -6866,63 +6910,63 @@
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B100" s="2">
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="D100" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
       <c r="E100" s="2">
         <v>10</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" customHeight="1">
       <c r="A101" s="3" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B101" s="2">
         <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="D101" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
       <c r="E101" s="2">
         <v>10</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
       <c r="J101" s="2">
         <v>63</v>
@@ -6930,34 +6974,34 @@
     </row>
     <row r="102" spans="1:10" ht="15.75" customHeight="1">
       <c r="A102" s="3" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="B102" s="2">
         <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="D102" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="E102" s="2">
         <v>20</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="I102" s="2" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15.75" customHeight="1">
@@ -6976,7 +7020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B9CE32-7434-4EBC-8E6B-DB471C0DA13A}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="A29" sqref="A29:D31"/>
     </sheetView>
   </sheetViews>
@@ -6990,730 +7034,730 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4">
       <c r="A9" s="8" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4">
       <c r="A20" s="8" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4">
       <c r="A28" s="8" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="8" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -7739,296 +7783,296 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="26.4">
       <c r="A2" s="8" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.4">
       <c r="A4" s="8" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.4">
       <c r="A5" s="8" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4">
       <c r="A6" s="8" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4">
       <c r="A7" s="8" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4">
       <c r="A9" s="8" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4">
       <c r="A10" s="8" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4">
       <c r="A11" s="8" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4">
       <c r="A12" s="8" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4">
       <c r="A14" s="8" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4">
       <c r="A15" s="8" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4">
       <c r="A16" s="8" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4">
       <c r="A17" s="8" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4">
       <c r="A18" s="8" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4">
       <c r="A19" s="8" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4">
       <c r="A21" s="8" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A68C7BFC-DB9E-46C3-9F12-F1CA364582BF}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E87419F-24E4-4E47-83B4-4D0D7843CA91}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,14 +19,14 @@
     <sheet name="Filmes feladatok" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tasks!$A$1:$J$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tasks!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="909">
   <si>
     <t>id</t>
   </si>
@@ -58,30 +58,12 @@
     <t>imageUrl</t>
   </si>
   <si>
-    <t>budapest-kincse</t>
-  </si>
-  <si>
     <t>normal</t>
   </si>
   <si>
-    <t>Budapest Elveszett Kincse</t>
-  </si>
-  <si>
     <t>14+</t>
   </si>
   <si>
-    <t>Egyszer volt hol nem volt budapesten</t>
-  </si>
-  <si>
-    <t>47.4979</t>
-  </si>
-  <si>
-    <t>19.0402</t>
-  </si>
-  <si>
-    <t>történet vége nyertél</t>
-  </si>
-  <si>
     <t>gameId</t>
   </si>
   <si>
@@ -118,93 +100,10 @@
     <t>6+</t>
   </si>
   <si>
-    <t>toll</t>
-  </si>
-  <si>
-    <t>Milyen állat?</t>
-  </si>
-  <si>
-    <t>4 lába van</t>
-  </si>
-  <si>
-    <t>nagy</t>
-  </si>
-  <si>
-    <t>elefánt</t>
-  </si>
-  <si>
-    <t>szárnya van</t>
-  </si>
-  <si>
-    <t>nem madár</t>
-  </si>
-  <si>
-    <t>repülő</t>
-  </si>
-  <si>
-    <t>A Hősök tere Budapest egyik legikonikusabb és leglátogatottabb tere, a Városliget bejáratánál található.
-Középpontjában a Millenniumi emlékmű áll, amelyet Magyarország ezeréves fennállásának tiszteletére emeltek.
-Az oszlop tetején Gábriel arkangyal szobra látható, kezében a Szent Koronával és a kettős kereszttel.
-Az emlékmű tövében a hét honfoglaló vezér lovas szobra áll, élükön Árpáddal.
-A tér két oldalán a Műcsarnok és a Szépművészeti Múzeum zárja le a kompozíciót.
-A Hősök tere ma is a nemzeti ünnepségek és turisztikai séták egyik legfontosabb helyszíne Budapesten. A hősök terén ismeretlen állat szobor</t>
-  </si>
-  <si>
-    <t>A budapesti Állatkert bejárata a városligeti oldalon található, és már önmagában is egy különleges látványosság.
-A szecessziós stílusú kapuépítményt Zsolnay kerámiadíszek és elefántszobrok ékesítik, amelyek az állatkert egzotikus hangulatát idézik.
-Az 1912-ben épült kapu ma is az egyik legszebb állatkerti bejárat Európában, igazi építészeti gyöngyszem.
-Belépve a látogatót rögtön buja növényzet és a park hangulatos sétányai fogadják. Állatkart bejáratát őrzi</t>
-  </si>
-  <si>
-    <t>A repülők a modern közlekedés leggyorsabb és legbiztonságosabb eszközei, amelyek lehetővé teszik, hogy néhány óra alatt kontinenseket átszeljünk.
-A levegőben tartásukat a felhajtóerő biztosítja, amit a szárnyak alakja és a nagy sebesség hoz létre.
-A repülés élménye sokak számára különleges, hiszen a magasból egészen más perspektívából láthatjuk a világot.
-Ma már a repülés nemcsak luxus, hanem a mindennapi utazás része is lett, akár munkához, akár nyaraláshoz. felnézünk az égre</t>
-  </si>
-  <si>
-    <t>19.07760353652876</t>
-  </si>
-  <si>
-    <t>47.51799285464852</t>
-  </si>
-  <si>
-    <t>19.078750004649393</t>
-  </si>
-  <si>
-    <t>47.517844454281445</t>
-  </si>
-  <si>
-    <t>47.515283414896814</t>
-  </si>
-  <si>
-    <t>19.083171837001892</t>
-  </si>
-  <si>
     <t>jobb kezében</t>
   </si>
   <si>
-    <t>irni lehet vele</t>
-  </si>
-  <si>
-    <t>Az Anonymus-szobor a Városligetben, a Vajdahunyad vára közelében áll, és Magyarország egyik legismertebb bronzszobra.
-A mű alkotója Ligeti Miklós volt, aki 1903-ban készítette el a titokzatos, csuklyás alakot.
-A szobor Anonymust, a 12. századi krónikaírót ábrázolja, aki a Gesta Hungarorum szerzőjeként ismert.
-A látogatók hagyománya szerint, ha megérintik a tollát, az ihletet és szerencsét hoz az írásban.</t>
-  </si>
-  <si>
-    <t>Hány lába van a lónak?</t>
-  </si>
-  <si>
-    <t>Mi repül a levegőben?</t>
-  </si>
-  <si>
     <t>Mit tart a kezében a szobor?</t>
-  </si>
-  <si>
-    <t>47.46458664980364</t>
-  </si>
-  <si>
-    <t>19.015629095888038</t>
   </si>
   <si>
     <t>gloriett-erdo</t>
@@ -1163,9 +1062,6 @@
   </si>
   <si>
     <t>thumbnails\erdo2.png</t>
-  </si>
-  <si>
-    <t>thumbnails\kep2.png</t>
   </si>
   <si>
     <t>thumbnails\gloriett.png</t>
@@ -3351,11 +3247,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3401,7 +3297,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -3414,499 +3310,476 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>854</v>
+        <v>824</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>855</v>
+        <v>825</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>856</v>
+        <v>826</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>859</v>
+        <v>829</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>860</v>
+        <v>830</v>
       </c>
       <c r="I2" s="2">
         <v>10</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>857</v>
+        <v>827</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>858</v>
+        <v>828</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>353</v>
+        <v>323</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>354</v>
+        <v>324</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="I3" s="2">
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>381</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>265</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>312</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>266</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
+      <c r="F4" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>267</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
+        <v>268</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>344</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>294</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>295</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>453</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>298</v>
+        <v>74</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>296</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>297</v>
+        <v>27</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>299</v>
+        <v>75</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>341</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>483</v>
+        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>103</v>
+      <c r="F6" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>104</v>
+        <v>125</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>153</v>
+        <v>55</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>156</v>
+        <v>165</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>157</v>
+      <c r="F9" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>158</v>
+        <v>169</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>196</v>
+      <c r="F10" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>220</v>
+        <v>165</v>
+      </c>
+      <c r="C11" t="s">
+        <v>231</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>221</v>
+      <c r="F11" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>350</v>
+        <v>230</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>263</v>
+      <c r="A12" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C12" t="s">
-        <v>260</v>
+        <v>165</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="I12" s="2">
+        <v>10</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1000</v>
-      </c>
       <c r="F13" s="2" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="I13" s="2">
-        <v>10</v>
+        <v>413</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>445</v>
+        <v>690</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>446</v>
+      <c r="F14" s="5" t="s">
+        <v>677</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>442</v>
+        <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>444</v>
+        <v>27</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>484</v>
+        <v>691</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>194</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>57</v>
+        <v>692</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>56</v>
+        <v>693</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>718</v>
+        <v>696</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>721</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>727</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>725</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>726</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>724</v>
-      </c>
+        <v>694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="6"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
@@ -3915,18 +3788,9 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="6"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="6"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3941,11 +3805,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3963,557 +3827,554 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13.8">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>28</v>
+      <c r="F2" s="6" t="s">
+        <v>887</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="J2" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>31</v>
+        <v>888</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>897</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>32</v>
+        <v>898</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>34</v>
+        <v>899</v>
+      </c>
+      <c r="J3" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="3"/>
+      <c r="C4" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>106</v>
+      </c>
       <c r="F4" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>51</v>
+        <v>889</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>900</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>35</v>
+        <v>901</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>37</v>
+        <v>902</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>903</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="C5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="F5" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>52</v>
+        <v>890</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>30</v>
+        <v>87</v>
+      </c>
+      <c r="J5" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>917</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>128</v>
+        <v>891</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>904</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J6" s="2">
-        <v>6</v>
+        <v>90</v>
+      </c>
+      <c r="I6" s="2">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="6" t="s">
-        <v>918</v>
+        <v>111</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>892</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>927</v>
+        <v>91</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>928</v>
+        <v>92</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>929</v>
-      </c>
-      <c r="J7" t="s">
-        <v>563</v>
+        <v>93</v>
+      </c>
+      <c r="J7" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B8" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>919</v>
+        <v>114</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>893</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>930</v>
+        <v>905</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>931</v>
+        <v>906</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>932</v>
+        <v>907</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>933</v>
+        <v>908</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B9" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>920</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="J9" s="2">
-        <v>9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>921</v>
+        <v>118</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>895</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>934</v>
+        <v>76</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="2">
-        <v>7</v>
+        <v>78</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B11" s="4">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="2">
         <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>922</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B12" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>935</v>
+        <v>47</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>936</v>
+        <v>33</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>937</v>
+        <v>22</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>938</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B13" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>151</v>
+        <v>48</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>410</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="J13" s="2">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="4">
-        <v>9</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>146</v>
-      </c>
       <c r="D14" s="2" t="s">
-        <v>147</v>
+        <v>56</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>925</v>
+        <v>58</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>106</v>
+        <v>22</v>
+      </c>
+      <c r="J14" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>148</v>
+        <v>63</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>149</v>
+        <v>64</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>926</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>150</v>
+        <v>59</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>127</v>
+        <v>34</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="J15" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B16" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>342</v>
+        <v>37</v>
+      </c>
+      <c r="J16" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B17" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>440</v>
+        <v>31</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>439</v>
+        <v>38</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B18" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="J18" s="2">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="4">
-        <v>2</v>
+        <v>126</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>64</v>
+        <v>130</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="J19" s="2">
         <v>5</v>
@@ -4521,2494 +4382,2378 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="4">
-        <v>3</v>
+        <v>126</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>66</v>
+        <v>131</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="J20" s="2">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="4">
-        <v>4</v>
+        <v>126</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="2">
-        <v>3</v>
+        <v>132</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="4">
-        <v>5</v>
+        <v>126</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>98</v>
+        <v>141</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>69</v>
+        <v>133</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="J22" s="2">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B23" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>164</v>
+        <v>143</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="F23" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G23" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J23" s="2">
-        <v>5</v>
+        <v>160</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2</v>
+        <v>164</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>184</v>
+        <v>171</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>101</v>
       </c>
       <c r="J24" s="2">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B25" s="2">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
+      </c>
+      <c r="B25" s="4">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B26" s="2">
+        <v>164</v>
+      </c>
+      <c r="B26" s="4">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J26" s="2">
         <v>4</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="J26" s="2">
-        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B27" s="2">
-        <v>5</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
+      </c>
+      <c r="B27" s="4">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" s="2">
+        <v>7</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="B28" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="J28" s="2">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
       <c r="B29" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>114</v>
+        <v>187</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="J29" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B30" s="4">
-        <v>3</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>207</v>
+        <v>196</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="J30" s="2">
-        <v>4</v>
+        <v>199</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B31" s="4">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>208</v>
+        <v>190</v>
+      </c>
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>117</v>
+        <v>203</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I31" s="2">
-        <v>7</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J31" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B32" s="4">
-        <v>5</v>
+        <v>190</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J32" s="2">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" s="4">
-        <v>6</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>214</v>
+        <v>190</v>
+      </c>
+      <c r="B33" s="2">
+        <v>4</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>217</v>
+        <v>209</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>123</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>127</v>
+        <v>83</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="J33" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="B34" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>226</v>
+        <v>212</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>227</v>
+        <v>86</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>229</v>
+        <v>87</v>
+      </c>
+      <c r="J34" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="B35" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="J35" s="2">
-        <v>6</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="B36" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
+      </c>
+      <c r="J36" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="2">
+        <v>8</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B37" s="2">
-        <v>4</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>152</v>
+        <v>221</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="J37" s="2">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="B38" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>114</v>
+        <v>225</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J38" s="2">
-        <v>9</v>
+        <v>79</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
       <c r="B39" s="2">
+        <v>10</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" s="2">
         <v>6</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J39" s="2">
-        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B40" s="2">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="J40" s="2">
         <v>7</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="J40" s="2">
-        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B41" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>132</v>
+        <v>254</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="J41" s="2">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B42" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>254</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>106</v>
+        <v>256</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="B43" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>126</v>
+        <v>258</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>249</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="J43" s="2">
-        <v>6</v>
+        <v>250</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="B44" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>266</v>
+        <v>131</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>267</v>
+        <v>146</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>269</v>
+        <v>155</v>
       </c>
       <c r="J44" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="B45" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J45" s="2">
-        <v>9</v>
+        <v>153</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B46" s="2">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B46" s="2">
-        <v>3</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>284</v>
-      </c>
       <c r="D46" s="2" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>272</v>
+        <v>91</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>273</v>
+        <v>92</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>275</v>
+        <v>93</v>
+      </c>
+      <c r="J46" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B47" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>276</v>
+        <v>272</v>
+      </c>
+      <c r="E47" s="2">
+        <v>10</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B48" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>160</v>
+        <v>274</v>
+      </c>
+      <c r="E48" s="2">
+        <v>10</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>183</v>
+        <v>298</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J48" s="2">
-        <v>16</v>
+        <v>299</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B49" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>291</v>
+        <v>276</v>
+      </c>
+      <c r="E49" s="2">
+        <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>161</v>
+        <v>288</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>176</v>
+        <v>300</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>181</v>
+        <v>301</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="J49" s="2" t="s">
-        <v>177</v>
+        <v>302</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1989</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B50" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
+      </c>
+      <c r="E50" s="2">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>286</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>120</v>
+        <v>303</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>121</v>
+        <v>304</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>122</v>
+        <v>305</v>
       </c>
       <c r="J50" s="2">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B51" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="E51" s="2">
         <v>10</v>
       </c>
-      <c r="F51" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>321</v>
+      <c r="F51" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>311</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>323</v>
+        <v>306</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>322</v>
+        <v>307</v>
+      </c>
+      <c r="J51" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B52" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="E52" s="2">
         <v>10</v>
       </c>
-      <c r="F52" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>327</v>
+      <c r="F52" t="s">
+        <v>285</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="H52" s="2">
+        <v>1186</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>326</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="B53" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="E53" s="2">
         <v>10</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>329</v>
+      <c r="F53" t="s">
+        <v>290</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>359</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="J53" s="2">
-        <v>1989</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="B54" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>307</v>
+        <v>328</v>
       </c>
       <c r="E54" s="2">
         <v>10</v>
       </c>
-      <c r="F54" t="s">
-        <v>315</v>
+      <c r="F54" s="5" t="s">
+        <v>326</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="J54" s="2">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="B55" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="E55" s="2">
         <v>10</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>340</v>
+      <c r="F55" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>335</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J55" s="2">
-        <v>2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="B56" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>310</v>
+        <v>355</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>311</v>
+        <v>356</v>
       </c>
       <c r="E56" s="2">
         <v>10</v>
       </c>
-      <c r="F56" t="s">
-        <v>314</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="H56" s="2">
-        <v>1186</v>
+      <c r="F56" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>339</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>338</v>
+        <v>340</v>
+      </c>
+      <c r="J56" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="B57" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="E57" s="2">
         <v>10</v>
       </c>
-      <c r="F57" t="s">
-        <v>319</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>389</v>
+      <c r="F57" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>342</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>390</v>
+        <v>343</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>391</v>
+        <v>337</v>
       </c>
       <c r="J57" s="2">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
       <c r="B58" s="2">
+        <v>5</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E58" s="2">
+        <v>35</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="J58" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B59" s="2">
         <v>1</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="C59" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A60" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E58" s="2">
-        <v>10</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="J58" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A59" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B59" s="2">
+      <c r="B60" s="2">
         <v>2</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="E59" s="2">
-        <v>10</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="H59" s="2" t="s">
+      <c r="C60" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="J59" s="2">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A60" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B60" s="2">
+      <c r="F60" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A61" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B61" s="2">
         <v>3</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="E60" s="2">
-        <v>10</v>
-      </c>
-      <c r="F60" s="5" t="s">
+      <c r="C61" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="H60" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="F61" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A62" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B62" s="2">
+        <v>4</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="J60" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A61" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B61" s="2">
-        <v>4</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D62" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E61" s="2">
-        <v>10</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="J61" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A62" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B62" s="2">
-        <v>5</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E62" s="2">
-        <v>35</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>376</v>
-      </c>
       <c r="G62" s="2" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="J62" s="2">
-        <v>15</v>
+        <v>404</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="B63" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="H63" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>395</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>388</v>
+        <v>358</v>
       </c>
       <c r="B64" s="2">
+        <v>6</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A65" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B65" s="2">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E65" s="2">
+        <v>10</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="I65" t="s">
+        <v>435</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A66" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B66" s="2">
         <v>2</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="F64" s="5" t="s">
+      <c r="C66" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="E66" s="2">
+        <v>10</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A67" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="G64" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="H64" s="2" t="s">
+      <c r="B67" s="2">
+        <v>3</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="E67" s="2">
+        <v>10</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A68" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B68" s="2">
+        <v>4</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A65" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B65" s="2">
-        <v>3</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A66" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B66" s="2">
-        <v>4</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A67" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B67" s="2">
+      <c r="E68" s="2">
         <v>5</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A68" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B68" s="2">
-        <v>6</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="F68" s="5" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>439</v>
+        <v>447</v>
+      </c>
+      <c r="J68" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="B69" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="E69" s="2">
         <v>10</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="I69" t="s">
-        <v>465</v>
+        <v>450</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>451</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B70" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E70" s="2">
-        <v>10</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>453</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="I70" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>470</v>
+        <v>657</v>
+      </c>
+      <c r="D70" t="s">
+        <v>658</v>
+      </c>
+      <c r="F70" t="s">
+        <v>678</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B71" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="E71" s="2">
-        <v>10</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="I71" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>474</v>
+        <v>659</v>
+      </c>
+      <c r="D71" t="s">
+        <v>660</v>
+      </c>
+      <c r="F71" t="s">
+        <v>679</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B72" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="E72" s="2">
-        <v>5</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>457</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="I72" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="J72" t="s">
-        <v>478</v>
+        <v>661</v>
+      </c>
+      <c r="D72" t="s">
+        <v>662</v>
+      </c>
+      <c r="F72" t="s">
+        <v>680</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="B73" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="E73" s="2">
-        <v>10</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>482</v>
+        <v>663</v>
+      </c>
+      <c r="D73" t="s">
+        <v>664</v>
+      </c>
+      <c r="F73" t="s">
+        <v>681</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="I73" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="J73" s="8" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="B74" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>687</v>
+        <v>665</v>
       </c>
       <c r="D74" t="s">
-        <v>688</v>
+        <v>666</v>
       </c>
       <c r="F74" t="s">
-        <v>708</v>
+        <v>682</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>685</v>
+        <v>656</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="B75" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>689</v>
+        <v>667</v>
       </c>
       <c r="D75" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="F75" t="s">
-        <v>709</v>
+        <v>683</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>684</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="B76" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
       <c r="D76" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="F76" t="s">
-        <v>710</v>
+        <v>684</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>419</v>
+        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="B77" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>693</v>
+        <v>671</v>
       </c>
       <c r="D77" t="s">
-        <v>694</v>
+        <v>672</v>
       </c>
       <c r="F77" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>499</v>
+        <v>561</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>500</v>
+        <v>562</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>501</v>
+        <v>563</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>425</v>
+        <v>564</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="B78" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>695</v>
+        <v>673</v>
       </c>
       <c r="D78" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
       <c r="F78" t="s">
-        <v>712</v>
+        <v>686</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>503</v>
+        <v>566</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>504</v>
+        <v>567</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>686</v>
+        <v>568</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="B79" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
       <c r="D79" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="F79" t="s">
-        <v>713</v>
+        <v>687</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>506</v>
+        <v>569</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>507</v>
+        <v>570</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>508</v>
+        <v>571</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>484</v>
+        <v>691</v>
       </c>
       <c r="B80" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="D80" t="s">
-        <v>700</v>
+        <v>801</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>802</v>
       </c>
       <c r="F80" t="s">
-        <v>714</v>
+        <v>791</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>510</v>
+        <v>772</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>511</v>
+        <v>822</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>512</v>
+        <v>823</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>513</v>
+        <v>773</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>484</v>
+        <v>691</v>
       </c>
       <c r="B81" s="2">
-        <v>8</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="D81" t="s">
-        <v>702</v>
+        <v>2</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>804</v>
       </c>
       <c r="F81" t="s">
-        <v>715</v>
+        <v>792</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>591</v>
+        <v>710</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>592</v>
+        <v>711</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>593</v>
+        <v>712</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>594</v>
+        <v>774</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>484</v>
+        <v>691</v>
       </c>
       <c r="B82" s="2">
-        <v>9</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="D82" t="s">
-        <v>704</v>
+        <v>3</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>806</v>
       </c>
       <c r="F82" t="s">
-        <v>716</v>
+        <v>793</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>595</v>
+        <v>722</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>596</v>
+        <v>723</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>597</v>
+        <v>724</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>598</v>
+        <v>725</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>484</v>
+        <v>691</v>
       </c>
       <c r="B83" s="2">
-        <v>10</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="D83" t="s">
-        <v>706</v>
-      </c>
-      <c r="F83" t="s">
-        <v>717</v>
+        <v>4</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>794</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>599</v>
+        <v>733</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>600</v>
+        <v>734</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>601</v>
+        <v>735</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>602</v>
+        <v>736</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="B84" s="2">
-        <v>1</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>831</v>
+        <v>5</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>809</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="F84" t="s">
-        <v>821</v>
+        <v>810</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>795</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>802</v>
+        <v>748</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>852</v>
+        <v>749</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>853</v>
+        <v>750</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>803</v>
+        <v>751</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="B85" s="2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>833</v>
+        <v>811</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>834</v>
+        <v>812</v>
       </c>
       <c r="F85" t="s">
-        <v>822</v>
+        <v>796</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>804</v>
+        <v>775</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="B86" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>835</v>
+        <v>813</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="F86" t="s">
-        <v>823</v>
+        <v>814</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>797</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>752</v>
+        <v>776</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>753</v>
+        <v>777</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>754</v>
+        <v>778</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>755</v>
+        <v>779</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="B87" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>837</v>
+        <v>815</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>838</v>
+        <v>816</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>824</v>
+        <v>798</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>763</v>
+        <v>821</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="B88" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>840</v>
+        <v>818</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>825</v>
+        <v>799</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>721</v>
+        <v>691</v>
       </c>
       <c r="B89" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="F89" t="s">
-        <v>826</v>
+        <v>820</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>800</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>744</v>
+        <v>787</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>745</v>
+        <v>788</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>746</v>
+        <v>789</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>721</v>
+        <v>824</v>
       </c>
       <c r="B90" s="2">
-        <v>7</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>843</v>
+        <v>1</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>832</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="H90" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="I90" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>809</v>
+        <v>833</v>
+      </c>
+      <c r="E90" s="2">
+        <v>20</v>
+      </c>
+      <c r="F90" t="s">
+        <v>831</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="J90" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>721</v>
+        <v>824</v>
       </c>
       <c r="B91" s="2">
-        <v>8</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>845</v>
+        <v>2</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>835</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>846</v>
+        <v>836</v>
+      </c>
+      <c r="E91" s="2">
+        <v>5</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="G91" s="8" t="s">
-        <v>851</v>
-      </c>
-      <c r="H91" s="8" t="s">
-        <v>810</v>
-      </c>
-      <c r="I91" s="8" t="s">
-        <v>811</v>
-      </c>
-      <c r="J91" s="8" t="s">
-        <v>812</v>
+        <v>879</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>721</v>
+        <v>824</v>
       </c>
       <c r="B92" s="2">
-        <v>9</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>847</v>
+        <v>3</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>849</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>848</v>
       </c>
+      <c r="E92" s="2">
+        <v>5</v>
+      </c>
       <c r="F92" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>813</v>
-      </c>
-      <c r="H92" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="I92" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="J92" s="8" t="s">
-        <v>816</v>
+        <v>881</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="I92" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="J92" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>721</v>
+        <v>824</v>
       </c>
       <c r="B93" s="2">
-        <v>10</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>849</v>
+        <v>4</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>841</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>850</v>
+        <v>842</v>
+      </c>
+      <c r="E93" s="2">
+        <v>5</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="H93" s="8" t="s">
-        <v>818</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="J93" s="8" t="s">
-        <v>820</v>
+        <v>880</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>854</v>
+        <v>824</v>
       </c>
       <c r="B94" s="2">
-        <v>1</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>863</v>
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>851</v>
+      </c>
+      <c r="D94" t="s">
+        <v>852</v>
       </c>
       <c r="E94" s="2">
-        <v>20</v>
-      </c>
-      <c r="F94" t="s">
-        <v>861</v>
+        <v>5</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>882</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>864</v>
+        <v>850</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>915</v>
+        <v>853</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>916</v>
+        <v>884</v>
       </c>
       <c r="J94" s="2">
-        <v>4</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B95" s="2">
+        <v>6</v>
+      </c>
+      <c r="C95" t="s">
+        <v>858</v>
+      </c>
+      <c r="D95" t="s">
+        <v>859</v>
+      </c>
+      <c r="E95" s="2">
+        <v>10</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="B95" s="2">
-        <v>2</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="E95" s="2">
-        <v>5</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>909</v>
-      </c>
       <c r="G95" s="2" t="s">
-        <v>867</v>
+        <v>855</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>868</v>
+        <v>857</v>
+      </c>
+      <c r="J95" s="2">
+        <v>1814</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>854</v>
+        <v>824</v>
       </c>
       <c r="B96" s="2">
-        <v>3</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>878</v>
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>860</v>
+      </c>
+      <c r="D96" t="s">
+        <v>861</v>
       </c>
       <c r="E96" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>911</v>
+        <v>866</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="J96" s="2">
-        <v>11</v>
+        <v>865</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>854</v>
+        <v>824</v>
       </c>
       <c r="B97" s="2">
-        <v>4</v>
-      </c>
-      <c r="C97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97" t="s">
+        <v>867</v>
+      </c>
+      <c r="D97" t="s">
+        <v>868</v>
+      </c>
+      <c r="E97" s="2">
+        <v>10</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="I97" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="D97" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="E97" s="2">
-        <v>5</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>873</v>
+      <c r="J97" s="2">
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>854</v>
+        <v>824</v>
       </c>
       <c r="B98" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="D98" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="E98" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>912</v>
+        <v>874</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="J98" s="2">
-        <v>1763</v>
+        <v>878</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>876</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A99" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="B99" s="2">
-        <v>6</v>
-      </c>
-      <c r="C99" t="s">
-        <v>888</v>
-      </c>
-      <c r="D99" t="s">
-        <v>889</v>
-      </c>
-      <c r="E99" s="2">
-        <v>10</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="J99" s="2">
-        <v>1814</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A100" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="B100" s="2">
-        <v>7</v>
-      </c>
-      <c r="C100" t="s">
-        <v>890</v>
-      </c>
-      <c r="D100" t="s">
-        <v>891</v>
-      </c>
-      <c r="E100" s="2">
-        <v>10</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A101" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="B101" s="2">
-        <v>8</v>
-      </c>
-      <c r="C101" t="s">
-        <v>897</v>
-      </c>
-      <c r="D101" t="s">
-        <v>898</v>
-      </c>
-      <c r="E101" s="2">
-        <v>10</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="J101" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A102" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="B102" s="2">
-        <v>9</v>
-      </c>
-      <c r="C102" t="s">
-        <v>902</v>
-      </c>
-      <c r="D102" t="s">
-        <v>903</v>
-      </c>
-      <c r="E102" s="2">
-        <v>20</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="G102" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A103" s="3"/>
+      <c r="A99" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J5" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
     <oddFooter>&amp;L_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 C2 General</oddFooter>
@@ -7034,730 +6779,730 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4">
       <c r="A9" s="8" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>547</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4">
       <c r="A20" s="8" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4">
       <c r="A28" s="8" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>600</v>
+        <v>570</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>601</v>
+        <v>571</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>603</v>
+        <v>573</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>604</v>
+        <v>574</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>605</v>
+        <v>575</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>606</v>
+        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>607</v>
+        <v>577</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>608</v>
+        <v>578</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>609</v>
+        <v>579</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>610</v>
+        <v>580</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>613</v>
+        <v>583</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>618</v>
+        <v>588</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
-        <v>619</v>
+        <v>589</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>620</v>
+        <v>590</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>622</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>624</v>
+        <v>594</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>625</v>
+        <v>595</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>626</v>
+        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>627</v>
+        <v>597</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>628</v>
+        <v>598</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>630</v>
+        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
-        <v>631</v>
+        <v>601</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>632</v>
+        <v>602</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>634</v>
+        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>637</v>
+        <v>607</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
-        <v>638</v>
+        <v>608</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>639</v>
+        <v>609</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>610</v>
+        <v>580</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
-        <v>641</v>
+        <v>611</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>642</v>
+        <v>612</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>643</v>
+        <v>613</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>644</v>
+        <v>614</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
-        <v>645</v>
+        <v>615</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>646</v>
+        <v>616</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>647</v>
+        <v>617</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>648</v>
+        <v>618</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
-        <v>649</v>
+        <v>619</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>651</v>
+        <v>621</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>652</v>
+        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
-        <v>653</v>
+        <v>623</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>654</v>
+        <v>624</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>655</v>
+        <v>625</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
-        <v>657</v>
+        <v>627</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>658</v>
+        <v>628</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>659</v>
+        <v>629</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>660</v>
+        <v>630</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
-        <v>661</v>
+        <v>631</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>662</v>
+        <v>632</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>663</v>
+        <v>633</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>664</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>666</v>
+        <v>636</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>667</v>
+        <v>637</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>668</v>
+        <v>638</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>670</v>
+        <v>640</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>671</v>
+        <v>641</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="8" t="s">
-        <v>672</v>
+        <v>642</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>673</v>
+        <v>643</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>674</v>
+        <v>644</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>675</v>
+        <v>645</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>676</v>
+        <v>646</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>677</v>
+        <v>647</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>678</v>
+        <v>648</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>679</v>
+        <v>649</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>681</v>
+        <v>651</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>683</v>
+        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -7783,296 +7528,296 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="26.4">
       <c r="A2" s="8" t="s">
-        <v>728</v>
+        <v>698</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>729</v>
+        <v>699</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>731</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>732</v>
+        <v>702</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>733</v>
+        <v>703</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>734</v>
+        <v>704</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>735</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.4">
       <c r="A4" s="8" t="s">
-        <v>736</v>
+        <v>706</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>737</v>
+        <v>707</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>738</v>
+        <v>708</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>739</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.4">
       <c r="A5" s="8" t="s">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>742</v>
+        <v>712</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>743</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4">
       <c r="A6" s="8" t="s">
-        <v>744</v>
+        <v>714</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>745</v>
+        <v>715</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>746</v>
+        <v>716</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>747</v>
+        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4">
       <c r="A7" s="8" t="s">
-        <v>748</v>
+        <v>718</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>749</v>
+        <v>719</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>750</v>
+        <v>720</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>751</v>
+        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>752</v>
+        <v>722</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>753</v>
+        <v>723</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>754</v>
+        <v>724</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>755</v>
+        <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4">
       <c r="A9" s="8" t="s">
-        <v>756</v>
+        <v>726</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>757</v>
+        <v>727</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>758</v>
+        <v>728</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>759</v>
+        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4">
       <c r="A10" s="8" t="s">
-        <v>760</v>
+        <v>730</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>761</v>
+        <v>731</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>762</v>
+        <v>732</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4">
       <c r="A11" s="8" t="s">
-        <v>763</v>
+        <v>733</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>764</v>
+        <v>734</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>765</v>
+        <v>735</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>766</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4">
       <c r="A12" s="8" t="s">
-        <v>767</v>
+        <v>737</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>768</v>
+        <v>738</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>769</v>
+        <v>739</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>770</v>
+        <v>740</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>771</v>
+        <v>741</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>772</v>
+        <v>742</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>773</v>
+        <v>743</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4">
       <c r="A14" s="8" t="s">
-        <v>774</v>
+        <v>744</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>775</v>
+        <v>745</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>777</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4">
       <c r="A15" s="8" t="s">
-        <v>778</v>
+        <v>748</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>779</v>
+        <v>749</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>780</v>
+        <v>750</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>781</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4">
       <c r="A16" s="8" t="s">
-        <v>782</v>
+        <v>752</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>783</v>
+        <v>753</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>784</v>
+        <v>754</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>785</v>
+        <v>755</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4">
       <c r="A17" s="8" t="s">
-        <v>786</v>
+        <v>756</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>787</v>
+        <v>757</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>788</v>
+        <v>758</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4">
       <c r="A18" s="8" t="s">
-        <v>789</v>
+        <v>759</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>790</v>
+        <v>760</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>791</v>
+        <v>761</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>792</v>
+        <v>762</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4">
       <c r="A19" s="8" t="s">
-        <v>793</v>
+        <v>763</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>794</v>
+        <v>764</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>795</v>
+        <v>765</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>656</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>599</v>
+        <v>569</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>796</v>
+        <v>766</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>797</v>
+        <v>767</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>602</v>
+        <v>572</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4">
       <c r="A21" s="8" t="s">
-        <v>798</v>
+        <v>768</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>799</v>
+        <v>769</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>800</v>
+        <v>770</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>801</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E87419F-24E4-4E47-83B4-4D0D7843CA91}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2606A051-A233-4E3F-99AC-AC20D70676A4}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -3249,9 +3249,9 @@
   </sheetPr>
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3310,48 +3310,45 @@
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>824</v>
+        <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>165</v>
+        <v>312</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>825</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>23</v>
+        <v>453</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>826</v>
+        <v>74</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>829</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="I2" s="2">
-        <v>10</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>827</v>
+        <v>27</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>828</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>322</v>
+        <v>454</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>323</v>
+        <v>690</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -3359,23 +3356,20 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>352</v>
+      <c r="F3" s="5" t="s">
+        <v>677</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="I3" s="2">
-        <v>10</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>350</v>
+        <v>27</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>688</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>351</v>
+        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1">
@@ -3412,45 +3406,48 @@
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>824</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>312</v>
+        <v>165</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>825</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>453</v>
+        <v>23</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>74</v>
+        <v>826</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>829</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>75</v>
+        <v>830</v>
+      </c>
+      <c r="I5" s="2">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>827</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>314</v>
+        <v>828</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>41</v>
+        <v>322</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -3459,30 +3456,33 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>124</v>
+        <v>324</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>125</v>
+        <v>325</v>
+      </c>
+      <c r="I6" s="2">
+        <v>10</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>46</v>
+        <v>350</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -3491,30 +3491,30 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
@@ -3523,30 +3523,30 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>166</v>
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -3554,31 +3554,31 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>167</v>
+      <c r="F9" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
@@ -3586,31 +3586,31 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>192</v>
+      <c r="F10" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>195</v>
+        <v>169</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C11" t="s">
-        <v>231</v>
+      <c r="C11" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
@@ -3618,98 +3618,98 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>232</v>
+      <c r="F11" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>321</v>
+        <v>194</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>358</v>
+      <c r="A12" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>376</v>
+      <c r="C12" t="s">
+        <v>231</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>377</v>
+        <v>232</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>362</v>
+        <v>229</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I12" s="2">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>378</v>
+        <v>233</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>411</v>
+      <c r="A13" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>413</v>
+        <v>363</v>
+      </c>
+      <c r="I13" s="2">
+        <v>10</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>454</v>
+        <v>411</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>690</v>
+        <v>415</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
@@ -3717,20 +3717,20 @@
       <c r="E14" s="2">
         <v>0</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>677</v>
+      <c r="F14" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>412</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>689</v>
+        <v>413</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
@@ -3807,7 +3807,7 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2606A051-A233-4E3F-99AC-AC20D70676A4}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93E6BFE5-72BD-417E-80A5-FA7A351B0CD5}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="979">
   <si>
     <t>id</t>
   </si>
@@ -2936,6 +2936,216 @@
   </si>
   <si>
     <t>DeLorean;Delorien;delorian</t>
+  </si>
+  <si>
+    <t>a-mozierdo-titka</t>
+  </si>
+  <si>
+    <t>A mozierdő titka</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Egy nap a barátok egy eldugott erdei ösvényen indultak el, ahol régi filmek plakátjai lógtak a fák között, mintha valaki egy mozi emlékeit rejtette volna el a természetben. A levegőben halk zene szólt, mintha a fák suttognák a híres filmek dallamait. Senki sem tudta, honnan jön a hang, de minden lépéssel egyre több nyomot találtak, amik a „Mozierdő titkához” vezettek. Aki megfejti a tíz filmkérdést, állítólag megtalálja a legendás Aranyfilmtekercset.</t>
+  </si>
+  <si>
+    <t>47.42806371909657</t>
+  </si>
+  <si>
+    <t>19.17705967899012</t>
+  </si>
+  <si>
+    <t>Ahogy az utolsó kérdésre is feleltek, a filmtekercs hirtelen aranyfényben izzott fel. A fák lombjai között apró fények villantak, mintha ezer mozivászon kelt volna életre az erdőben. A csapat érezte, hogy most részévé váltak a legendának: ők voltak azok, akik megfejtették a Mozierdő titkát. A fény lassan elhalványult, de a hang, ahogy a szél suttogta: “A kaland folytatódik…”, örökre velük maradt.</t>
+  </si>
+  <si>
+    <t>thumbnails/erdo3.png</t>
+  </si>
+  <si>
+    <t>47.42722935098058</t>
+  </si>
+  <si>
+    <t>19.17806519036942</t>
+  </si>
+  <si>
+    <t>A fák között egy rendezői szék áll: rá van írva, „Én vagyok az apád.”</t>
+  </si>
+  <si>
+    <t>Melyik Star Wars filmben hangzik el ez a híres mondat?</t>
+  </si>
+  <si>
+    <t>A jelenet Darth Vader és Luke Skywalker párbaja közben hangzik el.</t>
+  </si>
+  <si>
+    <t>Ez a trilógia második része, 1980-ban mutatták be.</t>
+  </si>
+  <si>
+    <t>A Birodalom visszavág;Birodalom Visszavág;V;5</t>
+  </si>
+  <si>
+    <t>47.42624533183871</t>
+  </si>
+  <si>
+    <t>19.176916897748203</t>
+  </si>
+  <si>
+    <t>A földön bonbonpapírok vezetnek egy kidőlt fához.</t>
+  </si>
+  <si>
+    <t>Melyik filmben hangzik el: „Az élet olyan, mint egy doboz bonbon – sosem tudhatod, mit kapsz”?</t>
+  </si>
+  <si>
+    <t>A főszereplő Forrest, akit Tom Hanks alakít.</t>
+  </si>
+  <si>
+    <t>A film 1994-ben hat Oscar-díjat nyert.</t>
+  </si>
+  <si>
+    <t>47.425641100442824</t>
+  </si>
+  <si>
+    <t>19.178154502017737</t>
+  </si>
+  <si>
+    <t>Egy faág formája pont olyan, mint egy varázspálca.</t>
+  </si>
+  <si>
+    <t>A Roxfort kedves, kissé különc jóslástan tanára mondja.</t>
+  </si>
+  <si>
+    <t>A szereplőt Emma Thompson alakítja.</t>
+  </si>
+  <si>
+    <t>47.42480379690086</t>
+  </si>
+  <si>
+    <t>19.179047618500906</t>
+  </si>
+  <si>
+    <t>Egy ezüstszínű kisautó makett fekszik a levelek közt.</t>
+  </si>
+  <si>
+    <t>Mi a neve az időgépként használt autónak a „Vissza a jövőbe” filmben?</t>
+  </si>
+  <si>
+    <t>Rozsdamentes acélból készült, és felfelé nyíló ajtói vannak.</t>
+  </si>
+  <si>
+    <t>Az autó neve „D”-betűvel kezdődik.</t>
+  </si>
+  <si>
+    <t>47.42383699686268</t>
+  </si>
+  <si>
+    <t>19.180195911122123</t>
+  </si>
+  <si>
+    <t>Egy fán két név van vésve: Jack &amp; Rose.</t>
+  </si>
+  <si>
+    <t>Mi volt Jack utolsó szava Rose-hoz a Titanic filmben?</t>
+  </si>
+  <si>
+    <t>A vízben sodródva biztatja Rose-t, hogy túl fogja élni.</t>
+  </si>
+  <si>
+    <t>Soha ne engedd el;Ne engedd el;ne add fel</t>
+  </si>
+  <si>
+    <t>47.422852914303604</t>
+  </si>
+  <si>
+    <t>19.18202042050917</t>
+  </si>
+  <si>
+    <t>Egy kagyló alakú kőre ez van írva: „Csak ússz tovább!”</t>
+  </si>
+  <si>
+    <t>Melyik animációs film szlogenje ez?</t>
+  </si>
+  <si>
+    <t>A mondatot Dory, a feledékeny hal ismételgeti.</t>
+  </si>
+  <si>
+    <t>A filmben Nemo a főszereplő.</t>
+  </si>
+  <si>
+    <t>47.42393195122419</t>
+  </si>
+  <si>
+    <t>19.183015607447555</t>
+  </si>
+  <si>
+    <t>Zöld számok villognak egy fa törzsén, mintha a levegő is kóddá vált volna.</t>
+  </si>
+  <si>
+    <t>Milyen színű kabátot visel Neo a Mátrix filmekben?</t>
+  </si>
+  <si>
+    <t>A kabát hosszú és elegáns.</t>
+  </si>
+  <si>
+    <t>A színe illik a sötét, futurisztikus környezethez.</t>
+  </si>
+  <si>
+    <t>47.42498506993125</t>
+  </si>
+  <si>
+    <t>19.182785948923307</t>
+  </si>
+  <si>
+    <t>Egy farönkön poros kalap hever, mellette egy ostor.</t>
+  </si>
+  <si>
+    <t>Mi Indiana Jones hivatása a filmekben?</t>
+  </si>
+  <si>
+    <t>Nemcsak kalandor, hanem tanár is.</t>
+  </si>
+  <si>
+    <t>Az ősi tárgyak és civilizációk szakértője.</t>
+  </si>
+  <si>
+    <t>Régész;Történelemprofesszor;Történész;Professzor</t>
+  </si>
+  <si>
+    <t>47.42615901349252</t>
+  </si>
+  <si>
+    <t>19.181688691529697</t>
+  </si>
+  <si>
+    <t>Egy farönkre rajzolt oroszlán néz rád határozott tekintettel.</t>
+  </si>
+  <si>
+    <t>Mi a neve a Disney híres oroszlánkirályának?</t>
+  </si>
+  <si>
+    <t>A neve négy betűből áll, „S”-sel kezdődik.</t>
+  </si>
+  <si>
+    <t>47.42731566757155</t>
+  </si>
+  <si>
+    <t>19.180336257998047</t>
+  </si>
+  <si>
+    <t>Az utolsó tisztáson egy filmtekercsre ezt vésték: „Egy gyűrű mind felett.”</t>
+  </si>
+  <si>
+    <t>Ki viszi a gyűrűt Mordorba, hogy elpusztítsa?</t>
+  </si>
+  <si>
+    <t>Ő egy hobbit, a Megyéből.</t>
+  </si>
+  <si>
+    <t>A legjobb barátja Samu.</t>
+  </si>
+  <si>
+    <t>Frodo;Zsákos Frodo</t>
+  </si>
+  <si>
+    <t>Sybill Trelawney professzor;Sybill;Trelawney;Sybill Trelawney</t>
   </si>
 </sst>
 </file>
@@ -3247,11 +3457,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:XFD15"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3372,47 +3582,50 @@
         <v>689</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>266</v>
+    <row r="4" spans="1:13" customFormat="1" ht="13.2">
+      <c r="A4" t="s">
+        <v>909</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>910</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2">
+        <v>453</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>315</v>
+      <c r="F4" t="s">
+        <v>912</v>
+      </c>
+      <c r="G4" t="s">
+        <v>913</v>
+      </c>
+      <c r="H4" t="s">
+        <v>914</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>915</v>
+      </c>
+      <c r="K4" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>824</v>
+        <v>265</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>165</v>
+        <v>312</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>825</v>
+        <v>266</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -3421,33 +3634,30 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>826</v>
+        <v>269</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>829</v>
+        <v>267</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="I5" s="2">
-        <v>10</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>827</v>
+        <v>268</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>828</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>322</v>
+        <v>824</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>10</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>323</v>
+        <v>825</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -3455,34 +3665,34 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>352</v>
+      <c r="F6" s="5" t="s">
+        <v>826</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>324</v>
+        <v>829</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>325</v>
+        <v>830</v>
       </c>
       <c r="I6" s="2">
         <v>10</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>350</v>
+      <c r="J6" s="5" t="s">
+        <v>827</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>351</v>
+        <v>828</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>41</v>
+        <v>322</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>323</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -3491,30 +3701,33 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>124</v>
+        <v>324</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>125</v>
+        <v>325</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>46</v>
+        <v>350</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
@@ -3523,30 +3736,30 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>124</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>53</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -3555,30 +3768,30 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>162</v>
+        <v>55</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>129</v>
+        <v>57</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>166</v>
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
@@ -3586,31 +3799,31 @@
       <c r="E10" s="2">
         <v>0</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>167</v>
+      <c r="F10" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>170</v>
+        <v>163</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
@@ -3618,31 +3831,31 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>192</v>
+      <c r="F11" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>195</v>
+        <v>169</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C12" t="s">
-        <v>231</v>
+      <c r="C12" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
@@ -3650,136 +3863,159 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>232</v>
+      <c r="F12" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>321</v>
+        <v>194</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>358</v>
+      <c r="A13" s="3" t="s">
+        <v>234</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>376</v>
+      <c r="C13" t="s">
+        <v>231</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>377</v>
+        <v>232</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>362</v>
+        <v>229</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="I13" s="2">
-        <v>10</v>
+        <v>230</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>378</v>
+        <v>233</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>379</v>
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>411</v>
+      <c r="A14" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>413</v>
+        <v>363</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <v>1000</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="F17" s="6"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="6"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
     </row>
@@ -3788,9 +4024,18 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="6"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3805,11 +4050,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J99"/>
+  <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6749,8 +6994,295 @@
         <v>876</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A99" s="3"/>
+    <row r="99" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A99" t="s">
+        <v>909</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>917</v>
+      </c>
+      <c r="D99" t="s">
+        <v>918</v>
+      </c>
+      <c r="F99" t="s">
+        <v>919</v>
+      </c>
+      <c r="G99" t="s">
+        <v>920</v>
+      </c>
+      <c r="H99" t="s">
+        <v>921</v>
+      </c>
+      <c r="I99" t="s">
+        <v>922</v>
+      </c>
+      <c r="J99" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A100" t="s">
+        <v>909</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100" t="s">
+        <v>924</v>
+      </c>
+      <c r="D100" t="s">
+        <v>925</v>
+      </c>
+      <c r="F100" t="s">
+        <v>926</v>
+      </c>
+      <c r="G100" t="s">
+        <v>927</v>
+      </c>
+      <c r="H100" t="s">
+        <v>928</v>
+      </c>
+      <c r="I100" t="s">
+        <v>929</v>
+      </c>
+      <c r="J100" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A101" t="s">
+        <v>909</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>930</v>
+      </c>
+      <c r="D101" t="s">
+        <v>931</v>
+      </c>
+      <c r="F101" t="s">
+        <v>932</v>
+      </c>
+      <c r="G101" t="s">
+        <v>722</v>
+      </c>
+      <c r="H101" t="s">
+        <v>933</v>
+      </c>
+      <c r="I101" t="s">
+        <v>934</v>
+      </c>
+      <c r="J101" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A102" t="s">
+        <v>909</v>
+      </c>
+      <c r="B102">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>935</v>
+      </c>
+      <c r="D102" t="s">
+        <v>936</v>
+      </c>
+      <c r="F102" t="s">
+        <v>937</v>
+      </c>
+      <c r="G102" t="s">
+        <v>938</v>
+      </c>
+      <c r="H102" t="s">
+        <v>939</v>
+      </c>
+      <c r="I102" t="s">
+        <v>940</v>
+      </c>
+      <c r="J102" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A103" t="s">
+        <v>909</v>
+      </c>
+      <c r="B103">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>941</v>
+      </c>
+      <c r="D103" t="s">
+        <v>942</v>
+      </c>
+      <c r="F103" t="s">
+        <v>943</v>
+      </c>
+      <c r="G103" t="s">
+        <v>944</v>
+      </c>
+      <c r="H103" t="s">
+        <v>945</v>
+      </c>
+      <c r="I103" t="s">
+        <v>911</v>
+      </c>
+      <c r="J103" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A104" t="s">
+        <v>909</v>
+      </c>
+      <c r="B104">
+        <v>6</v>
+      </c>
+      <c r="C104" t="s">
+        <v>947</v>
+      </c>
+      <c r="D104" t="s">
+        <v>948</v>
+      </c>
+      <c r="F104" t="s">
+        <v>949</v>
+      </c>
+      <c r="G104" t="s">
+        <v>950</v>
+      </c>
+      <c r="H104" t="s">
+        <v>951</v>
+      </c>
+      <c r="I104" t="s">
+        <v>952</v>
+      </c>
+      <c r="J104" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A105" t="s">
+        <v>909</v>
+      </c>
+      <c r="B105">
+        <v>7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>953</v>
+      </c>
+      <c r="D105" t="s">
+        <v>954</v>
+      </c>
+      <c r="F105" t="s">
+        <v>955</v>
+      </c>
+      <c r="G105" t="s">
+        <v>956</v>
+      </c>
+      <c r="H105" t="s">
+        <v>957</v>
+      </c>
+      <c r="I105" t="s">
+        <v>958</v>
+      </c>
+      <c r="J105" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A106" t="s">
+        <v>909</v>
+      </c>
+      <c r="B106">
+        <v>8</v>
+      </c>
+      <c r="C106" t="s">
+        <v>959</v>
+      </c>
+      <c r="D106" t="s">
+        <v>960</v>
+      </c>
+      <c r="F106" t="s">
+        <v>961</v>
+      </c>
+      <c r="G106" t="s">
+        <v>962</v>
+      </c>
+      <c r="H106" t="s">
+        <v>963</v>
+      </c>
+      <c r="I106" t="s">
+        <v>964</v>
+      </c>
+      <c r="J106" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A107" t="s">
+        <v>909</v>
+      </c>
+      <c r="B107">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>966</v>
+      </c>
+      <c r="D107" t="s">
+        <v>967</v>
+      </c>
+      <c r="F107" t="s">
+        <v>968</v>
+      </c>
+      <c r="G107" t="s">
+        <v>969</v>
+      </c>
+      <c r="H107" t="s">
+        <v>470</v>
+      </c>
+      <c r="I107" t="s">
+        <v>970</v>
+      </c>
+      <c r="J107" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A108" t="s">
+        <v>909</v>
+      </c>
+      <c r="B108">
+        <v>10</v>
+      </c>
+      <c r="C108" t="s">
+        <v>971</v>
+      </c>
+      <c r="D108" t="s">
+        <v>972</v>
+      </c>
+      <c r="F108" t="s">
+        <v>973</v>
+      </c>
+      <c r="G108" t="s">
+        <v>974</v>
+      </c>
+      <c r="H108" t="s">
+        <v>975</v>
+      </c>
+      <c r="I108" t="s">
+        <v>976</v>
+      </c>
+      <c r="J108" t="s">
+        <v>977</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93E6BFE5-72BD-417E-80A5-FA7A351B0CD5}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0495FF87-58B6-4C47-8EAC-886881672F94}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -252,9 +252,6 @@
   </si>
   <si>
     <t>19.17805697905915</t>
-  </si>
-  <si>
-    <t>Gloriett Erdő Titka</t>
   </si>
   <si>
     <t>Egy késő őszi délutánon Mysti elindult a hegyek felé, hogy lefotózza a naplementét. Az út mentén már dér csillogott a fűszálakon, a fák pedig suttogva hajladoztak a szélben. Amint elérte az erdő szélét, különös érzés fogta el – mintha valaki figyelné. A madarak egyszerre hallgattak el, és a levegő szinte megfagyott.
@@ -2941,12 +2938,6 @@
     <t>a-mozierdo-titka</t>
   </si>
   <si>
-    <t>A mozierdő titka</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Egy nap a barátok egy eldugott erdei ösvényen indultak el, ahol régi filmek plakátjai lógtak a fák között, mintha valaki egy mozi emlékeit rejtette volna el a természetben. A levegőben halk zene szólt, mintha a fák suttognák a híres filmek dallamait. Senki sem tudta, honnan jön a hang, de minden lépéssel egyre több nyomot találtak, amik a „Mozierdő titkához” vezettek. Aki megfejti a tíz filmkérdést, állítólag megtalálja a legendás Aranyfilmtekercset.</t>
   </si>
   <si>
@@ -2971,9 +2962,6 @@
     <t>A fák között egy rendezői szék áll: rá van írva, „Én vagyok az apád.”</t>
   </si>
   <si>
-    <t>Melyik Star Wars filmben hangzik el ez a híres mondat?</t>
-  </si>
-  <si>
     <t>A jelenet Darth Vader és Luke Skywalker párbaja közben hangzik el.</t>
   </si>
   <si>
@@ -3016,12 +3004,6 @@
     <t>A szereplőt Emma Thompson alakítja.</t>
   </si>
   <si>
-    <t>47.42480379690086</t>
-  </si>
-  <si>
-    <t>19.179047618500906</t>
-  </si>
-  <si>
     <t>Egy ezüstszínű kisautó makett fekszik a levelek közt.</t>
   </si>
   <si>
@@ -3124,12 +3106,6 @@
     <t>A neve négy betűből áll, „S”-sel kezdődik.</t>
   </si>
   <si>
-    <t>47.42731566757155</t>
-  </si>
-  <si>
-    <t>19.180336257998047</t>
-  </si>
-  <si>
     <t>Az utolsó tisztáson egy filmtekercsre ezt vésték: „Egy gyűrű mind felett.”</t>
   </si>
   <si>
@@ -3146,6 +3122,30 @@
   </si>
   <si>
     <t>Sybill Trelawney professzor;Sybill;Trelawney;Sybill Trelawney</t>
+  </si>
+  <si>
+    <t>A mozierdő titka - Halmi erdő</t>
+  </si>
+  <si>
+    <t>Gloriett Erdő Titka - Halmi erdő</t>
+  </si>
+  <si>
+    <t>47.424865</t>
+  </si>
+  <si>
+    <t>19.179382</t>
+  </si>
+  <si>
+    <t>47.427449</t>
+  </si>
+  <si>
+    <t>19.179168</t>
+  </si>
+  <si>
+    <t>Ezt kéri Rose-tól.</t>
+  </si>
+  <si>
+    <t>Melyik Star Wars filmben hangzik el ez a híres mondat (mi a címe)?</t>
   </si>
 </sst>
 </file>
@@ -3461,7 +3461,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3507,7 +3507,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -3523,19 +3523,19 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>972</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>28</v>
@@ -3544,21 +3544,21 @@
         <v>27</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>28</v>
@@ -3576,56 +3576,56 @@
         <v>27</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>688</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="13.2">
       <c r="A4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>910</v>
+        <v>971</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="G4" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="H4" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="K4" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>266</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -3634,30 +3634,30 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>270</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>824</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>825</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -3666,33 +3666,33 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="I6" s="2">
         <v>10</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>827</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -3701,22 +3701,22 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="I7" s="2">
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
@@ -3739,16 +3739,16 @@
         <v>43</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
@@ -3780,18 +3780,18 @@
         <v>57</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
@@ -3800,30 +3800,30 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="K10" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>165</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>166</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
@@ -3832,30 +3832,30 @@
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="J11" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="J11" s="6" t="s">
-        <v>170</v>
-      </c>
       <c r="K11" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>191</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
@@ -3864,30 +3864,30 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="J12" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="K12" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
@@ -3896,30 +3896,30 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="K13" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
@@ -3928,33 +3928,33 @@
         <v>1000</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="I14" s="2">
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>378</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
@@ -3963,30 +3963,30 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
@@ -3995,19 +3995,19 @@
         <v>1000</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>692</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
@@ -4052,9 +4052,9 @@
   </sheetPr>
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J102" sqref="J102"/>
+      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4084,7 +4084,7 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
@@ -4116,16 +4116,16 @@
         <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="J2" s="2">
         <v>6</v>
@@ -4146,19 +4146,19 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>896</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>897</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>898</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>899</v>
-      </c>
       <c r="J3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
@@ -4169,25 +4169,25 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>901</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>902</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>903</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -4198,22 +4198,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="J5" s="2">
         <v>9</v>
@@ -4227,25 +4227,25 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I6" s="2">
         <v>7</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
@@ -4256,22 +4256,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="J7" s="2">
         <v>50</v>
@@ -4285,25 +4285,25 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>904</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>906</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>907</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>908</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -4314,22 +4314,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="J9" s="2">
         <v>32</v>
@@ -4343,25 +4343,25 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="G10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -4372,22 +4372,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>896</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="H11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="J11" s="2">
         <v>6</v>
@@ -4419,7 +4419,7 @@
         <v>22</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -4439,7 +4439,7 @@
         <v>48</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>39</v>
@@ -4448,7 +4448,7 @@
         <v>40</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
@@ -4598,28 +4598,28 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="2">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>136</v>
-      </c>
       <c r="F19" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="J19" s="2">
         <v>5</v>
@@ -4627,28 +4627,28 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B20" s="2">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F20" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="J20" s="2">
         <v>16</v>
@@ -4656,57 +4656,57 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" s="2">
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B22" s="2">
         <v>4</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F22" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G22" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="J22" s="2">
         <v>3</v>
@@ -4714,57 +4714,57 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B23" s="2">
         <v>5</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="F23" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" s="4">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G24" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="J24" s="2">
         <v>6</v>
@@ -4772,28 +4772,28 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B25" s="4">
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="F25" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="G25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="I25" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="J25" s="2">
         <v>9</v>
@@ -4801,28 +4801,28 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B26" s="4">
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="F26" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G26" s="6" t="s">
-        <v>178</v>
-      </c>
       <c r="H26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="J26" s="2">
         <v>4</v>
@@ -4830,57 +4830,57 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B27" s="4">
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="G27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I27" s="2">
         <v>7</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B28" s="4">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="F28" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="G28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="I28" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="J28" s="2">
         <v>50</v>
@@ -4888,28 +4888,28 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B29" s="4">
         <v>6</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="F29" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="H29" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="J29" s="2">
         <v>6</v>
@@ -4917,57 +4917,57 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B30" s="2">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="F30" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="J30" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B31" s="2">
         <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="F31" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="G31" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="I31" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="J31" s="2">
         <v>6</v>
@@ -4975,57 +4975,57 @@
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B32" s="2">
         <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="F32" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>206</v>
-      </c>
       <c r="G32" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H32" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="J32" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B33" s="2">
         <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="F33" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>209</v>
-      </c>
       <c r="G33" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H33" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="J33" s="2">
         <v>4</v>
@@ -5033,28 +5033,28 @@
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B34" s="2">
         <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="F34" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="G34" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="I34" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="J34" s="2">
         <v>9</v>
@@ -5062,28 +5062,28 @@
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B35" s="2">
         <v>6</v>
       </c>
       <c r="C35" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="F35" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="G35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="I35" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="J35" s="2">
         <v>50</v>
@@ -5091,28 +5091,28 @@
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B36" s="2">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="F36" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="G36" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="J36" s="2">
         <v>6</v>
@@ -5120,28 +5120,28 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B37" s="2">
         <v>8</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="F37" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="G37" s="5" t="s">
-        <v>222</v>
-      </c>
       <c r="H37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="J37" s="2">
         <v>32</v>
@@ -5149,57 +5149,57 @@
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B38" s="2">
         <v>9</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="F38" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="G38" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B39" s="2">
         <v>10</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="F39" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>228</v>
-      </c>
       <c r="G39" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H39" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="J39" s="2">
         <v>6</v>
@@ -5207,28 +5207,28 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40" s="2">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="J40" s="2">
         <v>7</v>
@@ -5236,28 +5236,28 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B41" s="2">
         <v>2</v>
       </c>
       <c r="C41" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="F41" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="J41" s="2">
         <v>9</v>
@@ -5265,86 +5265,86 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="F42" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B43" s="2">
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="F43" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B44" s="2">
         <v>5</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H44" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I44" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="J44" s="2">
         <v>16</v>
@@ -5352,57 +5352,57 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B45" s="2">
         <v>6</v>
       </c>
       <c r="C45" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="D45" s="2" t="s">
-        <v>262</v>
-      </c>
       <c r="F45" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>147</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B46" s="2">
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>264</v>
-      </c>
       <c r="F46" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="J46" s="2">
         <v>50</v>
@@ -5410,95 +5410,95 @@
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B47" s="2">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="E47" s="2">
         <v>10</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G47" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B48" s="2">
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="E48" s="2">
         <v>10</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B49" s="2">
         <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="E49" s="2">
         <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G49" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="J49" s="2">
         <v>1989</v>
@@ -5506,31 +5506,31 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B50" s="2">
         <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="E50" s="2">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="J50" s="2">
         <v>10</v>
@@ -5538,31 +5538,31 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B51" s="2">
         <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="E51" s="2">
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H51" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I51" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="J51" s="2">
         <v>2</v>
@@ -5570,63 +5570,63 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B52" s="2">
         <v>6</v>
       </c>
       <c r="C52" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="E52" s="2">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H52" s="2">
         <v>1186</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B53" s="2">
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="E53" s="2">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G53" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="J53" s="2">
         <v>10</v>
@@ -5634,31 +5634,31 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B54" s="2">
         <v>1</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="E54" s="2">
         <v>10</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="J54" s="2">
         <v>16</v>
@@ -5666,31 +5666,31 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B55" s="2">
         <v>2</v>
       </c>
       <c r="C55" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="E55" s="2">
         <v>10</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G55" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="J55" s="2">
         <v>53</v>
@@ -5698,31 +5698,31 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B56" s="2">
         <v>3</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="E56" s="2">
         <v>10</v>
       </c>
       <c r="F56" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>339</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>340</v>
       </c>
       <c r="J56" s="2">
         <v>3</v>
@@ -5730,31 +5730,31 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B57" s="2">
         <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="E57" s="2">
         <v>10</v>
       </c>
       <c r="F57" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H57" s="2" t="s">
-        <v>343</v>
-      </c>
       <c r="I57" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J57" s="2">
         <v>52</v>
@@ -5762,31 +5762,31 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B58" s="2">
         <v>5</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>345</v>
       </c>
       <c r="E58" s="2">
         <v>35</v>
       </c>
       <c r="F58" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>348</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>349</v>
       </c>
       <c r="J58" s="2">
         <v>15</v>
@@ -5794,945 +5794,945 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B59" s="2">
         <v>1</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D59" s="2" t="s">
-        <v>365</v>
-      </c>
       <c r="F59" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G59" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="J59" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B60" s="2">
         <v>2</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>367</v>
-      </c>
       <c r="F60" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G60" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B61" s="2">
         <v>3</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>369</v>
-      </c>
       <c r="F61" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B62" s="2">
         <v>4</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>371</v>
-      </c>
       <c r="F62" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B63" s="2">
         <v>5</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="F63" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B64" s="2">
         <v>6</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="F64" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H64" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="I64" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B65" s="2">
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="E65" s="2">
         <v>10</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="I65" t="s">
         <v>434</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B66" s="2">
         <v>2</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>422</v>
       </c>
       <c r="E66" s="2">
         <v>10</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H66" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>439</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B67" s="2">
         <v>3</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>426</v>
       </c>
       <c r="E67" s="2">
         <v>10</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B68" s="2">
         <v>4</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>429</v>
       </c>
       <c r="E68" s="2">
         <v>5</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" t="s">
         <v>447</v>
-      </c>
-      <c r="J68" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B69" s="2">
         <v>5</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>430</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>431</v>
       </c>
       <c r="E69" s="2">
         <v>10</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G69" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B70" s="2">
         <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D70" t="s">
         <v>657</v>
       </c>
-      <c r="D70" t="s">
-        <v>658</v>
-      </c>
       <c r="F70" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G70" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="H70" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="H70" s="8" t="s">
+      <c r="I70" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="I70" s="8" t="s">
-        <v>461</v>
-      </c>
       <c r="J70" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B71" s="2">
         <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D71" t="s">
         <v>659</v>
       </c>
-      <c r="D71" t="s">
-        <v>660</v>
-      </c>
       <c r="F71" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G71" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="H71" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="H71" s="8" t="s">
+      <c r="I71" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="I71" s="8" t="s">
-        <v>464</v>
-      </c>
       <c r="J71" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B72" s="2">
         <v>3</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D72" t="s">
         <v>661</v>
       </c>
-      <c r="D72" t="s">
-        <v>662</v>
-      </c>
       <c r="F72" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G72" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="H72" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="I72" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="I72" s="8" t="s">
-        <v>468</v>
-      </c>
       <c r="J72" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B73" s="2">
         <v>4</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D73" t="s">
         <v>663</v>
       </c>
-      <c r="D73" t="s">
-        <v>664</v>
-      </c>
       <c r="F73" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G73" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="H73" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="I73" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="I73" s="8" t="s">
-        <v>471</v>
-      </c>
       <c r="J73" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B74" s="2">
         <v>5</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D74" t="s">
         <v>665</v>
       </c>
-      <c r="D74" t="s">
-        <v>666</v>
-      </c>
       <c r="F74" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G74" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="H74" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="I74" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="I74" s="8" t="s">
-        <v>474</v>
-      </c>
       <c r="J74" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B75" s="2">
         <v>6</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D75" t="s">
         <v>667</v>
       </c>
-      <c r="D75" t="s">
-        <v>668</v>
-      </c>
       <c r="F75" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G75" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="H75" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="I75" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="I75" s="8" t="s">
+      <c r="J75" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B76" s="2">
         <v>7</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D76" t="s">
         <v>669</v>
       </c>
-      <c r="D76" t="s">
-        <v>670</v>
-      </c>
       <c r="F76" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G76" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="H76" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="I76" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="I76" s="8" t="s">
+      <c r="J76" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B77" s="2">
         <v>8</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D77" t="s">
         <v>671</v>
       </c>
-      <c r="D77" t="s">
-        <v>672</v>
-      </c>
       <c r="F77" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G77" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="H77" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="I77" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="J77" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B78" s="2">
         <v>9</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D78" t="s">
         <v>673</v>
       </c>
-      <c r="D78" t="s">
-        <v>674</v>
-      </c>
       <c r="F78" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G78" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="H78" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="I78" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="I78" s="8" t="s">
+      <c r="J78" s="8" t="s">
         <v>567</v>
-      </c>
-      <c r="J78" s="8" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B79" s="2">
         <v>10</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D79" t="s">
         <v>675</v>
       </c>
-      <c r="D79" t="s">
-        <v>676</v>
-      </c>
       <c r="F79" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G79" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="H79" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="I79" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="I79" s="8" t="s">
+      <c r="J79" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B80" s="2">
         <v>1</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="D80" s="2" t="s">
-        <v>802</v>
-      </c>
       <c r="F80" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G80" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="H80" s="8" t="s">
+        <v>821</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="J80" s="8" t="s">
         <v>772</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B81" s="2">
         <v>2</v>
       </c>
       <c r="C81" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>804</v>
-      </c>
       <c r="F81" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G81" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="H81" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="I81" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="I81" s="8" t="s">
-        <v>712</v>
-      </c>
       <c r="J81" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B82" s="2">
         <v>3</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>806</v>
-      </c>
       <c r="F82" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G82" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="H82" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="H82" s="8" t="s">
+      <c r="I82" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="I82" s="8" t="s">
+      <c r="J82" s="8" t="s">
         <v>724</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B83" s="2">
         <v>4</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>808</v>
-      </c>
       <c r="F83" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G83" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="H83" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="H83" s="8" t="s">
+      <c r="I83" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="I83" s="8" t="s">
+      <c r="J83" s="8" t="s">
         <v>735</v>
-      </c>
-      <c r="J83" s="8" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B84" s="2">
         <v>5</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>810</v>
-      </c>
       <c r="F84" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G84" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="H84" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="H84" s="8" t="s">
+      <c r="I84" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="J84" s="8" t="s">
         <v>750</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B85" s="2">
         <v>6</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>812</v>
-      </c>
       <c r="F85" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G85" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="H85" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="I85" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="I85" s="8" t="s">
-        <v>716</v>
-      </c>
       <c r="J85" s="8" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B86" s="2">
         <v>7</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>814</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G86" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="H86" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="I86" s="8" t="s">
         <v>777</v>
       </c>
-      <c r="I86" s="8" t="s">
+      <c r="J86" s="8" t="s">
         <v>778</v>
-      </c>
-      <c r="J86" s="8" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B87" s="2">
         <v>8</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>816</v>
-      </c>
       <c r="F87" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H87" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="I87" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="I87" s="8" t="s">
+      <c r="J87" s="8" t="s">
         <v>781</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B88" s="2">
         <v>9</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>818</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G88" s="8" t="s">
+        <v>782</v>
+      </c>
+      <c r="H88" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="H88" s="8" t="s">
+      <c r="I88" s="8" t="s">
         <v>784</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="J88" s="8" t="s">
         <v>785</v>
-      </c>
-      <c r="J88" s="8" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B89" s="2">
         <v>10</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>820</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G89" s="8" t="s">
+        <v>786</v>
+      </c>
+      <c r="H89" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="H89" s="8" t="s">
+      <c r="I89" s="8" t="s">
         <v>788</v>
       </c>
-      <c r="I89" s="8" t="s">
+      <c r="J89" s="8" t="s">
         <v>789</v>
-      </c>
-      <c r="J89" s="8" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B90" s="2">
         <v>1</v>
       </c>
       <c r="C90" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>832</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>833</v>
       </c>
       <c r="E90" s="2">
         <v>20</v>
       </c>
       <c r="F90" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H90" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="I90" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>886</v>
       </c>
       <c r="J90" s="2">
         <v>4</v>
@@ -6740,63 +6740,63 @@
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B91" s="2">
         <v>2</v>
       </c>
       <c r="C91" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>835</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>836</v>
       </c>
       <c r="E91" s="2">
         <v>5</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G91" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="I91" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>837</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B92" s="2">
         <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E92" s="2">
         <v>5</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G92" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>845</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>847</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>846</v>
       </c>
       <c r="J92" s="2">
         <v>11</v>
@@ -6804,22 +6804,22 @@
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B93" s="2">
         <v>4</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="E93" s="2">
         <v>5</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>25</v>
@@ -6828,39 +6828,39 @@
         <v>24</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B94" s="2">
         <v>5</v>
       </c>
       <c r="C94" t="s">
+        <v>850</v>
+      </c>
+      <c r="D94" t="s">
         <v>851</v>
-      </c>
-      <c r="D94" t="s">
-        <v>852</v>
       </c>
       <c r="E94" s="2">
         <v>5</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="J94" s="2">
         <v>1763</v>
@@ -6868,31 +6868,31 @@
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B95" s="2">
         <v>6</v>
       </c>
       <c r="C95" t="s">
+        <v>857</v>
+      </c>
+      <c r="D95" t="s">
         <v>858</v>
-      </c>
-      <c r="D95" t="s">
-        <v>859</v>
       </c>
       <c r="E95" s="2">
         <v>10</v>
       </c>
       <c r="F95" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="G95" s="2" t="s">
+      <c r="H95" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="H95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>857</v>
       </c>
       <c r="J95" s="2">
         <v>1814</v>
@@ -6900,63 +6900,63 @@
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B96" s="2">
         <v>7</v>
       </c>
       <c r="C96" t="s">
+        <v>859</v>
+      </c>
+      <c r="D96" t="s">
         <v>860</v>
-      </c>
-      <c r="D96" t="s">
-        <v>861</v>
       </c>
       <c r="E96" s="2">
         <v>10</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G96" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="H96" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="I96" s="2" t="s">
-        <v>865</v>
-      </c>
       <c r="J96" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B97" s="2">
         <v>8</v>
       </c>
       <c r="C97" t="s">
+        <v>866</v>
+      </c>
+      <c r="D97" t="s">
         <v>867</v>
-      </c>
-      <c r="D97" t="s">
-        <v>868</v>
       </c>
       <c r="E97" s="2">
         <v>10</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G97" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="H97" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>870</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>871</v>
       </c>
       <c r="J97" s="2">
         <v>63</v>
@@ -6964,324 +6964,324 @@
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B98" s="2">
         <v>9</v>
       </c>
       <c r="C98" t="s">
+        <v>871</v>
+      </c>
+      <c r="D98" t="s">
         <v>872</v>
-      </c>
-      <c r="D98" t="s">
-        <v>873</v>
       </c>
       <c r="E98" s="2">
         <v>20</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="G98" s="2" t="s">
+      <c r="H98" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="J98" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="99" spans="1:10" customFormat="1" ht="13.2">
       <c r="A99" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99" t="s">
+        <v>914</v>
+      </c>
+      <c r="D99" t="s">
+        <v>915</v>
+      </c>
+      <c r="F99" t="s">
+        <v>916</v>
+      </c>
+      <c r="G99" t="s">
+        <v>978</v>
+      </c>
+      <c r="H99" t="s">
         <v>917</v>
       </c>
-      <c r="D99" t="s">
+      <c r="I99" t="s">
         <v>918</v>
       </c>
-      <c r="F99" t="s">
+      <c r="J99" t="s">
         <v>919</v>
-      </c>
-      <c r="G99" t="s">
-        <v>920</v>
-      </c>
-      <c r="H99" t="s">
-        <v>921</v>
-      </c>
-      <c r="I99" t="s">
-        <v>922</v>
-      </c>
-      <c r="J99" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="100" spans="1:10" customFormat="1" ht="13.2">
       <c r="A100" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100" t="s">
+        <v>920</v>
+      </c>
+      <c r="D100" t="s">
+        <v>921</v>
+      </c>
+      <c r="F100" t="s">
+        <v>922</v>
+      </c>
+      <c r="G100" t="s">
+        <v>923</v>
+      </c>
+      <c r="H100" t="s">
         <v>924</v>
       </c>
-      <c r="D100" t="s">
+      <c r="I100" t="s">
         <v>925</v>
       </c>
-      <c r="F100" t="s">
-        <v>926</v>
-      </c>
-      <c r="G100" t="s">
-        <v>927</v>
-      </c>
-      <c r="H100" t="s">
-        <v>928</v>
-      </c>
-      <c r="I100" t="s">
-        <v>929</v>
-      </c>
       <c r="J100" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="101" spans="1:10" customFormat="1" ht="13.2">
       <c r="A101" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
       <c r="C101" t="s">
+        <v>926</v>
+      </c>
+      <c r="D101" t="s">
+        <v>927</v>
+      </c>
+      <c r="F101" t="s">
+        <v>928</v>
+      </c>
+      <c r="G101" t="s">
+        <v>721</v>
+      </c>
+      <c r="H101" t="s">
+        <v>929</v>
+      </c>
+      <c r="I101" t="s">
         <v>930</v>
       </c>
-      <c r="D101" t="s">
-        <v>931</v>
-      </c>
-      <c r="F101" t="s">
-        <v>932</v>
-      </c>
-      <c r="G101" t="s">
-        <v>722</v>
-      </c>
-      <c r="H101" t="s">
-        <v>933</v>
-      </c>
-      <c r="I101" t="s">
-        <v>934</v>
-      </c>
       <c r="J101" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="102" spans="1:10" customFormat="1" ht="13.2">
       <c r="A102" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B102">
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>935</v>
+        <v>973</v>
       </c>
       <c r="D102" t="s">
-        <v>936</v>
+        <v>974</v>
       </c>
       <c r="F102" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="G102" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="H102" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="I102" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="J102" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="103" spans="1:10" customFormat="1" ht="13.2">
       <c r="A103" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B103">
         <v>5</v>
       </c>
       <c r="C103" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="D103" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="F103" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="G103" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="H103" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="I103" t="s">
-        <v>911</v>
+        <v>977</v>
       </c>
       <c r="J103" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="104" spans="1:10" customFormat="1" ht="13.2">
       <c r="A104" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B104">
         <v>6</v>
       </c>
       <c r="C104" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="D104" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="F104" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="G104" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="H104" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="I104" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="J104" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="105" spans="1:10" customFormat="1" ht="13.2">
       <c r="A105" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B105">
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="D105" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="F105" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="G105" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="H105" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="I105" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="J105" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="106" spans="1:10" customFormat="1" ht="13.2">
       <c r="A106" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B106">
         <v>8</v>
       </c>
       <c r="C106" t="s">
+        <v>953</v>
+      </c>
+      <c r="D106" t="s">
+        <v>954</v>
+      </c>
+      <c r="F106" t="s">
+        <v>955</v>
+      </c>
+      <c r="G106" t="s">
+        <v>956</v>
+      </c>
+      <c r="H106" t="s">
+        <v>957</v>
+      </c>
+      <c r="I106" t="s">
+        <v>958</v>
+      </c>
+      <c r="J106" t="s">
         <v>959</v>
-      </c>
-      <c r="D106" t="s">
-        <v>960</v>
-      </c>
-      <c r="F106" t="s">
-        <v>961</v>
-      </c>
-      <c r="G106" t="s">
-        <v>962</v>
-      </c>
-      <c r="H106" t="s">
-        <v>963</v>
-      </c>
-      <c r="I106" t="s">
-        <v>964</v>
-      </c>
-      <c r="J106" t="s">
-        <v>965</v>
       </c>
     </row>
     <row r="107" spans="1:10" customFormat="1" ht="13.2">
       <c r="A107" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B107">
         <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="D107" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="F107" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="G107" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="H107" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I107" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="J107" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="108" spans="1:10" customFormat="1" ht="13.2">
       <c r="A108" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B108">
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="D108" t="s">
-        <v>972</v>
+        <v>976</v>
       </c>
       <c r="F108" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="G108" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="H108" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="I108" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="J108" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
   </sheetData>
@@ -7311,730 +7311,730 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>461</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>464</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>467</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>468</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>471</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>474</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>478</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4">
       <c r="A9" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>484</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>488</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>401</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>489</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>491</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>492</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>495</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>496</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>499</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>500</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>504</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>507</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>508</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>512</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>516</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>519</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>520</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>523</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>524</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4">
       <c r="A20" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>528</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>530</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>532</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>536</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>540</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>543</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>544</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>547</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>551</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>554</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>555</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4">
       <c r="A28" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>558</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>559</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>567</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>570</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>575</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>579</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>582</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>583</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>587</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>589</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>591</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>593</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>595</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>599</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>603</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
+        <v>604</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>607</v>
-      </c>
       <c r="D40" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>610</v>
-      </c>
       <c r="D41" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>612</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>613</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>620</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>623</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>624</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>625</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="8" t="s">
         <v>629</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>631</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>632</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="D47" s="8" t="s">
         <v>633</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
+        <v>634</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>635</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>636</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" s="8" t="s">
         <v>637</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>640</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>641</v>
-      </c>
       <c r="D49" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>642</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>644</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
+        <v>645</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>648</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>652</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>653</v>
       </c>
     </row>
   </sheetData>
@@ -8060,296 +8060,296 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="26.4">
       <c r="A2" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>700</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
+        <v>701</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>704</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.4">
       <c r="A4" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>708</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.4">
       <c r="A5" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>712</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4">
       <c r="A6" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>716</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4">
       <c r="A7" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>718</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>720</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>722</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>724</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4">
       <c r="A9" s="8" t="s">
+        <v>725</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>726</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>728</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>729</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4">
       <c r="A10" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>730</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>732</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4">
       <c r="A11" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>733</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>735</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4">
       <c r="A12" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>737</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>739</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>742</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>743</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4">
       <c r="A14" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>745</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>746</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4">
       <c r="A15" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>750</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4">
       <c r="A16" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>754</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4">
       <c r="A17" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>756</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>757</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4">
       <c r="A18" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>761</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4">
       <c r="A19" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>765</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>766</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>767</v>
-      </c>
       <c r="D20" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4">
       <c r="A21" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>770</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>771</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0495FF87-58B6-4C47-8EAC-886881672F94}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{953AA8AE-B25F-49C0-AB36-8F0446657185}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -3124,9 +3124,6 @@
     <t>Sybill Trelawney professzor;Sybill;Trelawney;Sybill Trelawney</t>
   </si>
   <si>
-    <t>A mozierdő titka - Halmi erdő</t>
-  </si>
-  <si>
     <t>Gloriett Erdő Titka - Halmi erdő</t>
   </si>
   <si>
@@ -3146,6 +3143,9 @@
   </si>
   <si>
     <t>Melyik Star Wars filmben hangzik el ez a híres mondat (mi a címe)?</t>
+  </si>
+  <si>
+    <t>A Mozierdő Titka - Halmi erdő</t>
   </si>
 </sst>
 </file>
@@ -3459,9 +3459,9 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3526,7 +3526,7 @@
         <v>311</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>452</v>
@@ -3590,7 +3590,7 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>452</v>
@@ -4052,7 +4052,7 @@
   </sheetPr>
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
@@ -7011,7 +7011,7 @@
         <v>916</v>
       </c>
       <c r="G99" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="H99" t="s">
         <v>917</v>
@@ -7089,10 +7089,10 @@
         <v>4</v>
       </c>
       <c r="C102" t="s">
+        <v>972</v>
+      </c>
+      <c r="D102" t="s">
         <v>973</v>
-      </c>
-      <c r="D102" t="s">
-        <v>974</v>
       </c>
       <c r="F102" t="s">
         <v>931</v>
@@ -7133,7 +7133,7 @@
         <v>939</v>
       </c>
       <c r="I103" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="J103" t="s">
         <v>940</v>
@@ -7263,10 +7263,10 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
+        <v>974</v>
+      </c>
+      <c r="D108" t="s">
         <v>975</v>
-      </c>
-      <c r="D108" t="s">
-        <v>976</v>
       </c>
       <c r="F108" t="s">
         <v>965</v>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{953AA8AE-B25F-49C0-AB36-8F0446657185}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87548E55-3833-45E3-91E4-F9ADBC17584D}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="979">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="980">
   <si>
     <t>id</t>
   </si>
@@ -3146,6 +3146,9 @@
   </si>
   <si>
     <t>A Mozierdő Titka - Halmi erdő</t>
+  </si>
+  <si>
+    <t>1+1</t>
   </si>
 </sst>
 </file>
@@ -3459,7 +3462,7 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -4052,9 +4055,9 @@
   </sheetPr>
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4439,16 +4442,16 @@
         <v>48</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>408</v>
+        <v>979</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="14_{64171716-DC13-4925-B4CB-F41F061912FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87548E55-3833-45E3-91E4-F9ADBC17584D}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FC35CF79-D3CE-4B30-851D-F6846CAA8505}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="981">
   <si>
     <t>id</t>
   </si>
@@ -2743,9 +2743,6 @@
     <t>írunk vele</t>
   </si>
   <si>
-    <t>Hány pap látható a boltív tetején?</t>
-  </si>
-  <si>
     <t>Több mint 10</t>
   </si>
   <si>
@@ -2770,12 +2767,6 @@
     <t>17…</t>
   </si>
   <si>
-    <t>Keresd meg Lajos szobrát</t>
-  </si>
-  <si>
-    <t>Melyik évben halt meg ?</t>
-  </si>
-  <si>
     <t>Miterpacher Lajos</t>
   </si>
   <si>
@@ -2806,9 +2797,6 @@
     <t>Könyvet tart a kezében.</t>
   </si>
   <si>
-    <t>Keress egy Kolodko mini szobrot.</t>
-  </si>
-  <si>
     <t>47.51414424197708</t>
   </si>
   <si>
@@ -3149,6 +3137,21 @@
   </si>
   <si>
     <t>1+1</t>
+  </si>
+  <si>
+    <t>Hány apostól látható a boltív tetején?</t>
+  </si>
+  <si>
+    <t>Melyik évben halt meg Lajos?</t>
+  </si>
+  <si>
+    <t>Mysti cica nesztelen léptekkel sétált majd megpillantotta Miterpacher Lajos szobrát a fák árnyékában. A szobor mintha életre kelt volna, és halkan mesélni kezdett a természet titkairól és az egykori tudós munkájáról. Mysti kíváncsian körbesétálta, mert érezte, hogy itt új nyomra bukkant, ami közelebb viszi elveszett testvérei történetéhez.</t>
+  </si>
+  <si>
+    <t>Mysti megállt egy apró Drakula mini Kolodkó-szobor vigyorgott rá. A kis bronz vámpír mintha titokban kacsintott volna rá, miközben a holdfény megcsillant Mysti medálján. A cica halkan dorombolva érezte, hogy ez a hely is őrzi a város egy elfeledett titkát – talán egy újabb nyom a testvérei felé.</t>
+  </si>
+  <si>
+    <t>explore</t>
   </si>
 </sst>
 </file>
@@ -3462,9 +3465,9 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3529,7 +3532,7 @@
         <v>311</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>452</v>
@@ -3587,13 +3590,13 @@
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="13.2">
       <c r="A4" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>452</v>
@@ -3602,22 +3605,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="G4" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="H4" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="K4" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
@@ -3759,7 +3762,7 @@
         <v>52</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>53</v>
@@ -4055,9 +4058,9 @@
   </sheetPr>
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4119,7 +4122,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>98</v>
@@ -4149,16 +4152,16 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="6" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="J3" t="s">
         <v>532</v>
@@ -4178,19 +4181,19 @@
         <v>105</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -4207,7 +4210,7 @@
         <v>107</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>84</v>
@@ -4236,10 +4239,10 @@
         <v>109</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>89</v>
@@ -4265,7 +4268,7 @@
         <v>111</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>90</v>
@@ -4294,19 +4297,19 @@
         <v>113</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -4323,7 +4326,7 @@
         <v>115</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>121</v>
@@ -4352,7 +4355,7 @@
         <v>117</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>75</v>
@@ -4381,7 +4384,7 @@
         <v>119</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>120</v>
@@ -4442,7 +4445,7 @@
         <v>48</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -6732,10 +6735,10 @@
         <v>833</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="I90" s="2" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="J90" s="2">
         <v>4</v>
@@ -6758,7 +6761,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>836</v>
@@ -6781,25 +6784,25 @@
         <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E92" s="2">
         <v>5</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="G92" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="J92" s="2">
         <v>11</v>
@@ -6822,7 +6825,7 @@
         <v>5</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>25</v>
@@ -6845,25 +6848,25 @@
         <v>5</v>
       </c>
       <c r="C94" t="s">
+        <v>849</v>
+      </c>
+      <c r="D94" t="s">
         <v>850</v>
-      </c>
-      <c r="D94" t="s">
-        <v>851</v>
       </c>
       <c r="E94" s="2">
         <v>5</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="J94" s="2">
         <v>1763</v>
@@ -6877,25 +6880,25 @@
         <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D95" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="E95" s="2">
         <v>10</v>
       </c>
       <c r="F95" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="I95" s="2" t="s">
         <v>853</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="H95" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="I95" s="2" t="s">
-        <v>856</v>
       </c>
       <c r="J95" s="2">
         <v>1814</v>
@@ -6909,28 +6912,28 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D96" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E96" s="2">
         <v>10</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>865</v>
+        <v>979</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
@@ -6941,25 +6944,25 @@
         <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="D97" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="E97" s="2">
         <v>10</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="J97" s="2">
         <v>63</v>
@@ -6973,83 +6976,83 @@
         <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="D98" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="E98" s="2">
         <v>20</v>
       </c>
       <c r="F98" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="I98" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>877</v>
-      </c>
       <c r="J98" s="2" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
     </row>
     <row r="99" spans="1:10" customFormat="1" ht="13.2">
       <c r="A99" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
       <c r="C99" t="s">
+        <v>910</v>
+      </c>
+      <c r="D99" t="s">
+        <v>911</v>
+      </c>
+      <c r="F99" t="s">
+        <v>912</v>
+      </c>
+      <c r="G99" t="s">
+        <v>973</v>
+      </c>
+      <c r="H99" t="s">
+        <v>913</v>
+      </c>
+      <c r="I99" t="s">
         <v>914</v>
       </c>
-      <c r="D99" t="s">
+      <c r="J99" t="s">
         <v>915</v>
-      </c>
-      <c r="F99" t="s">
-        <v>916</v>
-      </c>
-      <c r="G99" t="s">
-        <v>977</v>
-      </c>
-      <c r="H99" t="s">
-        <v>917</v>
-      </c>
-      <c r="I99" t="s">
-        <v>918</v>
-      </c>
-      <c r="J99" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="100" spans="1:10" customFormat="1" ht="13.2">
       <c r="A100" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B100">
         <v>2</v>
       </c>
       <c r="C100" t="s">
+        <v>916</v>
+      </c>
+      <c r="D100" t="s">
+        <v>917</v>
+      </c>
+      <c r="F100" t="s">
+        <v>918</v>
+      </c>
+      <c r="G100" t="s">
+        <v>919</v>
+      </c>
+      <c r="H100" t="s">
         <v>920</v>
       </c>
-      <c r="D100" t="s">
+      <c r="I100" t="s">
         <v>921</v>
-      </c>
-      <c r="F100" t="s">
-        <v>922</v>
-      </c>
-      <c r="G100" t="s">
-        <v>923</v>
-      </c>
-      <c r="H100" t="s">
-        <v>924</v>
-      </c>
-      <c r="I100" t="s">
-        <v>925</v>
       </c>
       <c r="J100" t="s">
         <v>773</v>
@@ -7057,57 +7060,57 @@
     </row>
     <row r="101" spans="1:10" customFormat="1" ht="13.2">
       <c r="A101" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B101">
         <v>3</v>
       </c>
       <c r="C101" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="D101" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="F101" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="G101" t="s">
         <v>721</v>
       </c>
       <c r="H101" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="I101" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="J101" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
     </row>
     <row r="102" spans="1:10" customFormat="1" ht="13.2">
       <c r="A102" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B102">
         <v>4</v>
       </c>
       <c r="C102" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="D102" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="F102" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G102" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="H102" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="I102" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="J102" t="s">
         <v>735</v>
@@ -7115,57 +7118,57 @@
     </row>
     <row r="103" spans="1:10" customFormat="1" ht="13.2">
       <c r="A103" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B103">
         <v>5</v>
       </c>
       <c r="C103" t="s">
+        <v>931</v>
+      </c>
+      <c r="D103" t="s">
+        <v>932</v>
+      </c>
+      <c r="F103" t="s">
+        <v>933</v>
+      </c>
+      <c r="G103" t="s">
+        <v>934</v>
+      </c>
+      <c r="H103" t="s">
         <v>935</v>
       </c>
-      <c r="D103" t="s">
+      <c r="I103" t="s">
+        <v>972</v>
+      </c>
+      <c r="J103" t="s">
         <v>936</v>
-      </c>
-      <c r="F103" t="s">
-        <v>937</v>
-      </c>
-      <c r="G103" t="s">
-        <v>938</v>
-      </c>
-      <c r="H103" t="s">
-        <v>939</v>
-      </c>
-      <c r="I103" t="s">
-        <v>976</v>
-      </c>
-      <c r="J103" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="104" spans="1:10" customFormat="1" ht="13.2">
       <c r="A104" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B104">
         <v>6</v>
       </c>
       <c r="C104" t="s">
+        <v>937</v>
+      </c>
+      <c r="D104" t="s">
+        <v>938</v>
+      </c>
+      <c r="F104" t="s">
+        <v>939</v>
+      </c>
+      <c r="G104" t="s">
+        <v>940</v>
+      </c>
+      <c r="H104" t="s">
         <v>941</v>
       </c>
-      <c r="D104" t="s">
+      <c r="I104" t="s">
         <v>942</v>
-      </c>
-      <c r="F104" t="s">
-        <v>943</v>
-      </c>
-      <c r="G104" t="s">
-        <v>944</v>
-      </c>
-      <c r="H104" t="s">
-        <v>945</v>
-      </c>
-      <c r="I104" t="s">
-        <v>946</v>
       </c>
       <c r="J104" t="s">
         <v>774</v>
@@ -7173,28 +7176,28 @@
     </row>
     <row r="105" spans="1:10" customFormat="1" ht="13.2">
       <c r="A105" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B105">
         <v>7</v>
       </c>
       <c r="C105" t="s">
+        <v>943</v>
+      </c>
+      <c r="D105" t="s">
+        <v>944</v>
+      </c>
+      <c r="F105" t="s">
+        <v>945</v>
+      </c>
+      <c r="G105" t="s">
+        <v>946</v>
+      </c>
+      <c r="H105" t="s">
         <v>947</v>
       </c>
-      <c r="D105" t="s">
+      <c r="I105" t="s">
         <v>948</v>
-      </c>
-      <c r="F105" t="s">
-        <v>949</v>
-      </c>
-      <c r="G105" t="s">
-        <v>950</v>
-      </c>
-      <c r="H105" t="s">
-        <v>951</v>
-      </c>
-      <c r="I105" t="s">
-        <v>952</v>
       </c>
       <c r="J105" t="s">
         <v>778</v>
@@ -7202,57 +7205,57 @@
     </row>
     <row r="106" spans="1:10" customFormat="1" ht="13.2">
       <c r="A106" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B106">
         <v>8</v>
       </c>
       <c r="C106" t="s">
+        <v>949</v>
+      </c>
+      <c r="D106" t="s">
+        <v>950</v>
+      </c>
+      <c r="F106" t="s">
+        <v>951</v>
+      </c>
+      <c r="G106" t="s">
+        <v>952</v>
+      </c>
+      <c r="H106" t="s">
         <v>953</v>
       </c>
-      <c r="D106" t="s">
+      <c r="I106" t="s">
         <v>954</v>
       </c>
-      <c r="F106" t="s">
+      <c r="J106" t="s">
         <v>955</v>
-      </c>
-      <c r="G106" t="s">
-        <v>956</v>
-      </c>
-      <c r="H106" t="s">
-        <v>957</v>
-      </c>
-      <c r="I106" t="s">
-        <v>958</v>
-      </c>
-      <c r="J106" t="s">
-        <v>959</v>
       </c>
     </row>
     <row r="107" spans="1:10" customFormat="1" ht="13.2">
       <c r="A107" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B107">
         <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D107" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="F107" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="G107" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="H107" t="s">
         <v>469</v>
       </c>
       <c r="I107" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="J107" t="s">
         <v>394</v>
@@ -7260,31 +7263,31 @@
     </row>
     <row r="108" spans="1:10" customFormat="1" ht="13.2">
       <c r="A108" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="B108">
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D108" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="F108" t="s">
+        <v>961</v>
+      </c>
+      <c r="G108" t="s">
+        <v>962</v>
+      </c>
+      <c r="H108" t="s">
+        <v>963</v>
+      </c>
+      <c r="I108" t="s">
+        <v>964</v>
+      </c>
+      <c r="J108" t="s">
         <v>965</v>
-      </c>
-      <c r="G108" t="s">
-        <v>966</v>
-      </c>
-      <c r="H108" t="s">
-        <v>967</v>
-      </c>
-      <c r="I108" t="s">
-        <v>968</v>
-      </c>
-      <c r="J108" t="s">
-        <v>969</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EFB2FDFA-F26F-4E34-A194-7BF70DB6A5FA}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF1A3645-1FC5-4C2A-896F-35BD8E3B94C7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="1020">
   <si>
     <t>id</t>
   </si>
@@ -3266,6 +3266,9 @@
   </si>
   <si>
     <t>Tollat;Toll</t>
+  </si>
+  <si>
+    <t>thumbnails\budapest-poi.png</t>
   </si>
 </sst>
 </file>
@@ -3579,9 +3582,9 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4158,6 +4161,9 @@
       <c r="J17" s="2" t="s">
         <v>984</v>
       </c>
+      <c r="K17" s="2" t="s">
+        <v>1019</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="3"/>
@@ -4201,7 +4207,7 @@
   </sheetPr>
   <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF1A3645-1FC5-4C2A-896F-35BD8E3B94C7}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEACD7D5-9EAD-45CB-98A4-AD527853E45A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="1032">
   <si>
     <t>id</t>
   </si>
@@ -157,33 +157,7 @@
     <t>Hamu u. teszt pálya</t>
   </si>
   <si>
-    <t>Séta a Hamu utcában</t>
-  </si>
-  <si>
-    <t>47.4350488157327</t>
-  </si>
-  <si>
-    <t>19.164046677783087</t>
-  </si>
-  <si>
-    <t>Ügyesen végigmentél a Hamu utcán</t>
-  </si>
-  <si>
-    <t>A ködös utca
-Krisztián egy hűvös, ködös estén indult haza a kihalt utcán. A lámpák fénye sárgásan vibrált, mintha a levegő is lélegezne. A távolban egy csendes, alig hallható dorombolás hangja szűrődött át a ködből.</t>
-  </si>
-  <si>
-    <t>Az új hajnal
-Amikor felébredt, ugyanazon az utcán állt, de a hajnal fénye áttört a házak között. Az órásbolt helyén már csak egy omladozó téglaépület maradt, rajta a felirat: Bezárt 1952-ben. A macska árnyéka még egyszer átsuhant a falon – majd eltűnt a napfényben.</t>
-  </si>
-  <si>
     <t>2+2</t>
-  </si>
-  <si>
-    <t>47.43370173853671</t>
-  </si>
-  <si>
-    <t>19.162764570728925</t>
   </si>
   <si>
     <t>kamilla-teszt</t>
@@ -408,12 +382,6 @@
   <si>
     <t>Tortaszeletelés.
 Egy kerek tortát két egyenes vágással legfeljebb hány darabra tudsz vágni?</t>
-  </si>
-  <si>
-    <t>47.43474024308314</t>
-  </si>
-  <si>
-    <t>19.163423567679114</t>
   </si>
   <si>
     <t>rackeve-teszt</t>
@@ -1053,9 +1021,6 @@
   </si>
   <si>
     <t>team</t>
-  </si>
-  <si>
-    <t>4;44;444</t>
   </si>
   <si>
     <t>thumbnails\erdo2.png</t>
@@ -3136,9 +3101,6 @@
     <t>A Mozierdő Titka - Halmi erdő</t>
   </si>
   <si>
-    <t>1+1</t>
-  </si>
-  <si>
     <t>Hány apostól látható a boltív tetején?</t>
   </si>
   <si>
@@ -3269,6 +3231,84 @@
   </si>
   <si>
     <t>thumbnails\budapest-poi.png</t>
+  </si>
+  <si>
+    <t>47.43475407171924</t>
+  </si>
+  <si>
+    <t>19.163473297543568</t>
+  </si>
+  <si>
+    <t>47.434796145059074</t>
+  </si>
+  <si>
+    <t>19.163362455408603</t>
+  </si>
+  <si>
+    <t>47.43472224699111</t>
+  </si>
+  <si>
+    <t>19.163294674246934</t>
+  </si>
+  <si>
+    <t>47.43463108791757</t>
+  </si>
+  <si>
+    <t>19.163489246052198</t>
+  </si>
+  <si>
+    <t>47.43470880384936</t>
+  </si>
+  <si>
+    <t>19.16357839802294</t>
+  </si>
+  <si>
+    <t>Egy napsütéses reggelen Mysti cica kinyújtózott az ablakpárkányon. A madarak csiviteltek, a kertben méhek zümmögtek, és valami különös illat szállt a levegőben.
+– Hm, itt valami izgalmas történik! – dorombolta Mysti, és elindult felfedezni a ház körüli világot.</t>
+  </si>
+  <si>
+    <t>Mysti a kert széléhez ért, ahol színes virágok nyíltak. A középső virág különösen magasra nőtt, és rajta egy kék szalag lengett a szélben.
+– Vajon ki kötötte ide ezt a szalagot? – gondolkodott Mysti.</t>
+  </si>
+  <si>
+    <t>Milyen színű a kutyatej?</t>
+  </si>
+  <si>
+    <t>sárga;citrom;citrom sárga</t>
+  </si>
+  <si>
+    <t>Vonza a bogarakat.</t>
+  </si>
+  <si>
+    <t>Élénk szín, olyan mint a nap.</t>
+  </si>
+  <si>
+    <t>A hátsó udvarban Mysti egy fa alatt állt meg. Fentről halk csipogást hallott. A macska óvatosan felnézett, és meglátott egy fészket három apró fiókával.
+– De aranyosak! Vajon mit hoz nekik az anyjuk? – tűnődött.</t>
+  </si>
+  <si>
+    <t>Mit szokott a madár mama hozni a fiókáinak?</t>
+  </si>
+  <si>
+    <t>Nem víz, hanem valami ehető.</t>
+  </si>
+  <si>
+    <t>Néha a földben található, kicsi és nyújtózkodós.</t>
+  </si>
+  <si>
+    <t>kukac;rovar</t>
+  </si>
+  <si>
+    <t>Mysti a terasz lépcsőjénél egy csillogó tárgyat vett észre. Közelebb ment, és látta, hogy egy kulcs az! Valószínűleg valaki elejtette.
+– Vajon hova tartozhat ez a kulcs? – morfondírozott.</t>
+  </si>
+  <si>
+    <t>A kerti csapnál Mysti észrevette, hogy egy vödör tele van vízzel, és a tetején egy szitakötő pihen. A vízben tükröződött az ég, és Mysti szinte belefeledkezett a látványba.
+– Nahát, mintha két ég lenne! – dorombolta elbűvölve.</t>
+  </si>
+  <si>
+    <t>Mysti végül visszament a teraszra, és elégedetten nézett körül. Megtalálta a kulcsot, segített a virágnak, megnézte a fészekben a fiókákat, és még a vödör titkát is megfejtette.
+– Ma is sikerült új titkokat felfedezni a ház körül! – dorombolta, majd összegömbölyödött a napfényben és szundítani kezdett. 🌞</t>
   </si>
 </sst>
 </file>
@@ -3582,9 +3622,9 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K18" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3630,7 +3670,7 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>8</v>
@@ -3646,19 +3686,19 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>28</v>
@@ -3667,21 +3707,21 @@
         <v>27</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -3690,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>28</v>
@@ -3699,56 +3739,56 @@
         <v>27</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>687</v>
+        <v>676</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="13.2">
       <c r="A4" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="G4" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="H4" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="K4" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -3757,30 +3797,30 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>824</v>
+        <v>813</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -3789,33 +3829,33 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>825</v>
+        <v>814</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="I6" s="2">
         <v>10</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -3824,22 +3864,22 @@
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="I7" s="2">
         <v>10</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
@@ -3858,31 +3898,34 @@
       <c r="E8" s="2">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>43</v>
+      <c r="F8" s="5" t="s">
+        <v>1018</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>123</v>
+        <v>1008</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>46</v>
+        <v>1009</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>1031</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -3891,30 +3934,30 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
@@ -3923,30 +3966,30 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
@@ -3955,30 +3998,30 @@
         <v>0</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
@@ -3987,30 +4030,30 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
@@ -4019,30 +4062,30 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
@@ -4051,33 +4094,33 @@
         <v>1000</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="I14" s="2">
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
@@ -4086,30 +4129,30 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
@@ -4118,30 +4161,30 @@
         <v>1000</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>980</v>
+        <v>968</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>982</v>
+        <v>970</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -4150,19 +4193,19 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>983</v>
+        <v>971</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>1019</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
@@ -4205,11 +4248,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4239,7 +4282,7 @@
         <v>15</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>16</v>
@@ -4271,16 +4314,16 @@
         <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>882</v>
+        <v>871</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J2" s="2">
         <v>6</v>
@@ -4294,26 +4337,26 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>883</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>892</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>894</v>
-      </c>
       <c r="J3" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
@@ -4324,25 +4367,25 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>895</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -4353,22 +4396,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>885</v>
+        <v>874</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="J5" s="2">
         <v>9</v>
@@ -4382,25 +4425,25 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>886</v>
+        <v>875</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2">
         <v>7</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1">
@@ -4411,22 +4454,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>887</v>
+        <v>876</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J7" s="2">
         <v>50</v>
@@ -4440,25 +4483,25 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -4469,22 +4512,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>889</v>
+        <v>878</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="J9" s="2">
         <v>32</v>
@@ -4498,25 +4541,25 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>890</v>
+        <v>879</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1">
@@ -4527,22 +4570,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="J11" s="2">
         <v>6</v>
@@ -4556,25 +4599,28 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>1010</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>1011</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>47</v>
+        <v>1019</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>49</v>
+        <v>1020</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>33</v>
+        <v>1022</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>22</v>
+        <v>1023</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>312</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -4585,544 +4631,553 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>50</v>
+        <v>1012</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>51</v>
+        <v>1013</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>48</v>
+        <v>1024</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>975</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="3">
-        <v>3</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2</v>
+        <v>1025</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B14" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>1014</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>56</v>
+        <v>1015</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="2">
-        <v>4</v>
+        <v>1029</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B15" s="4">
+        <v>4</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E15" s="2">
         <v>2</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F15" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="2">
-        <v>5</v>
+        <v>1030</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B16" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J16" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B17" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J17" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="4">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J18" s="2">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="B19" s="4">
+        <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>134</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>135</v>
+        <v>60</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>156</v>
+        <v>53</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="J19" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="B20" s="4">
+        <v>5</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>154</v>
+        <v>54</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="J20" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="2">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="F21" s="5" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>147</v>
+      <c r="J21" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B22" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="J22" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B23" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="J23" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
+        <v>115</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>100</v>
+        <v>122</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="J24" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B25" s="4">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>171</v>
+        <v>115</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" s="2">
-        <v>9</v>
+        <v>123</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B26" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J26" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B27" s="4">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>87</v>
+      <c r="G27" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I27" s="2">
-        <v>7</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B28" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>90</v>
+        <v>167</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J28" s="2">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B29" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>187</v>
+        <v>170</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="J29" s="2">
-        <v>6</v>
+        <v>81</v>
+      </c>
+      <c r="I29" s="2">
+        <v>7</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="B30" s="4">
+        <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>196</v>
+        <v>173</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>199</v>
+        <v>84</v>
+      </c>
+      <c r="J30" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B31" s="2">
-        <v>2</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>200</v>
+        <v>153</v>
+      </c>
+      <c r="B31" s="4">
+        <v>6</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>98</v>
+        <v>176</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>100</v>
+        <v>88</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="J31" s="2">
         <v>6</v>
@@ -5130,797 +5185,791 @@
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B33" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="J33" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B34" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="J34" s="2">
-        <v>9</v>
+        <v>72</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B35" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="J35" s="2">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B36" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="J36" s="2">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B37" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>221</v>
+        <v>204</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="J37" s="2">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B38" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>75</v>
+        <v>207</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>76</v>
+        <v>86</v>
+      </c>
+      <c r="J38" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B39" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="J39" s="2">
-        <v>6</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="B40" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="J40" s="2">
-        <v>7</v>
+        <v>213</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="B41" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>85</v>
+        <v>216</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J41" s="2">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B42" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>245</v>
+        <v>229</v>
+      </c>
+      <c r="J42" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B43" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>247</v>
+        <v>76</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>250</v>
+        <v>78</v>
+      </c>
+      <c r="J43" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B44" s="2">
+        <v>3</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B44" s="2">
-        <v>5</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="I44" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J44" s="2">
-        <v>16</v>
+        <v>234</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B45" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>146</v>
+        <v>237</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>152</v>
+        <v>239</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B46" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>251</v>
+        <v>120</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="J46" s="2">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="B47" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E47" s="2">
-        <v>10</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>288</v>
+        <v>251</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>291</v>
+        <v>136</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>293</v>
+        <v>141</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>294</v>
+        <v>142</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>292</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="B48" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E48" s="2">
-        <v>10</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>286</v>
+        <v>253</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>241</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>297</v>
+        <v>83</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="J48" s="2" t="s">
-        <v>296</v>
+        <v>84</v>
+      </c>
+      <c r="J48" s="2">
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B49" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="E49" s="2">
         <v>10</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>287</v>
+      <c r="F49" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="J49" s="2">
-        <v>1989</v>
+        <v>284</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B50" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="E50" s="2">
         <v>10</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="H50" s="2" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="J50" s="2">
-        <v>10</v>
+        <v>288</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B51" s="2">
-        <v>5</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="D51" s="2" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E51" s="2">
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="G51" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="I51" s="2" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="J51" s="2">
-        <v>2</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B52" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="E52" s="2">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>284</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="H52" s="2">
-        <v>1186</v>
+        <v>275</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>293</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>308</v>
+        <v>294</v>
+      </c>
+      <c r="J52" s="2">
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B53" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="E53" s="2">
         <v>10</v>
       </c>
-      <c r="F53" t="s">
-        <v>289</v>
+      <c r="F53" s="2" t="s">
+        <v>280</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>358</v>
+        <v>300</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>359</v>
+        <v>295</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="J53" s="2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="B54" s="2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>326</v>
+        <v>270</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>327</v>
+        <v>271</v>
       </c>
       <c r="E54" s="2">
         <v>10</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>329</v>
+      <c r="F54" t="s">
+        <v>274</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="H54" s="2">
+        <v>1186</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="J54" s="2">
-        <v>16</v>
+        <v>299</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
-        <v>321</v>
+        <v>254</v>
       </c>
       <c r="B55" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>332</v>
+        <v>272</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>333</v>
+        <v>273</v>
       </c>
       <c r="E55" s="2">
         <v>10</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>334</v>
+      <c r="F55" t="s">
+        <v>279</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>347</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="J55" s="2">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B56" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="E56" s="2">
         <v>10</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="J56" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B57" s="2">
-        <v>4</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="D57" s="2" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="E57" s="2">
         <v>10</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="I57" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="J57" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B58" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>343</v>
@@ -5929,1659 +5978,1723 @@
         <v>344</v>
       </c>
       <c r="E58" s="2">
+        <v>10</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J58" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A59" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E59" s="2">
+        <v>10</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="J59" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A60" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B60" s="2">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E60" s="2">
         <v>35</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="J58" s="2">
+      <c r="F60" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="J60" s="2">
         <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A59" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B59" s="2">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="I59" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="J59" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A60" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B60" s="2">
-        <v>2</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B61" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F61" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>381</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B62" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>382</v>
-      </c>
       <c r="G62" s="2" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B63" s="2">
+        <v>3</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B63" s="2">
-        <v>5</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>372</v>
-      </c>
       <c r="F63" s="5" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B64" s="2">
+        <v>4</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A65" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B65" s="2">
+        <v>5</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A66" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B66" s="2">
         <v>6</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C66" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F64" s="5" t="s">
+      <c r="G66" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A65" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B65" s="2">
-        <v>1</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E65" s="2">
-        <v>10</v>
-      </c>
-      <c r="F65" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="I65" t="s">
-        <v>434</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A66" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="B66" s="2">
-        <v>2</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E66" s="2">
-        <v>10</v>
-      </c>
-      <c r="F66" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>437</v>
-      </c>
       <c r="I66" s="2" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B67" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="E67" s="2">
         <v>10</v>
       </c>
       <c r="F67" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="I67" t="s">
         <v>423</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>442</v>
-      </c>
       <c r="J67" s="2" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="B68" s="2">
-        <v>4</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="E68" s="2">
+        <v>10</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>428</v>
-      </c>
-      <c r="E68" s="2">
-        <v>5</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="I68" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="J68" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="B69" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="E69" s="2">
         <v>10</v>
       </c>
       <c r="F69" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="I69" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="I69" s="2" t="s">
-        <v>450</v>
-      </c>
       <c r="J69" s="2" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>453</v>
+        <v>399</v>
       </c>
       <c r="B70" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="D70" t="s">
-        <v>657</v>
-      </c>
-      <c r="F70" t="s">
-        <v>677</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>460</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>654</v>
+        <v>416</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="E70" s="2">
+        <v>5</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="J70" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>453</v>
+        <v>399</v>
       </c>
       <c r="B71" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D71" t="s">
-        <v>659</v>
-      </c>
-      <c r="F71" t="s">
-        <v>678</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>461</v>
-      </c>
-      <c r="H71" s="8" t="s">
-        <v>462</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>463</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>653</v>
+        <v>418</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E71" s="2">
+        <v>10</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B72" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
       <c r="D72" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="F72" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>388</v>
+        <v>643</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B73" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
       <c r="D73" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="F73" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>394</v>
+        <v>642</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B74" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="D74" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="F74" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>655</v>
+        <v>377</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B75" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="D75" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="F75" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>478</v>
+        <v>383</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B76" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
       <c r="D76" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
       <c r="F76" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>482</v>
+        <v>644</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B77" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
       <c r="D77" t="s">
+        <v>656</v>
+      </c>
+      <c r="F77" t="s">
         <v>671</v>
       </c>
-      <c r="F77" t="s">
-        <v>684</v>
-      </c>
       <c r="G77" s="8" t="s">
-        <v>560</v>
+        <v>464</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>561</v>
+        <v>465</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>562</v>
+        <v>466</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>563</v>
+        <v>467</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B78" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="D78" t="s">
+        <v>658</v>
+      </c>
+      <c r="F78" t="s">
         <v>672</v>
       </c>
-      <c r="D78" t="s">
-        <v>673</v>
-      </c>
-      <c r="F78" t="s">
-        <v>685</v>
-      </c>
       <c r="G78" s="8" t="s">
-        <v>564</v>
+        <v>468</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>565</v>
+        <v>469</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>566</v>
+        <v>470</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>567</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="B79" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
       <c r="D79" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
       <c r="F79" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>568</v>
+        <v>549</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>569</v>
+        <v>550</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>570</v>
+        <v>551</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>571</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>690</v>
+        <v>442</v>
       </c>
       <c r="B80" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>801</v>
+        <v>661</v>
+      </c>
+      <c r="D80" t="s">
+        <v>662</v>
       </c>
       <c r="F80" t="s">
-        <v>790</v>
+        <v>674</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>771</v>
+        <v>553</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>821</v>
+        <v>554</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>822</v>
+        <v>555</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>772</v>
+        <v>556</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>690</v>
+        <v>442</v>
       </c>
       <c r="B81" s="2">
-        <v>2</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>802</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>803</v>
+        <v>10</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D81" t="s">
+        <v>664</v>
       </c>
       <c r="F81" t="s">
-        <v>791</v>
+        <v>675</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>709</v>
+        <v>557</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>710</v>
+        <v>558</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>711</v>
+        <v>559</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>773</v>
+        <v>560</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B82" s="2">
-        <v>3</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>804</v>
+        <v>1</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>789</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
       <c r="F82" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>721</v>
+        <v>760</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>722</v>
+        <v>810</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>723</v>
+        <v>811</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>724</v>
+        <v>761</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B83" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
+      </c>
+      <c r="F83" t="s">
+        <v>780</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>732</v>
+        <v>698</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>733</v>
+        <v>699</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B84" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="F84" s="2" t="s">
         <v>794</v>
       </c>
+      <c r="F84" t="s">
+        <v>781</v>
+      </c>
       <c r="G84" s="8" t="s">
-        <v>747</v>
+        <v>710</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>748</v>
+        <v>711</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>749</v>
+        <v>712</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>750</v>
+        <v>713</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B85" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="F85" t="s">
-        <v>795</v>
+        <v>796</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>782</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>774</v>
+        <v>724</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B86" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>775</v>
+        <v>736</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>776</v>
+        <v>737</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>777</v>
+        <v>738</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>778</v>
+        <v>739</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B87" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>797</v>
+        <v>800</v>
+      </c>
+      <c r="F87" t="s">
+        <v>784</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>820</v>
+        <v>702</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>779</v>
+        <v>703</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>780</v>
+        <v>704</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>781</v>
+        <v>763</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B88" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>782</v>
+        <v>764</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="B89" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>786</v>
+        <v>809</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>787</v>
+        <v>768</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>788</v>
+        <v>769</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>789</v>
+        <v>770</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>823</v>
+        <v>679</v>
       </c>
       <c r="B90" s="2">
-        <v>1</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>831</v>
+        <v>9</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>805</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="E90" s="2">
-        <v>20</v>
-      </c>
-      <c r="F90" t="s">
-        <v>830</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="I90" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="J90" s="2">
-        <v>4</v>
+        <v>806</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>772</v>
+      </c>
+      <c r="I90" s="8" t="s">
+        <v>773</v>
+      </c>
+      <c r="J90" s="8" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>823</v>
+        <v>679</v>
       </c>
       <c r="B91" s="2">
-        <v>2</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>834</v>
+        <v>10</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>807</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="E91" s="2">
-        <v>5</v>
+        <v>808</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>837</v>
+        <v>788</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>775</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>776</v>
+      </c>
+      <c r="I91" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="J91" s="8" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="B92" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>847</v>
+        <v>820</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>846</v>
+        <v>821</v>
       </c>
       <c r="E92" s="2">
-        <v>5</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>876</v>
+        <v>20</v>
+      </c>
+      <c r="F92" t="s">
+        <v>819</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>976</v>
+        <v>822</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>845</v>
+        <v>869</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
       <c r="J92" s="2">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="B93" s="2">
-        <v>4</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>840</v>
-      </c>
       <c r="D93" s="2" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
       <c r="E93" s="2">
         <v>5</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>875</v>
+        <v>863</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>25</v>
+        <v>825</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>24</v>
+        <v>827</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="B94" s="2">
-        <v>5</v>
-      </c>
-      <c r="C94" t="s">
-        <v>849</v>
-      </c>
-      <c r="D94" t="s">
-        <v>850</v>
+        <v>3</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>835</v>
       </c>
       <c r="E94" s="2">
         <v>5</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>877</v>
+        <v>865</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>848</v>
+        <v>964</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>879</v>
+        <v>833</v>
       </c>
       <c r="J94" s="2">
-        <v>1763</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="B95" s="2">
-        <v>6</v>
-      </c>
-      <c r="C95" t="s">
-        <v>854</v>
-      </c>
-      <c r="D95" t="s">
-        <v>855</v>
+        <v>4</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>830</v>
       </c>
       <c r="E95" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>978</v>
+        <v>864</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>977</v>
+        <v>25</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>852</v>
+        <v>24</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="J95" s="2">
-        <v>1814</v>
+        <v>832</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="B96" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
       <c r="D96" t="s">
-        <v>857</v>
+        <v>839</v>
       </c>
       <c r="E96" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>979</v>
+        <v>866</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>859</v>
+        <v>837</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>858</v>
+        <v>868</v>
+      </c>
+      <c r="J96" s="2">
+        <v>1763</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="B97" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="D97" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="E97" s="2">
         <v>10</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>878</v>
+        <v>966</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>864</v>
+        <v>965</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>865</v>
+        <v>841</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>866</v>
+        <v>842</v>
       </c>
       <c r="J97" s="2">
-        <v>63</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>823</v>
+        <v>812</v>
       </c>
       <c r="B98" s="2">
+        <v>7</v>
+      </c>
+      <c r="C98" t="s">
+        <v>845</v>
+      </c>
+      <c r="D98" t="s">
+        <v>846</v>
+      </c>
+      <c r="E98" s="2">
+        <v>10</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A99" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B99" s="2">
+        <v>8</v>
+      </c>
+      <c r="C99" t="s">
+        <v>851</v>
+      </c>
+      <c r="D99" t="s">
+        <v>852</v>
+      </c>
+      <c r="E99" s="2">
+        <v>10</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="J99" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A100" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="B100" s="2">
         <v>9</v>
       </c>
-      <c r="C98" t="s">
-        <v>867</v>
-      </c>
-      <c r="D98" t="s">
-        <v>868</v>
-      </c>
-      <c r="E98" s="2">
+      <c r="C100" t="s">
+        <v>856</v>
+      </c>
+      <c r="D100" t="s">
+        <v>857</v>
+      </c>
+      <c r="E100" s="2">
         <v>20</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="I98" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" customFormat="1" ht="13.2">
-      <c r="A99" t="s">
-        <v>904</v>
-      </c>
-      <c r="B99">
-        <v>1</v>
-      </c>
-      <c r="C99" t="s">
-        <v>910</v>
-      </c>
-      <c r="D99" t="s">
-        <v>911</v>
-      </c>
-      <c r="F99" t="s">
-        <v>912</v>
-      </c>
-      <c r="G99" t="s">
-        <v>973</v>
-      </c>
-      <c r="H99" t="s">
-        <v>913</v>
-      </c>
-      <c r="I99" t="s">
-        <v>914</v>
-      </c>
-      <c r="J99" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" customFormat="1" ht="13.2">
-      <c r="A100" t="s">
-        <v>904</v>
-      </c>
-      <c r="B100">
-        <v>2</v>
-      </c>
-      <c r="C100" t="s">
-        <v>916</v>
-      </c>
-      <c r="D100" t="s">
-        <v>917</v>
-      </c>
-      <c r="F100" t="s">
-        <v>918</v>
-      </c>
-      <c r="G100" t="s">
-        <v>919</v>
-      </c>
-      <c r="H100" t="s">
-        <v>920</v>
-      </c>
-      <c r="I100" t="s">
-        <v>921</v>
-      </c>
-      <c r="J100" t="s">
-        <v>773</v>
+      <c r="F100" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="101" spans="1:10" customFormat="1" ht="13.2">
       <c r="A101" t="s">
+        <v>893</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>899</v>
+      </c>
+      <c r="D101" t="s">
+        <v>900</v>
+      </c>
+      <c r="F101" t="s">
+        <v>901</v>
+      </c>
+      <c r="G101" t="s">
+        <v>962</v>
+      </c>
+      <c r="H101" t="s">
+        <v>902</v>
+      </c>
+      <c r="I101" t="s">
+        <v>903</v>
+      </c>
+      <c r="J101" t="s">
         <v>904</v>
-      </c>
-      <c r="B101">
-        <v>3</v>
-      </c>
-      <c r="C101" t="s">
-        <v>922</v>
-      </c>
-      <c r="D101" t="s">
-        <v>923</v>
-      </c>
-      <c r="F101" t="s">
-        <v>924</v>
-      </c>
-      <c r="G101" t="s">
-        <v>721</v>
-      </c>
-      <c r="H101" t="s">
-        <v>925</v>
-      </c>
-      <c r="I101" t="s">
-        <v>926</v>
-      </c>
-      <c r="J101" t="s">
-        <v>966</v>
       </c>
     </row>
     <row r="102" spans="1:10" customFormat="1" ht="13.2">
       <c r="A102" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="B102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>968</v>
+        <v>905</v>
       </c>
       <c r="D102" t="s">
-        <v>969</v>
+        <v>906</v>
       </c>
       <c r="F102" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="G102" t="s">
-        <v>928</v>
+        <v>908</v>
       </c>
       <c r="H102" t="s">
-        <v>929</v>
+        <v>909</v>
       </c>
       <c r="I102" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
       <c r="J102" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
     </row>
     <row r="103" spans="1:10" customFormat="1" ht="13.2">
       <c r="A103" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="B103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>931</v>
+        <v>911</v>
       </c>
       <c r="D103" t="s">
-        <v>932</v>
+        <v>912</v>
       </c>
       <c r="F103" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
       <c r="G103" t="s">
-        <v>934</v>
+        <v>710</v>
       </c>
       <c r="H103" t="s">
-        <v>935</v>
+        <v>914</v>
       </c>
       <c r="I103" t="s">
-        <v>972</v>
+        <v>915</v>
       </c>
       <c r="J103" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
     </row>
     <row r="104" spans="1:10" customFormat="1" ht="13.2">
       <c r="A104" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="B104">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>937</v>
+        <v>957</v>
       </c>
       <c r="D104" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
       <c r="F104" t="s">
-        <v>939</v>
+        <v>916</v>
       </c>
       <c r="G104" t="s">
-        <v>940</v>
+        <v>917</v>
       </c>
       <c r="H104" t="s">
-        <v>941</v>
+        <v>918</v>
       </c>
       <c r="I104" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
       <c r="J104" t="s">
-        <v>774</v>
+        <v>724</v>
       </c>
     </row>
     <row r="105" spans="1:10" customFormat="1" ht="13.2">
       <c r="A105" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="B105">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="D105" t="s">
-        <v>944</v>
+        <v>921</v>
       </c>
       <c r="F105" t="s">
-        <v>945</v>
+        <v>922</v>
       </c>
       <c r="G105" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
       <c r="H105" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
       <c r="I105" t="s">
-        <v>948</v>
+        <v>961</v>
       </c>
       <c r="J105" t="s">
-        <v>778</v>
+        <v>925</v>
       </c>
     </row>
     <row r="106" spans="1:10" customFormat="1" ht="13.2">
       <c r="A106" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="B106">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>949</v>
+        <v>926</v>
       </c>
       <c r="D106" t="s">
-        <v>950</v>
+        <v>927</v>
       </c>
       <c r="F106" t="s">
-        <v>951</v>
+        <v>928</v>
       </c>
       <c r="G106" t="s">
-        <v>952</v>
+        <v>929</v>
       </c>
       <c r="H106" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="I106" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="J106" t="s">
-        <v>955</v>
+        <v>763</v>
       </c>
     </row>
     <row r="107" spans="1:10" customFormat="1" ht="13.2">
       <c r="A107" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>956</v>
+        <v>932</v>
       </c>
       <c r="D107" t="s">
-        <v>957</v>
+        <v>933</v>
       </c>
       <c r="F107" t="s">
-        <v>958</v>
+        <v>934</v>
       </c>
       <c r="G107" t="s">
-        <v>959</v>
+        <v>935</v>
       </c>
       <c r="H107" t="s">
-        <v>469</v>
+        <v>936</v>
       </c>
       <c r="I107" t="s">
-        <v>960</v>
+        <v>937</v>
       </c>
       <c r="J107" t="s">
-        <v>394</v>
+        <v>767</v>
       </c>
     </row>
     <row r="108" spans="1:10" customFormat="1" ht="13.2">
       <c r="A108" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="B108">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>938</v>
+      </c>
+      <c r="D108" t="s">
+        <v>939</v>
+      </c>
+      <c r="F108" t="s">
+        <v>940</v>
+      </c>
+      <c r="G108" t="s">
+        <v>941</v>
+      </c>
+      <c r="H108" t="s">
+        <v>942</v>
+      </c>
+      <c r="I108" t="s">
+        <v>943</v>
+      </c>
+      <c r="J108" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A109" t="s">
+        <v>893</v>
+      </c>
+      <c r="B109">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>945</v>
+      </c>
+      <c r="D109" t="s">
+        <v>946</v>
+      </c>
+      <c r="F109" t="s">
+        <v>947</v>
+      </c>
+      <c r="G109" t="s">
+        <v>948</v>
+      </c>
+      <c r="H109" t="s">
+        <v>458</v>
+      </c>
+      <c r="I109" t="s">
+        <v>949</v>
+      </c>
+      <c r="J109" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A110" t="s">
+        <v>893</v>
+      </c>
+      <c r="B110">
         <v>10</v>
       </c>
-      <c r="C108" t="s">
-        <v>970</v>
-      </c>
-      <c r="D108" t="s">
-        <v>971</v>
-      </c>
-      <c r="F108" t="s">
-        <v>961</v>
-      </c>
-      <c r="G108" t="s">
-        <v>962</v>
-      </c>
-      <c r="H108" t="s">
-        <v>963</v>
-      </c>
-      <c r="I108" t="s">
-        <v>964</v>
-      </c>
-      <c r="J108" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A109" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="B109" s="2">
-        <v>1</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D109" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="J109" s="2" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A110" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="B110" s="2">
-        <v>2</v>
-      </c>
       <c r="C110" t="s">
-        <v>1006</v>
+        <v>959</v>
       </c>
       <c r="D110" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F110" s="2" t="s">
-        <v>990</v>
+        <v>960</v>
+      </c>
+      <c r="F110" t="s">
+        <v>950</v>
       </c>
       <c r="G110" t="s">
-        <v>991</v>
-      </c>
-      <c r="H110" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="I110" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="J110" s="2">
-        <v>1949</v>
+        <v>951</v>
+      </c>
+      <c r="H110" t="s">
+        <v>952</v>
+      </c>
+      <c r="I110" t="s">
+        <v>953</v>
+      </c>
+      <c r="J110" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="B111" s="2">
-        <v>3</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>1009</v>
+        <v>1</v>
+      </c>
+      <c r="C111" t="s">
+        <v>992</v>
+      </c>
+      <c r="D111" t="s">
+        <v>993</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>994</v>
+        <v>973</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>995</v>
+        <v>974</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>996</v>
+        <v>975</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>997</v>
+        <v>976</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>998</v>
+        <v>977</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B112" s="2">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>994</v>
+      </c>
+      <c r="D112" t="s">
+        <v>995</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="G112" t="s">
+        <v>979</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="I112" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="B112" s="2">
-        <v>4</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F112" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="G112" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="J112" s="2" t="s">
-        <v>1003</v>
+      <c r="J112" s="2">
+        <v>1949</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>981</v>
+        <v>969</v>
       </c>
       <c r="B113" s="2">
+        <v>3</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A114" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B114" s="2">
+        <v>4</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A115" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="B115" s="2">
         <v>5</v>
       </c>
-      <c r="C113" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G113" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="I113" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>1018</v>
+      <c r="C115" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I115" t="s">
+        <v>1005</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>1006</v>
       </c>
     </row>
   </sheetData>
@@ -7597,8 +7710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B9CE32-7434-4EBC-8E6B-DB471C0DA13A}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:D31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.6640625" defaultRowHeight="13.2"/>
@@ -7611,730 +7724,730 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4">
       <c r="A9" s="8" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>511</v>
+        <v>500</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>512</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>513</v>
+        <v>502</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>515</v>
+        <v>504</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>516</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>520</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>521</v>
+        <v>510</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4">
       <c r="A20" s="8" t="s">
-        <v>525</v>
+        <v>514</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>528</v>
+        <v>517</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>531</v>
+        <v>520</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>532</v>
+        <v>521</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4">
       <c r="A28" s="8" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="8" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -8360,296 +8473,296 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="26.4">
       <c r="A2" s="8" t="s">
-        <v>697</v>
+        <v>686</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>699</v>
+        <v>688</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.4">
       <c r="A4" s="8" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.4">
       <c r="A5" s="8" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4">
       <c r="A6" s="8" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4">
       <c r="A7" s="8" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>722</v>
+        <v>711</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>724</v>
+        <v>713</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4">
       <c r="A9" s="8" t="s">
-        <v>725</v>
+        <v>714</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>726</v>
+        <v>715</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>727</v>
+        <v>716</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>728</v>
+        <v>717</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4">
       <c r="A10" s="8" t="s">
-        <v>729</v>
+        <v>718</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>730</v>
+        <v>719</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4">
       <c r="A11" s="8" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4">
       <c r="A12" s="8" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>739</v>
+        <v>728</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>741</v>
+        <v>730</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4">
       <c r="A14" s="8" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>745</v>
+        <v>734</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4">
       <c r="A15" s="8" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>750</v>
+        <v>739</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4">
       <c r="A16" s="8" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>752</v>
+        <v>741</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>753</v>
+        <v>742</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>754</v>
+        <v>743</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4">
       <c r="A17" s="8" t="s">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>756</v>
+        <v>745</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>757</v>
+        <v>746</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4">
       <c r="A18" s="8" t="s">
-        <v>758</v>
+        <v>747</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>760</v>
+        <v>749</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>761</v>
+        <v>750</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4">
       <c r="A19" s="8" t="s">
-        <v>762</v>
+        <v>751</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>763</v>
+        <v>752</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>764</v>
+        <v>753</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>765</v>
+        <v>754</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>766</v>
+        <v>755</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4">
       <c r="A21" s="8" t="s">
-        <v>767</v>
+        <v>756</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>770</v>
+        <v>759</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEACD7D5-9EAD-45CB-98A4-AD527853E45A}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9284375-97CC-47D8-A6C2-71535123E84A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4250,9 +4250,9 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4605,7 +4605,7 @@
         <v>1011</v>
       </c>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>1019</v>
@@ -4637,7 +4637,7 @@
         <v>1013</v>
       </c>
       <c r="E13" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>1024</v>
@@ -4669,7 +4669,7 @@
         <v>1015</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>1029</v>
@@ -4701,7 +4701,7 @@
         <v>1017</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>1030</v>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9284375-97CC-47D8-A6C2-71535123E84A}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAE4B7A2-CB8F-43EC-AB57-AF5E7E0BA0CC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">tasks!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1050,70 +1063,42 @@
     <t>bp1-titka</t>
   </si>
   <si>
-    <t>Mysti és a BudapestOne Irodaház Rejtélye</t>
-  </si>
-  <si>
     <t>47.46495523756118</t>
   </si>
   <si>
     <t>19.01540374584782</t>
   </si>
   <si>
-    <t>A csatornafedél üzenete (nyugati sarok)
-Mysti az épület sarka felé szaladt, ahol egy kerek, fémből készült csatornafedél pihent a járdán. A napfény visszaverődött róla, és a cica észrevett rajta számokat, betűket.</t>
-  </si>
-  <si>
     <t>47.46474150078843</t>
   </si>
   <si>
     <t>19.01506999015164</t>
   </si>
   <si>
-    <t>A csatorna fedél tetején található számjegyek összege.</t>
-  </si>
-  <si>
     <t>A növények között keresd</t>
   </si>
   <si>
     <t>EN 124-el kezdődik</t>
   </si>
   <si>
-    <t>A szellőző rács titka
-A másik saroknál a földbe süllyesztett szellőzőrács halkan zümmögött. Mysti kíváncsian megszámolta a kis lyukakat – de gyorsan elvesztette a fonalat, mert túl sok volt.</t>
-  </si>
-  <si>
     <t>47.46427385257778</t>
   </si>
   <si>
     <t>19.016141466314537</t>
   </si>
   <si>
-    <t>Vajon hány teljes négyzet alakú lyuk van a rövidebbik oldalon?</t>
-  </si>
-  <si>
     <t>Csak a teljes négyzeteket számold, több mint 50.</t>
   </si>
   <si>
     <t>Kevesebb mint 55</t>
   </si>
   <si>
-    <t>A biciklitárolók rejtélye (déli sarok)
-A következő sarkon egy hosszú sor fekete biciklitároló állt katonás rendben. Mysti minden másodikat megérintett a tappancsával, hogy ne számolja el magát.</t>
-  </si>
-  <si>
     <t>18 bicikli tartó van</t>
   </si>
   <si>
     <t>6 kőlapon van kihelyezve</t>
   </si>
   <si>
-    <t>A pad titka (keleti sarok)
-Egy modern fa pad állt a bejárat közelében. Mysti felugrott rá, és minden deszkát megérintett a mancsával – a fából áradó meleg napfény jól esett neki.</t>
-  </si>
-  <si>
-    <t>Mennyi deszkából áll a pad?</t>
-  </si>
-  <si>
     <t>Több mint 50</t>
   </si>
   <si>
@@ -1123,28 +1108,15 @@
     <t>19.01629836266431</t>
   </si>
   <si>
-    <t>Az udvari menedék (belső udvar)
-Mysti végül besurrant az épület belső udvarába. A közepén eső ellen védő tetők álltak, mindegyik fémlábakon. Mysti körbesétálta őket, miközben az utolsó fényes követ kereste.</t>
-  </si>
-  <si>
-    <t>Számold meg, hány lábon állnak az esővédő fedelek összesen!</t>
-  </si>
-  <si>
     <t>Mindegyiknek 3 lába van</t>
   </si>
   <si>
     <t>5 ilyen van össesen.</t>
   </si>
   <si>
-    <t>Amikor Mysti megszámolta az utolsó lábat is, a medálja halványan felizzott. A Budapest ONE hatalmas üvegfalaiban hirtelen saját tükörképét látta – de mintha a háttérben ott suhant volna egy másik narancsszín árnyék is… Talán az egyik testvére? Mysti megállt, dorombolt egyet, és tudta: ez a városi kaland csak a kezdet volt.</t>
-  </si>
-  <si>
     <t>thumbnails\bp1.png</t>
   </si>
   <si>
-    <t>Egy reggel Mysti cica eltévedt a forgalmas városban, és egy hatalmas, üvegfalú épület előtt találta magát. A táblán ez állt: Budapest ONE. A ház szögletes tükörfalaiban a napfény úgy csillant meg, mintha maga az épület is figyelné a külvilágot. Mysti észrevett valamit: négy sarkon és a belső udvarban apró, villanó fényeket látott — talán mindegyik egy újabb nyom a testvérei felé?</t>
-  </si>
-  <si>
     <t>47.4650813734896</t>
   </si>
   <si>
@@ -1155,9 +1127,6 @@
   </si>
   <si>
     <t>19.016727269054062</t>
-  </si>
-  <si>
-    <t>Bicikli tárolók száma osztva a kőlapok számával amin állnak.</t>
   </si>
   <si>
     <t>salata-teszt</t>
@@ -3309,6 +3278,61 @@
   <si>
     <t>Mysti végül visszament a teraszra, és elégedetten nézett körül. Megtalálta a kulcsot, segített a virágnak, megnézte a fészekben a fiókákat, és még a vödör titkát is megfejtette.
 – Ma is sikerült új titkokat felfedezni a ház körül! – dorombolta, majd összegömbölyödött a napfényben és szundítani kezdett. 🌞</t>
+  </si>
+  <si>
+    <t>BudapestOne az üvegfalak titka</t>
+  </si>
+  <si>
+    <t>Az üvegfalak titka
+Egy szürke reggelen egy rejtélyes üzenet érkezett a telefonodra:
+„Ha megfejted az öt nyomot, megtalálod a kulcsot Budapest ONE titkához.”
+A helyszín egy hatalmas, modern üvegépület volt, amelynek tükörfalai a város minden mozdulatát visszaverték.
+Ahogy körbejártad az épületet, apró, villanó fények vezettek egyik saroktól a másikig. Úgy tűnt, valaki — vagy valami — szándékosan hagyta ezeket a nyomokat.
+A feladatod világos volt: fejtsd meg az öt városi rejtélyt, és derítsd ki, mit rejtenek az üvegfalak.</t>
+  </si>
+  <si>
+    <t>A városi kód
+Miután mind az öt számot megfejtetted, valami megváltozott. A tükörfalakban halvány fény futott végig, mintha az épület „felismerte” volna, hogy a kódot feltörték.
+A telefonod új üzenetet jelzett:
+„Jól dolgoztál, nyomozó. Ez csak az első állomás volt.”
+A város tele van titkokkal — és te most már tudod, hol kell keresni őket.</t>
+  </si>
+  <si>
+    <t>A csatornafedél üzenete (nyugati sarok)
+A járda szélén egy nehéz, fémes csatornafedél csillant meg a napfényben. Közelebb hajoltál, és észrevetted, hogy a felületén számjegyek sorakoznak szabályos mintázatban — mintha valaki direkt hagyta volna ott őket.</t>
+  </si>
+  <si>
+    <t>A csatornafedél tetején található számjegyek összege a kulcs az első nyomhoz.</t>
+  </si>
+  <si>
+    <t>A szellőzőrács titka (északi sarok)
+A következő saroknál halk zümmögést hallottál: a földbe süllyesztett szellőzőrács dolgozott csendben. A rács szabályos négyzet alakú nyílásokból állt, de valahogy túl tökéletesen rendezve.</t>
+  </si>
+  <si>
+    <t>Számold meg, hány teljes négyzet alakú lyuk található a rövidebbik oldalon. A válasz a második kód része lesz.</t>
+  </si>
+  <si>
+    <t>A biciklitárolók rejtélye (déli sarok)
+A déli oldalon fekete fém biciklitárolók álltak, egymás mellett, mintha katonás rendben őriznék a bejáratot. Alattuk világosszürke kőlapok sorakoztak.
+Valaki gondosan tervezte meg az elrendezést — és a pontos arány sem lehet véletlen.</t>
+  </si>
+  <si>
+    <t>Add meg a biciklitárolók számát osztva a kőlapok számával, amin állnak. Ez a harmadik nyom száma.</t>
+  </si>
+  <si>
+    <t>A pad titka (keleti sarok)
+A keleti oldalon egy modern, napfényben melegedő fa pad várt. A deszkák tökéletesen illeszkedtek egymáshoz, mintha maga az asztalos is rejtett üzenetet hagyott volna a munkájában.</t>
+  </si>
+  <si>
+    <t>Számold meg, hány deszkából áll a pad. Ez lesz a negyedik szám a rejtvényben.</t>
+  </si>
+  <si>
+    <t>Az udvari menedék (belső udvar)
+Végül az épület belső udvarába értél, ahol fémoszlopokon álló esővédő tetők húzódtak. Minden láb pontosan a helyén, mintha katonás rendben őriznék a titkot.
+A középen egy villanás figyelmeztetett: ez az utolsó jel.</t>
+  </si>
+  <si>
+    <t>Számold meg, hány lábon állnak az esővédő fedelek összesen.</t>
   </si>
 </sst>
 </file>
@@ -3622,9 +3646,9 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3689,10 +3713,10 @@
         <v>301</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>956</v>
+        <v>943</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -3715,13 +3739,13 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -3730,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>665</v>
+        <v>652</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>28</v>
@@ -3739,45 +3763,45 @@
         <v>27</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="13.2">
       <c r="A4" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>963</v>
+        <v>950</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="G4" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="H4" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="K4" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
@@ -3814,13 +3838,13 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -3829,22 +3853,22 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>817</v>
+        <v>804</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>818</v>
+        <v>805</v>
       </c>
       <c r="I6" s="2">
         <v>10</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>816</v>
+        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
@@ -3855,31 +3879,31 @@
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>311</v>
+        <v>1019</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>340</v>
+      <c r="F7" s="5" t="s">
+        <v>1020</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="I7" s="2">
         <v>10</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>338</v>
+      <c r="J7" s="5" t="s">
+        <v>1021</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
@@ -3899,19 +3923,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>1008</v>
+        <v>995</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>1009</v>
+        <v>996</v>
       </c>
       <c r="I8" s="2">
         <v>2</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>304</v>
@@ -3922,7 +3946,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>45</v>
@@ -4079,13 +4103,13 @@
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
@@ -4094,33 +4118,33 @@
         <v>1000</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="I14" s="2">
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>366</v>
+        <v>353</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>367</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
@@ -4129,30 +4153,30 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>685</v>
+        <v>672</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
@@ -4161,30 +4185,30 @@
         <v>1000</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>680</v>
+        <v>667</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>968</v>
+        <v>955</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>970</v>
+        <v>957</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -4193,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>971</v>
+        <v>958</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>182</v>
@@ -4202,10 +4226,10 @@
         <v>183</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>972</v>
+        <v>959</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>1007</v>
+        <v>994</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
@@ -4251,8 +4275,8 @@
   <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56:XFD60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4314,7 +4338,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>90</v>
@@ -4344,19 +4368,19 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="6" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
       <c r="J3" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
@@ -4373,19 +4397,19 @@
         <v>97</v>
       </c>
       <c r="F4" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>873</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>884</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>886</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -4402,7 +4426,7 @@
         <v>99</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>76</v>
@@ -4431,10 +4455,10 @@
         <v>101</v>
       </c>
       <c r="F6" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>875</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>888</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>81</v>
@@ -4460,7 +4484,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>82</v>
@@ -4489,19 +4513,19 @@
         <v>105</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>889</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>890</v>
-      </c>
       <c r="I8" s="3" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -4518,7 +4542,7 @@
         <v>107</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>113</v>
@@ -4547,7 +4571,7 @@
         <v>109</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>67</v>
@@ -4576,7 +4600,7 @@
         <v>111</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>112</v>
@@ -4599,28 +4623,28 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1019</v>
+        <v>1006</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>1020</v>
+        <v>1007</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1022</v>
+        <v>1009</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>1023</v>
+        <v>1010</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1021</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -4631,28 +4655,28 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1012</v>
+        <v>999</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1013</v>
+        <v>1000</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1024</v>
+        <v>1011</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>1025</v>
+        <v>1012</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1026</v>
+        <v>1013</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>1027</v>
+        <v>1014</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1028</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
@@ -4663,28 +4687,28 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1014</v>
+        <v>1001</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1015</v>
+        <v>1002</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1029</v>
+        <v>1016</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -4695,28 +4719,28 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1016</v>
+        <v>1003</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1017</v>
+        <v>1004</v>
       </c>
       <c r="E15" s="2">
         <v>4</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -5888,13 +5912,13 @@
         <v>279</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="J55" s="2">
         <v>10</v>
@@ -5908,25 +5932,25 @@
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E56" s="2">
         <v>10</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>314</v>
+        <v>1022</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>317</v>
+        <v>1023</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J56" s="2">
         <v>16</v>
@@ -5940,25 +5964,25 @@
         <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E57" s="2">
         <v>10</v>
       </c>
       <c r="F57" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="J57" s="2">
         <v>53</v>
@@ -5972,25 +5996,25 @@
         <v>3</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="E58" s="2">
         <v>10</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>326</v>
+        <v>1026</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>345</v>
+        <v>1027</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="J58" s="2">
         <v>3</v>
@@ -6004,25 +6028,25 @@
         <v>4</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="E59" s="2">
         <v>10</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>329</v>
+        <v>1028</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>330</v>
+        <v>1029</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J59" s="2">
         <v>52</v>
@@ -6036,25 +6060,25 @@
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E60" s="2">
         <v>35</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>334</v>
+        <v>1030</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>335</v>
+        <v>1031</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="J60" s="2">
         <v>15</v>
@@ -6062,945 +6086,945 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B62" s="2">
         <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B63" s="2">
         <v>3</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F63" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>370</v>
-      </c>
       <c r="G63" s="2" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="I63" s="2" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B64" s="2">
         <v>4</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F64" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>371</v>
-      </c>
       <c r="G64" s="2" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="I64" s="2" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B65" s="2">
         <v>5</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="I65" s="2" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B66" s="2">
         <v>6</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="G66" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="E67" s="2">
         <v>10</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="I67" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B68" s="2">
         <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="E68" s="2">
         <v>10</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B69" s="2">
         <v>3</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="E69" s="2">
         <v>10</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="I69" s="2" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B70" s="2">
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="E70" s="2">
         <v>5</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="I70" s="2" t="s">
-        <v>435</v>
+        <v>422</v>
       </c>
       <c r="J70" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B71" s="2">
         <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="E71" s="2">
         <v>10</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>437</v>
+        <v>424</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>438</v>
+        <v>425</v>
       </c>
       <c r="I71" s="2" t="s">
-        <v>439</v>
+        <v>426</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D72" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="F72" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="J72" s="8" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B73" s="2">
         <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="D73" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="F73" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="J73" s="8" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B74" s="2">
         <v>3</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="D74" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="F74" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="H74" s="8" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="I74" s="8" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="J74" s="8" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B75" s="2">
         <v>4</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="D75" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="F75" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="J75" s="8" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B76" s="2">
         <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="D76" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="F76" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="I76" s="8" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="J76" s="8" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B77" s="2">
         <v>6</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="D77" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="F77" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="I77" s="8" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="J77" s="8" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B78" s="2">
         <v>7</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="D78" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="F78" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="H78" s="8" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="J78" s="8" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B79" s="2">
         <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="D79" t="s">
+        <v>647</v>
+      </c>
+      <c r="F79" t="s">
         <v>660</v>
       </c>
-      <c r="F79" t="s">
-        <v>673</v>
-      </c>
       <c r="G79" s="8" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B80" s="2">
         <v>9</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D80" t="s">
+        <v>649</v>
+      </c>
+      <c r="F80" t="s">
         <v>661</v>
       </c>
-      <c r="D80" t="s">
-        <v>662</v>
-      </c>
-      <c r="F80" t="s">
-        <v>674</v>
-      </c>
       <c r="G80" s="8" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="I80" s="8" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="J80" s="8" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B81" s="2">
         <v>10</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="D81" t="s">
-        <v>664</v>
+        <v>651</v>
       </c>
       <c r="F81" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="H81" s="8" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="J81" s="8" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B82" s="2">
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>789</v>
+        <v>776</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>790</v>
+        <v>777</v>
       </c>
       <c r="F82" t="s">
-        <v>779</v>
+        <v>766</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>810</v>
+        <v>797</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>811</v>
+        <v>798</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>761</v>
+        <v>748</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B83" s="2">
         <v>2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>791</v>
+        <v>778</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>792</v>
+        <v>779</v>
       </c>
       <c r="F83" t="s">
-        <v>780</v>
+        <v>767</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="I83" s="8" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="J83" s="8" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B84" s="2">
         <v>3</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>793</v>
+        <v>780</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>794</v>
+        <v>781</v>
       </c>
       <c r="F84" t="s">
-        <v>781</v>
+        <v>768</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="H84" s="8" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="I84" s="8" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="J84" s="8" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B85" s="2">
         <v>4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>796</v>
+        <v>783</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>782</v>
+        <v>769</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="J85" s="8" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B86" s="2">
         <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>797</v>
+        <v>784</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>798</v>
+        <v>785</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>783</v>
+        <v>770</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="J86" s="8" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B87" s="2">
         <v>6</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>799</v>
+        <v>786</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>800</v>
+        <v>787</v>
       </c>
       <c r="F87" t="s">
-        <v>784</v>
+        <v>771</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="J87" s="8" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B88" s="2">
         <v>7</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>801</v>
+        <v>788</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>785</v>
+        <v>772</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>764</v>
+        <v>751</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>765</v>
+        <v>752</v>
       </c>
       <c r="I88" s="8" t="s">
-        <v>766</v>
+        <v>753</v>
       </c>
       <c r="J88" s="8" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B89" s="2">
         <v>8</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>803</v>
+        <v>790</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>804</v>
+        <v>791</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>786</v>
+        <v>773</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>809</v>
+        <v>796</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>769</v>
+        <v>756</v>
       </c>
       <c r="J89" s="8" t="s">
-        <v>770</v>
+        <v>757</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B90" s="2">
         <v>9</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>805</v>
+        <v>792</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>806</v>
+        <v>793</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>787</v>
+        <v>774</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>771</v>
+        <v>758</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>772</v>
+        <v>759</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>773</v>
+        <v>760</v>
       </c>
       <c r="J90" s="8" t="s">
-        <v>774</v>
+        <v>761</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="B91" s="2">
         <v>10</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>808</v>
+        <v>795</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>788</v>
+        <v>775</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>776</v>
+        <v>763</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>777</v>
+        <v>764</v>
       </c>
       <c r="J91" s="8" t="s">
-        <v>778</v>
+        <v>765</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>820</v>
+        <v>807</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>821</v>
+        <v>808</v>
       </c>
       <c r="E92" s="2">
         <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>819</v>
+        <v>806</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="J92" s="2">
         <v>4</v>
@@ -7008,63 +7032,63 @@
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B93" s="2">
         <v>2</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="E93" s="2">
         <v>5</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B94" s="2">
         <v>3</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="E94" s="2">
         <v>5</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="J94" s="2">
         <v>11</v>
@@ -7072,22 +7096,22 @@
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B95" s="2">
         <v>4</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="E95" s="2">
         <v>5</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>25</v>
@@ -7096,39 +7120,39 @@
         <v>24</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B96" s="2">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="D96" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="E96" s="2">
         <v>5</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="J96" s="2">
         <v>1763</v>
@@ -7136,31 +7160,31 @@
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B97" s="2">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="D97" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="E97" s="2">
         <v>10</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>966</v>
+        <v>953</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>965</v>
+        <v>952</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="J97" s="2">
         <v>1814</v>
@@ -7168,63 +7192,63 @@
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B98" s="2">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="D98" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="E98" s="2">
         <v>10</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B99" s="2">
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="D99" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="E99" s="2">
         <v>10</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="J99" s="2">
         <v>63</v>
@@ -7232,379 +7256,379 @@
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>812</v>
+        <v>799</v>
       </c>
       <c r="B100" s="2">
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="D100" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="E100" s="2">
         <v>20</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
     </row>
     <row r="101" spans="1:10" customFormat="1" ht="13.2">
       <c r="A101" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
       <c r="D101" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="F101" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="G101" t="s">
-        <v>962</v>
+        <v>949</v>
       </c>
       <c r="H101" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
       <c r="I101" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
       <c r="J101" t="s">
-        <v>904</v>
+        <v>891</v>
       </c>
     </row>
     <row r="102" spans="1:10" customFormat="1" ht="13.2">
       <c r="A102" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>905</v>
+        <v>892</v>
       </c>
       <c r="D102" t="s">
-        <v>906</v>
+        <v>893</v>
       </c>
       <c r="F102" t="s">
-        <v>907</v>
+        <v>894</v>
       </c>
       <c r="G102" t="s">
-        <v>908</v>
+        <v>895</v>
       </c>
       <c r="H102" t="s">
-        <v>909</v>
+        <v>896</v>
       </c>
       <c r="I102" t="s">
-        <v>910</v>
+        <v>897</v>
       </c>
       <c r="J102" t="s">
-        <v>762</v>
+        <v>749</v>
       </c>
     </row>
     <row r="103" spans="1:10" customFormat="1" ht="13.2">
       <c r="A103" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>911</v>
+        <v>898</v>
       </c>
       <c r="D103" t="s">
-        <v>912</v>
+        <v>899</v>
       </c>
       <c r="F103" t="s">
-        <v>913</v>
+        <v>900</v>
       </c>
       <c r="G103" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="H103" t="s">
-        <v>914</v>
+        <v>901</v>
       </c>
       <c r="I103" t="s">
-        <v>915</v>
+        <v>902</v>
       </c>
       <c r="J103" t="s">
-        <v>955</v>
+        <v>942</v>
       </c>
     </row>
     <row r="104" spans="1:10" customFormat="1" ht="13.2">
       <c r="A104" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B104">
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>957</v>
+        <v>944</v>
       </c>
       <c r="D104" t="s">
-        <v>958</v>
+        <v>945</v>
       </c>
       <c r="F104" t="s">
-        <v>916</v>
+        <v>903</v>
       </c>
       <c r="G104" t="s">
-        <v>917</v>
+        <v>904</v>
       </c>
       <c r="H104" t="s">
-        <v>918</v>
+        <v>905</v>
       </c>
       <c r="I104" t="s">
-        <v>919</v>
+        <v>906</v>
       </c>
       <c r="J104" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
     </row>
     <row r="105" spans="1:10" customFormat="1" ht="13.2">
       <c r="A105" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B105">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>920</v>
+        <v>907</v>
       </c>
       <c r="D105" t="s">
-        <v>921</v>
+        <v>908</v>
       </c>
       <c r="F105" t="s">
-        <v>922</v>
+        <v>909</v>
       </c>
       <c r="G105" t="s">
-        <v>923</v>
+        <v>910</v>
       </c>
       <c r="H105" t="s">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="I105" t="s">
-        <v>961</v>
+        <v>948</v>
       </c>
       <c r="J105" t="s">
-        <v>925</v>
+        <v>912</v>
       </c>
     </row>
     <row r="106" spans="1:10" customFormat="1" ht="13.2">
       <c r="A106" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B106">
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>926</v>
+        <v>913</v>
       </c>
       <c r="D106" t="s">
-        <v>927</v>
+        <v>914</v>
       </c>
       <c r="F106" t="s">
-        <v>928</v>
+        <v>915</v>
       </c>
       <c r="G106" t="s">
-        <v>929</v>
+        <v>916</v>
       </c>
       <c r="H106" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="I106" t="s">
-        <v>931</v>
+        <v>918</v>
       </c>
       <c r="J106" t="s">
-        <v>763</v>
+        <v>750</v>
       </c>
     </row>
     <row r="107" spans="1:10" customFormat="1" ht="13.2">
       <c r="A107" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B107">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>932</v>
+        <v>919</v>
       </c>
       <c r="D107" t="s">
-        <v>933</v>
+        <v>920</v>
       </c>
       <c r="F107" t="s">
-        <v>934</v>
+        <v>921</v>
       </c>
       <c r="G107" t="s">
-        <v>935</v>
+        <v>922</v>
       </c>
       <c r="H107" t="s">
-        <v>936</v>
+        <v>923</v>
       </c>
       <c r="I107" t="s">
-        <v>937</v>
+        <v>924</v>
       </c>
       <c r="J107" t="s">
-        <v>767</v>
+        <v>754</v>
       </c>
     </row>
     <row r="108" spans="1:10" customFormat="1" ht="13.2">
       <c r="A108" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B108">
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>938</v>
+        <v>925</v>
       </c>
       <c r="D108" t="s">
-        <v>939</v>
+        <v>926</v>
       </c>
       <c r="F108" t="s">
-        <v>940</v>
+        <v>927</v>
       </c>
       <c r="G108" t="s">
-        <v>941</v>
+        <v>928</v>
       </c>
       <c r="H108" t="s">
-        <v>942</v>
+        <v>929</v>
       </c>
       <c r="I108" t="s">
-        <v>943</v>
+        <v>930</v>
       </c>
       <c r="J108" t="s">
-        <v>944</v>
+        <v>931</v>
       </c>
     </row>
     <row r="109" spans="1:10" customFormat="1" ht="13.2">
       <c r="A109" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B109">
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="D109" t="s">
-        <v>946</v>
+        <v>933</v>
       </c>
       <c r="F109" t="s">
-        <v>947</v>
+        <v>934</v>
       </c>
       <c r="G109" t="s">
-        <v>948</v>
+        <v>935</v>
       </c>
       <c r="H109" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="I109" t="s">
-        <v>949</v>
+        <v>936</v>
       </c>
       <c r="J109" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="110" spans="1:10" customFormat="1" ht="13.2">
       <c r="A110" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B110">
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>959</v>
+        <v>946</v>
       </c>
       <c r="D110" t="s">
-        <v>960</v>
+        <v>947</v>
       </c>
       <c r="F110" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="G110" t="s">
-        <v>951</v>
+        <v>938</v>
       </c>
       <c r="H110" t="s">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="I110" t="s">
-        <v>953</v>
+        <v>940</v>
       </c>
       <c r="J110" t="s">
-        <v>954</v>
+        <v>941</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>992</v>
+        <v>979</v>
       </c>
       <c r="D111" t="s">
-        <v>993</v>
+        <v>980</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>973</v>
+        <v>960</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>974</v>
+        <v>961</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>975</v>
+        <v>962</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>976</v>
+        <v>963</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>977</v>
+        <v>964</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="B112" s="2">
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>994</v>
+        <v>981</v>
       </c>
       <c r="D112" t="s">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>978</v>
+        <v>965</v>
       </c>
       <c r="G112" t="s">
-        <v>979</v>
+        <v>966</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>980</v>
+        <v>967</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>981</v>
+        <v>968</v>
       </c>
       <c r="J112" s="2">
         <v>1949</v>
@@ -7612,89 +7636,89 @@
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="B113" s="2">
         <v>3</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>996</v>
+        <v>983</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>982</v>
+        <v>969</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>984</v>
+        <v>971</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>985</v>
+        <v>972</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>986</v>
+        <v>973</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="B114" s="2">
         <v>4</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>998</v>
+        <v>985</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>999</v>
+        <v>986</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>987</v>
+        <v>974</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>988</v>
+        <v>975</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>989</v>
+        <v>976</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>990</v>
+        <v>977</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>991</v>
+        <v>978</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>969</v>
+        <v>956</v>
       </c>
       <c r="B115" s="2">
         <v>5</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1000</v>
+        <v>987</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1001</v>
+        <v>988</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>1002</v>
+        <v>989</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>1003</v>
+        <v>990</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="I115" t="s">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>1006</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -7724,730 +7748,730 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>451</v>
+        <v>438</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>453</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>457</v>
+        <v>444</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>461</v>
+        <v>448</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>463</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>464</v>
+        <v>451</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4">
       <c r="A9" s="8" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4">
       <c r="A20" s="8" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>529</v>
+        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>533</v>
+        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>540</v>
+        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4">
       <c r="A28" s="8" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>602</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>604</v>
+        <v>591</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="8" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -8473,296 +8497,296 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>446</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="26.4">
       <c r="A2" s="8" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.4">
       <c r="A4" s="8" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.4">
       <c r="A5" s="8" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4">
       <c r="A6" s="8" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>704</v>
+        <v>691</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>705</v>
+        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4">
       <c r="A7" s="8" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>709</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>713</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4">
       <c r="A9" s="8" t="s">
-        <v>714</v>
+        <v>701</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>715</v>
+        <v>702</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>716</v>
+        <v>703</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>717</v>
+        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4">
       <c r="A10" s="8" t="s">
-        <v>718</v>
+        <v>705</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>719</v>
+        <v>706</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>720</v>
+        <v>707</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4">
       <c r="A11" s="8" t="s">
-        <v>721</v>
+        <v>708</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>723</v>
+        <v>710</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>724</v>
+        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4">
       <c r="A12" s="8" t="s">
-        <v>725</v>
+        <v>712</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>726</v>
+        <v>713</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>727</v>
+        <v>714</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>728</v>
+        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>730</v>
+        <v>717</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>731</v>
+        <v>718</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4">
       <c r="A14" s="8" t="s">
-        <v>732</v>
+        <v>719</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4">
       <c r="A15" s="8" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>737</v>
+        <v>724</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4">
       <c r="A16" s="8" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4">
       <c r="A17" s="8" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4">
       <c r="A18" s="8" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4">
       <c r="A19" s="8" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4">
       <c r="A21" s="8" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>759</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAE4B7A2-CB8F-43EC-AB57-AF5E7E0BA0CC}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7631459-6A1E-40B3-AC5F-02D22D9759CE}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -3283,56 +3283,56 @@
     <t>BudapestOne az üvegfalak titka</t>
   </si>
   <si>
-    <t>Az üvegfalak titka
+    <t>A városi kód
+Miután mind az öt számot megfejtetted, valami megváltozott. A tükörfalakban halvány fény futott végig, mintha az épület „felismerte” volna, hogy a kódot feltörték.
+A telefonod új üzenetet jelzett:
+„Jól dolgoztál, nyomozó. Ez csak az első állomás volt.”
+A város tele van titkokkal — és te most már tudod, hol kell keresni őket.</t>
+  </si>
+  <si>
+    <t>A csatornafedél tetején található számjegyek összege a kulcs az első nyomhoz.</t>
+  </si>
+  <si>
+    <t>Számold meg, hány teljes négyzet alakú lyuk található a rövidebbik oldalon. A válasz a második kód része lesz.</t>
+  </si>
+  <si>
+    <t>Add meg a biciklitárolók számát osztva a kőlapok számával, amin állnak. Ez a harmadik nyom száma.</t>
+  </si>
+  <si>
+    <t>Számold meg, hány deszkából áll a pad. Ez lesz a negyedik szám a rejtvényben.</t>
+  </si>
+  <si>
+    <t>Számold meg, hány lábon állnak az esővédő fedelek összesen.</t>
+  </si>
+  <si>
+    <t>A csatornafedél üzenete (nyugati sarok).
+A járda szélén egy nehéz, fémes csatornafedél csillant meg a napfényben. Közelebb hajoltál, és észrevetted, hogy a felületén számjegyek sorakoznak szabályos mintázatban — mintha valaki direkt hagyta volna ott őket.</t>
+  </si>
+  <si>
+    <t>A szellőzőrács titka (déli sarok).
+A következő saroknál halk zümmögést hallottál: a földbe süllyesztett szellőzőrács dolgozott csendben. A rács szabályos négyzet alakú nyílásokból állt, de valahogy túl tökéletesen rendezve.</t>
+  </si>
+  <si>
+    <t>A biciklitárolók rejtélye (déli sarok).
+A déli oldalon fekete fém biciklitárolók álltak, egymás mellett, mintha katonás rendben őriznék a bejáratot. Alattuk világosszürke kőlapok sorakoztak.
+Valaki gondosan tervezte meg az elrendezést — és a pontos arány sem lehet véletlen.</t>
+  </si>
+  <si>
+    <t>A pad titka (keleti sarok).
+A keleti oldalon egy modern, napfényben melegedő fa pad várt. A deszkák tökéletesen illeszkedtek egymáshoz, mintha maga az asztalos is rejtett üzenetet hagyott volna a munkájában.</t>
+  </si>
+  <si>
+    <t>Az udvari menedék (belső udvar).
+Végül az épület belső udvarába értél, ahol fémoszlopokon álló esővédő tetők húzódtak. Minden láb pontosan a helyén, mintha katonás rendben őriznék a titkot.
+A középen egy villanás figyelmeztetett: ez az utolsó jel.</t>
+  </si>
+  <si>
+    <t>Az üvegfalak titka. 
 Egy szürke reggelen egy rejtélyes üzenet érkezett a telefonodra:
 „Ha megfejted az öt nyomot, megtalálod a kulcsot Budapest ONE titkához.”
 A helyszín egy hatalmas, modern üvegépület volt, amelynek tükörfalai a város minden mozdulatát visszaverték.
 Ahogy körbejártad az épületet, apró, villanó fények vezettek egyik saroktól a másikig. Úgy tűnt, valaki — vagy valami — szándékosan hagyta ezeket a nyomokat.
 A feladatod világos volt: fejtsd meg az öt városi rejtélyt, és derítsd ki, mit rejtenek az üvegfalak.</t>
-  </si>
-  <si>
-    <t>A városi kód
-Miután mind az öt számot megfejtetted, valami megváltozott. A tükörfalakban halvány fény futott végig, mintha az épület „felismerte” volna, hogy a kódot feltörték.
-A telefonod új üzenetet jelzett:
-„Jól dolgoztál, nyomozó. Ez csak az első állomás volt.”
-A város tele van titkokkal — és te most már tudod, hol kell keresni őket.</t>
-  </si>
-  <si>
-    <t>A csatornafedél üzenete (nyugati sarok)
-A járda szélén egy nehéz, fémes csatornafedél csillant meg a napfényben. Közelebb hajoltál, és észrevetted, hogy a felületén számjegyek sorakoznak szabályos mintázatban — mintha valaki direkt hagyta volna ott őket.</t>
-  </si>
-  <si>
-    <t>A csatornafedél tetején található számjegyek összege a kulcs az első nyomhoz.</t>
-  </si>
-  <si>
-    <t>A szellőzőrács titka (északi sarok)
-A következő saroknál halk zümmögést hallottál: a földbe süllyesztett szellőzőrács dolgozott csendben. A rács szabályos négyzet alakú nyílásokból állt, de valahogy túl tökéletesen rendezve.</t>
-  </si>
-  <si>
-    <t>Számold meg, hány teljes négyzet alakú lyuk található a rövidebbik oldalon. A válasz a második kód része lesz.</t>
-  </si>
-  <si>
-    <t>A biciklitárolók rejtélye (déli sarok)
-A déli oldalon fekete fém biciklitárolók álltak, egymás mellett, mintha katonás rendben őriznék a bejáratot. Alattuk világosszürke kőlapok sorakoztak.
-Valaki gondosan tervezte meg az elrendezést — és a pontos arány sem lehet véletlen.</t>
-  </si>
-  <si>
-    <t>Add meg a biciklitárolók számát osztva a kőlapok számával, amin állnak. Ez a harmadik nyom száma.</t>
-  </si>
-  <si>
-    <t>A pad titka (keleti sarok)
-A keleti oldalon egy modern, napfényben melegedő fa pad várt. A deszkák tökéletesen illeszkedtek egymáshoz, mintha maga az asztalos is rejtett üzenetet hagyott volna a munkájában.</t>
-  </si>
-  <si>
-    <t>Számold meg, hány deszkából áll a pad. Ez lesz a negyedik szám a rejtvényben.</t>
-  </si>
-  <si>
-    <t>Az udvari menedék (belső udvar)
-Végül az épület belső udvarába értél, ahol fémoszlopokon álló esővédő tetők húzódtak. Minden láb pontosan a helyén, mintha katonás rendben őriznék a titkot.
-A középen egy villanás figyelmeztetett: ez az utolsó jel.</t>
-  </si>
-  <si>
-    <t>Számold meg, hány lábon állnak az esővédő fedelek összesen.</t>
   </si>
 </sst>
 </file>
@@ -3646,7 +3646,7 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1020</v>
+        <v>1031</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>311</v>
@@ -3900,7 +3900,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>328</v>
@@ -4274,7 +4274,7 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A56" sqref="A56:XFD60"/>
     </sheetView>
@@ -5941,10 +5941,10 @@
         <v>10</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>315</v>
@@ -5973,10 +5973,10 @@
         <v>10</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>1024</v>
+        <v>1027</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>319</v>
@@ -6005,10 +6005,10 @@
         <v>10</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>321</v>
@@ -6037,10 +6037,10 @@
         <v>10</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>323</v>
@@ -6072,7 +6072,7 @@
         <v>1030</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>326</v>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7631459-6A1E-40B3-AC5F-02D22D9759CE}"/>
+  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20B195E1-482D-49E9-8E1A-93751046DFAC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -981,9 +981,6 @@
     <t>C = 100, L = 50</t>
   </si>
   <si>
-    <t>Az iskola hivatalos e-mail címánek a 10. betűje a következő kód.</t>
-  </si>
-  <si>
     <t>U</t>
   </si>
   <si>
@@ -3333,6 +3330,9 @@
 A helyszín egy hatalmas, modern üvegépület volt, amelynek tükörfalai a város minden mozdulatát visszaverték.
 Ahogy körbejártad az épületet, apró, villanó fények vezettek egyik saroktól a másikig. Úgy tűnt, valaki — vagy valami — szándékosan hagyta ezeket a nyomokat.
 A feladatod világos volt: fejtsd meg az öt városi rejtélyt, és derítsd ki, mit rejtenek az üvegfalak.</t>
+  </si>
+  <si>
+    <t>Az iskola hivatalos e-mail címének a 10. betűje a következő kód.</t>
   </si>
 </sst>
 </file>
@@ -3646,9 +3646,9 @@
   </sheetPr>
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7:XFD7"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3710,13 +3710,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -3734,18 +3734,18 @@
         <v>66</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>28</v>
@@ -3763,45 +3763,45 @@
         <v>27</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>663</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="13.2">
       <c r="A4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4" t="s">
+        <v>880</v>
+      </c>
+      <c r="G4" t="s">
         <v>881</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>882</v>
-      </c>
-      <c r="H4" t="s">
-        <v>883</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
       </c>
       <c r="J4" t="s">
+        <v>883</v>
+      </c>
+      <c r="K4" t="s">
         <v>884</v>
-      </c>
-      <c r="K4" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
@@ -3809,7 +3809,7 @@
         <v>254</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>255</v>
@@ -3833,18 +3833,18 @@
         <v>259</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>23</v>
@@ -3853,33 +3853,33 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>805</v>
       </c>
       <c r="I6" s="2">
         <v>10</v>
       </c>
       <c r="J6" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -3888,22 +3888,22 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="I7" s="2">
         <v>10</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
@@ -3923,22 +3923,22 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="G8" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>995</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>996</v>
       </c>
       <c r="I8" s="2">
         <v>2</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
@@ -3946,7 +3946,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>45</v>
@@ -3970,7 +3970,7 @@
         <v>49</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
@@ -4002,7 +4002,7 @@
         <v>118</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
@@ -4034,7 +4034,7 @@
         <v>159</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
@@ -4066,7 +4066,7 @@
         <v>184</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
@@ -4098,18 +4098,18 @@
         <v>222</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
       <c r="A14" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
@@ -4118,33 +4118,33 @@
         <v>1000</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="I14" s="2">
         <v>10</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>353</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
@@ -4153,30 +4153,30 @@
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="H15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
@@ -4185,30 +4185,30 @@
         <v>1000</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>671</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>956</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>957</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>182</v>
@@ -4226,10 +4226,10 @@
         <v>183</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
@@ -4274,9 +4274,9 @@
   </sheetPr>
   <dimension ref="A1:J115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56:XFD60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4338,7 +4338,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>90</v>
@@ -4368,19 +4368,19 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G3" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>868</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>870</v>
-      </c>
       <c r="J3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1">
@@ -4397,19 +4397,19 @@
         <v>97</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G4" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>871</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>872</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>873</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -4426,7 +4426,7 @@
         <v>99</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>76</v>
@@ -4455,10 +4455,10 @@
         <v>101</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>81</v>
@@ -4484,7 +4484,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>82</v>
@@ -4513,19 +4513,19 @@
         <v>105</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G8" s="6" t="s">
+        <v>875</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>876</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="I8" s="3" t="s">
         <v>877</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>878</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>879</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -4542,7 +4542,7 @@
         <v>107</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>113</v>
@@ -4571,7 +4571,7 @@
         <v>109</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>67</v>
@@ -4600,7 +4600,7 @@
         <v>111</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>112</v>
@@ -4623,28 +4623,28 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>1006</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>1007</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>1009</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>1010</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>1008</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -4655,28 +4655,28 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>999</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>1000</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>1011</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="3" t="s">
         <v>1012</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="I13" s="3" t="s">
         <v>1013</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>1014</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>1015</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
@@ -4687,28 +4687,28 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>1001</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>1002</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G14" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="I14" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="J14" s="8" t="s">
         <v>526</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
@@ -4719,28 +4719,28 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>1003</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>1004</v>
       </c>
       <c r="E15" s="2">
         <v>4</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G15" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="H15" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="I15" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
@@ -5752,16 +5752,16 @@
         <v>276</v>
       </c>
       <c r="G50" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="I50" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="J50" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="15.75" customHeight="1">
@@ -5784,13 +5784,13 @@
         <v>277</v>
       </c>
       <c r="G51" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H51" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="J51" s="2">
         <v>1989</v>
@@ -5816,13 +5816,13 @@
         <v>275</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="H52" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="J52" s="2">
         <v>10</v>
@@ -5848,13 +5848,13 @@
         <v>280</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H53" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I53" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="J53" s="2">
         <v>2</v>
@@ -5880,16 +5880,16 @@
         <v>274</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H54" s="2">
         <v>1186</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" customHeight="1">
@@ -5912,13 +5912,13 @@
         <v>279</v>
       </c>
       <c r="G55" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="J55" s="2">
         <v>10</v>
@@ -5926,31 +5926,31 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="E56" s="2">
         <v>10</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H56" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I56" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="J56" s="2">
         <v>16</v>
@@ -5958,31 +5958,31 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B57" s="2">
         <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>317</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>318</v>
       </c>
       <c r="E57" s="2">
         <v>10</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="H57" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="I57" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>320</v>
       </c>
       <c r="J57" s="2">
         <v>53</v>
@@ -5990,31 +5990,31 @@
     </row>
     <row r="58" spans="1:10" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B58" s="2">
         <v>3</v>
       </c>
       <c r="C58" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="E58" s="2">
         <v>10</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="H58" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="I58" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="I58" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="J58" s="2">
         <v>3</v>
@@ -6022,31 +6022,31 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B59" s="2">
         <v>4</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="E59" s="2">
         <v>10</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J59" s="2">
         <v>52</v>
@@ -6054,31 +6054,31 @@
     </row>
     <row r="60" spans="1:10" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B60" s="2">
         <v>5</v>
       </c>
       <c r="C60" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="E60" s="2">
         <v>35</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="H60" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="I60" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="I60" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="J60" s="2">
         <v>15</v>
@@ -6086,945 +6086,945 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B61" s="2">
         <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="F61" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G61" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="I61" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B62" s="2">
         <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>342</v>
-      </c>
       <c r="F62" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G62" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>363</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B63" s="2">
         <v>3</v>
       </c>
       <c r="C63" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D63" s="2" t="s">
-        <v>344</v>
-      </c>
       <c r="F63" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="J63" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B64" s="2">
         <v>4</v>
       </c>
       <c r="C64" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>346</v>
-      </c>
       <c r="F64" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="I64" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B65" s="2">
         <v>5</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>348</v>
-      </c>
       <c r="F65" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G65" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="I65" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="J65" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B66" s="2">
         <v>6</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>350</v>
-      </c>
       <c r="F66" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H66" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="I66" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="J66" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="15.75" customHeight="1">
       <c r="A67" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B67" s="2">
         <v>1</v>
       </c>
       <c r="C67" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="E67" s="2">
         <v>10</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="H67" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" t="s">
         <v>409</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="15.75" customHeight="1">
       <c r="A68" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B68" s="2">
         <v>2</v>
       </c>
       <c r="C68" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="E68" s="2">
         <v>10</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H68" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="I68" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="J68" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" customHeight="1">
       <c r="A69" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B69" s="2">
         <v>3</v>
       </c>
       <c r="C69" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="E69" s="2">
         <v>10</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G69" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="J69" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="15.75" customHeight="1">
       <c r="A70" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B70" s="2">
         <v>4</v>
       </c>
       <c r="C70" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>403</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>404</v>
       </c>
       <c r="E70" s="2">
         <v>5</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G70" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H70" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="J70" t="s">
         <v>422</v>
-      </c>
-      <c r="J70" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="15.75" customHeight="1">
       <c r="A71" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B71" s="2">
         <v>5</v>
       </c>
       <c r="C71" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="E71" s="2">
         <v>10</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G71" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="H71" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="15.75" customHeight="1">
       <c r="A72" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B72" s="2">
         <v>1</v>
       </c>
       <c r="C72" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="D72" t="s">
         <v>632</v>
       </c>
-      <c r="D72" t="s">
-        <v>633</v>
-      </c>
       <c r="F72" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G72" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="H72" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="H72" s="8" t="s">
+      <c r="I72" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="I72" s="8" t="s">
-        <v>436</v>
-      </c>
       <c r="J72" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B73" s="2">
         <v>2</v>
       </c>
       <c r="C73" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="D73" t="s">
         <v>634</v>
       </c>
-      <c r="D73" t="s">
-        <v>635</v>
-      </c>
       <c r="F73" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G73" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="H73" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="H73" s="8" t="s">
+      <c r="I73" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="I73" s="8" t="s">
-        <v>439</v>
-      </c>
       <c r="J73" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="15.75" customHeight="1">
       <c r="A74" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B74" s="2">
         <v>3</v>
       </c>
       <c r="C74" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="D74" t="s">
         <v>636</v>
       </c>
-      <c r="D74" t="s">
-        <v>637</v>
-      </c>
       <c r="F74" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G74" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="H74" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="I74" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="I74" s="8" t="s">
-        <v>443</v>
-      </c>
       <c r="J74" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="15.75" customHeight="1">
       <c r="A75" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B75" s="2">
         <v>4</v>
       </c>
       <c r="C75" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="D75" t="s">
         <v>638</v>
       </c>
-      <c r="D75" t="s">
-        <v>639</v>
-      </c>
       <c r="F75" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G75" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="H75" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="I75" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="I75" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="J75" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B76" s="2">
         <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="D76" t="s">
         <v>640</v>
       </c>
-      <c r="D76" t="s">
-        <v>641</v>
-      </c>
       <c r="F76" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G76" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="H76" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="I76" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="I76" s="8" t="s">
-        <v>449</v>
-      </c>
       <c r="J76" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="15.75" customHeight="1">
       <c r="A77" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B77" s="2">
         <v>6</v>
       </c>
       <c r="C77" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D77" t="s">
         <v>642</v>
       </c>
-      <c r="D77" t="s">
-        <v>643</v>
-      </c>
       <c r="F77" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G77" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="H77" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="H77" s="8" t="s">
+      <c r="I77" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="J77" s="8" t="s">
         <v>453</v>
-      </c>
-      <c r="J77" s="8" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="15.75" customHeight="1">
       <c r="A78" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B78" s="2">
         <v>7</v>
       </c>
       <c r="C78" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="D78" t="s">
         <v>644</v>
       </c>
-      <c r="D78" t="s">
-        <v>645</v>
-      </c>
       <c r="F78" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G78" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="H78" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="H78" s="8" t="s">
+      <c r="I78" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="I78" s="8" t="s">
+      <c r="J78" s="8" t="s">
         <v>457</v>
-      </c>
-      <c r="J78" s="8" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="15.75" customHeight="1">
       <c r="A79" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B79" s="2">
         <v>8</v>
       </c>
       <c r="C79" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="D79" t="s">
         <v>646</v>
       </c>
-      <c r="D79" t="s">
-        <v>647</v>
-      </c>
       <c r="F79" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G79" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="H79" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="H79" s="8" t="s">
+      <c r="I79" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="I79" s="8" t="s">
+      <c r="J79" s="8" t="s">
         <v>538</v>
-      </c>
-      <c r="J79" s="8" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75" customHeight="1">
       <c r="A80" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B80" s="2">
         <v>9</v>
       </c>
       <c r="C80" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D80" t="s">
         <v>648</v>
       </c>
-      <c r="D80" t="s">
-        <v>649</v>
-      </c>
       <c r="F80" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G80" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="H80" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="H80" s="8" t="s">
+      <c r="I80" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="I80" s="8" t="s">
+      <c r="J80" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="J80" s="8" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1">
       <c r="A81" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B81" s="2">
         <v>10</v>
       </c>
       <c r="C81" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D81" t="s">
         <v>650</v>
       </c>
-      <c r="D81" t="s">
-        <v>651</v>
-      </c>
       <c r="F81" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G81" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="H81" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="H81" s="8" t="s">
+      <c r="I81" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="I81" s="8" t="s">
+      <c r="J81" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="J81" s="8" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="15.75" customHeight="1">
       <c r="A82" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B82" s="2">
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>777</v>
-      </c>
       <c r="F82" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G82" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="H82" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="I82" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="J82" s="8" t="s">
         <v>747</v>
-      </c>
-      <c r="H82" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="I82" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="J82" s="8" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15.75" customHeight="1">
       <c r="A83" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B83" s="2">
         <v>2</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="D83" s="2" t="s">
-        <v>779</v>
-      </c>
       <c r="F83" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G83" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="H83" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="H83" s="8" t="s">
+      <c r="I83" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="I83" s="8" t="s">
-        <v>687</v>
-      </c>
       <c r="J83" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="15.75" customHeight="1">
       <c r="A84" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B84" s="2">
         <v>3</v>
       </c>
       <c r="C84" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="D84" s="2" t="s">
-        <v>781</v>
-      </c>
       <c r="F84" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G84" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="H84" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="H84" s="8" t="s">
+      <c r="I84" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="J84" s="8" t="s">
         <v>699</v>
-      </c>
-      <c r="J84" s="8" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="15.75" customHeight="1">
       <c r="A85" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B85" s="2">
         <v>4</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="D85" s="2" t="s">
-        <v>783</v>
-      </c>
       <c r="F85" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G85" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="H85" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="I85" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="I85" s="8" t="s">
+      <c r="J85" s="8" t="s">
         <v>710</v>
-      </c>
-      <c r="J85" s="8" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="15.75" customHeight="1">
       <c r="A86" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B86" s="2">
         <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>785</v>
-      </c>
       <c r="F86" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G86" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="H86" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="H86" s="8" t="s">
+      <c r="I86" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="I86" s="8" t="s">
+      <c r="J86" s="8" t="s">
         <v>725</v>
-      </c>
-      <c r="J86" s="8" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="15.75" customHeight="1">
       <c r="A87" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B87" s="2">
         <v>6</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="D87" s="2" t="s">
-        <v>787</v>
-      </c>
       <c r="F87" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G87" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="H87" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="H87" s="8" t="s">
+      <c r="I87" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="I87" s="8" t="s">
-        <v>691</v>
-      </c>
       <c r="J87" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="15.75" customHeight="1">
       <c r="A88" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B88" s="2">
         <v>7</v>
       </c>
       <c r="C88" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="D88" s="2" t="s">
-        <v>789</v>
-      </c>
       <c r="F88" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G88" s="8" t="s">
+        <v>750</v>
+      </c>
+      <c r="H88" s="8" t="s">
         <v>751</v>
       </c>
-      <c r="H88" s="8" t="s">
+      <c r="I88" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="J88" s="8" t="s">
         <v>753</v>
-      </c>
-      <c r="J88" s="8" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="15.75" customHeight="1">
       <c r="A89" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B89" s="2">
         <v>8</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="D89" s="2" t="s">
-        <v>791</v>
-      </c>
       <c r="F89" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H89" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="I89" s="8" t="s">
         <v>755</v>
       </c>
-      <c r="I89" s="8" t="s">
+      <c r="J89" s="8" t="s">
         <v>756</v>
-      </c>
-      <c r="J89" s="8" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15.75" customHeight="1">
       <c r="A90" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B90" s="2">
         <v>9</v>
       </c>
       <c r="C90" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="D90" s="2" t="s">
-        <v>793</v>
-      </c>
       <c r="F90" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G90" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="H90" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="H90" s="8" t="s">
+      <c r="I90" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="I90" s="8" t="s">
+      <c r="J90" s="8" t="s">
         <v>760</v>
-      </c>
-      <c r="J90" s="8" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="15.75" customHeight="1">
       <c r="A91" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B91" s="2">
         <v>10</v>
       </c>
       <c r="C91" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="D91" s="2" t="s">
-        <v>795</v>
-      </c>
       <c r="F91" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G91" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="H91" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="H91" s="8" t="s">
+      <c r="I91" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="J91" s="8" t="s">
         <v>764</v>
-      </c>
-      <c r="J91" s="8" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
       </c>
       <c r="C92" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="E92" s="2">
         <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H92" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="I92" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="I92" s="2" t="s">
-        <v>857</v>
       </c>
       <c r="J92" s="2">
         <v>4</v>
@@ -7032,63 +7032,63 @@
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B93" s="2">
         <v>2</v>
       </c>
       <c r="C93" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>810</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>811</v>
       </c>
       <c r="E93" s="2">
         <v>5</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="G93" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="I93" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="J93" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="H93" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="I93" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>813</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B94" s="2">
         <v>3</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E94" s="2">
         <v>5</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J94" s="2">
         <v>11</v>
@@ -7096,22 +7096,22 @@
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B95" s="2">
         <v>4</v>
       </c>
       <c r="C95" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>816</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>817</v>
       </c>
       <c r="E95" s="2">
         <v>5</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>25</v>
@@ -7120,39 +7120,39 @@
         <v>24</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B96" s="2">
         <v>5</v>
       </c>
       <c r="C96" t="s">
+        <v>824</v>
+      </c>
+      <c r="D96" t="s">
         <v>825</v>
-      </c>
-      <c r="D96" t="s">
-        <v>826</v>
       </c>
       <c r="E96" s="2">
         <v>5</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J96" s="2">
         <v>1763</v>
@@ -7160,31 +7160,31 @@
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B97" s="2">
         <v>6</v>
       </c>
       <c r="C97" t="s">
+        <v>829</v>
+      </c>
+      <c r="D97" t="s">
         <v>830</v>
-      </c>
-      <c r="D97" t="s">
-        <v>831</v>
       </c>
       <c r="E97" s="2">
         <v>10</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="H97" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="I97" s="2" t="s">
         <v>828</v>
-      </c>
-      <c r="I97" s="2" t="s">
-        <v>829</v>
       </c>
       <c r="J97" s="2">
         <v>1814</v>
@@ -7192,63 +7192,63 @@
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B98" s="2">
         <v>7</v>
       </c>
       <c r="C98" t="s">
+        <v>831</v>
+      </c>
+      <c r="D98" t="s">
         <v>832</v>
-      </c>
-      <c r="D98" t="s">
-        <v>833</v>
       </c>
       <c r="E98" s="2">
         <v>10</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G98" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="H98" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="I98" s="2" t="s">
-        <v>837</v>
-      </c>
       <c r="J98" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B99" s="2">
         <v>8</v>
       </c>
       <c r="C99" t="s">
+        <v>837</v>
+      </c>
+      <c r="D99" t="s">
         <v>838</v>
-      </c>
-      <c r="D99" t="s">
-        <v>839</v>
       </c>
       <c r="E99" s="2">
         <v>10</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="G99" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="H99" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="H99" s="2" t="s">
+      <c r="I99" s="2" t="s">
         <v>841</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>842</v>
       </c>
       <c r="J99" s="2">
         <v>63</v>
@@ -7256,379 +7256,379 @@
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B100" s="2">
         <v>9</v>
       </c>
       <c r="C100" t="s">
+        <v>842</v>
+      </c>
+      <c r="D100" t="s">
         <v>843</v>
-      </c>
-      <c r="D100" t="s">
-        <v>844</v>
       </c>
       <c r="E100" s="2">
         <v>20</v>
       </c>
       <c r="F100" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="J100" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>847</v>
       </c>
     </row>
     <row r="101" spans="1:10" customFormat="1" ht="13.2">
       <c r="A101" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
+        <v>885</v>
+      </c>
+      <c r="D101" t="s">
         <v>886</v>
       </c>
-      <c r="D101" t="s">
+      <c r="F101" t="s">
         <v>887</v>
       </c>
-      <c r="F101" t="s">
+      <c r="G101" t="s">
+        <v>948</v>
+      </c>
+      <c r="H101" t="s">
         <v>888</v>
       </c>
-      <c r="G101" t="s">
-        <v>949</v>
-      </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>889</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>890</v>
-      </c>
-      <c r="J101" t="s">
-        <v>891</v>
       </c>
     </row>
     <row r="102" spans="1:10" customFormat="1" ht="13.2">
       <c r="A102" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102" t="s">
+        <v>891</v>
+      </c>
+      <c r="D102" t="s">
         <v>892</v>
       </c>
-      <c r="D102" t="s">
+      <c r="F102" t="s">
         <v>893</v>
       </c>
-      <c r="F102" t="s">
+      <c r="G102" t="s">
         <v>894</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>895</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>896</v>
       </c>
-      <c r="I102" t="s">
-        <v>897</v>
-      </c>
       <c r="J102" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="103" spans="1:10" customFormat="1" ht="13.2">
       <c r="A103" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
       <c r="C103" t="s">
+        <v>897</v>
+      </c>
+      <c r="D103" t="s">
         <v>898</v>
       </c>
-      <c r="D103" t="s">
+      <c r="F103" t="s">
         <v>899</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
+        <v>696</v>
+      </c>
+      <c r="H103" t="s">
         <v>900</v>
       </c>
-      <c r="G103" t="s">
-        <v>697</v>
-      </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>901</v>
       </c>
-      <c r="I103" t="s">
-        <v>902</v>
-      </c>
       <c r="J103" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="104" spans="1:10" customFormat="1" ht="13.2">
       <c r="A104" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B104">
         <v>4</v>
       </c>
       <c r="C104" t="s">
+        <v>943</v>
+      </c>
+      <c r="D104" t="s">
         <v>944</v>
       </c>
-      <c r="D104" t="s">
-        <v>945</v>
-      </c>
       <c r="F104" t="s">
+        <v>902</v>
+      </c>
+      <c r="G104" t="s">
         <v>903</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>904</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>905</v>
       </c>
-      <c r="I104" t="s">
-        <v>906</v>
-      </c>
       <c r="J104" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="105" spans="1:10" customFormat="1" ht="13.2">
       <c r="A105" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B105">
         <v>5</v>
       </c>
       <c r="C105" t="s">
+        <v>906</v>
+      </c>
+      <c r="D105" t="s">
         <v>907</v>
       </c>
-      <c r="D105" t="s">
+      <c r="F105" t="s">
         <v>908</v>
       </c>
-      <c r="F105" t="s">
+      <c r="G105" t="s">
         <v>909</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>910</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
+        <v>947</v>
+      </c>
+      <c r="J105" t="s">
         <v>911</v>
-      </c>
-      <c r="I105" t="s">
-        <v>948</v>
-      </c>
-      <c r="J105" t="s">
-        <v>912</v>
       </c>
     </row>
     <row r="106" spans="1:10" customFormat="1" ht="13.2">
       <c r="A106" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B106">
         <v>6</v>
       </c>
       <c r="C106" t="s">
+        <v>912</v>
+      </c>
+      <c r="D106" t="s">
         <v>913</v>
       </c>
-      <c r="D106" t="s">
+      <c r="F106" t="s">
         <v>914</v>
       </c>
-      <c r="F106" t="s">
+      <c r="G106" t="s">
         <v>915</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>916</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>917</v>
       </c>
-      <c r="I106" t="s">
-        <v>918</v>
-      </c>
       <c r="J106" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="107" spans="1:10" customFormat="1" ht="13.2">
       <c r="A107" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B107">
         <v>7</v>
       </c>
       <c r="C107" t="s">
+        <v>918</v>
+      </c>
+      <c r="D107" t="s">
         <v>919</v>
       </c>
-      <c r="D107" t="s">
+      <c r="F107" t="s">
         <v>920</v>
       </c>
-      <c r="F107" t="s">
+      <c r="G107" t="s">
         <v>921</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>922</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>923</v>
       </c>
-      <c r="I107" t="s">
-        <v>924</v>
-      </c>
       <c r="J107" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="108" spans="1:10" customFormat="1" ht="13.2">
       <c r="A108" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B108">
         <v>8</v>
       </c>
       <c r="C108" t="s">
+        <v>924</v>
+      </c>
+      <c r="D108" t="s">
         <v>925</v>
       </c>
-      <c r="D108" t="s">
+      <c r="F108" t="s">
         <v>926</v>
       </c>
-      <c r="F108" t="s">
+      <c r="G108" t="s">
         <v>927</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>928</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>929</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>930</v>
-      </c>
-      <c r="J108" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="109" spans="1:10" customFormat="1" ht="13.2">
       <c r="A109" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B109">
         <v>9</v>
       </c>
       <c r="C109" t="s">
+        <v>931</v>
+      </c>
+      <c r="D109" t="s">
         <v>932</v>
       </c>
-      <c r="D109" t="s">
+      <c r="F109" t="s">
         <v>933</v>
       </c>
-      <c r="F109" t="s">
+      <c r="G109" t="s">
         <v>934</v>
       </c>
-      <c r="G109" t="s">
+      <c r="H109" t="s">
+        <v>444</v>
+      </c>
+      <c r="I109" t="s">
         <v>935</v>
       </c>
-      <c r="H109" t="s">
-        <v>445</v>
-      </c>
-      <c r="I109" t="s">
-        <v>936</v>
-      </c>
       <c r="J109" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="110" spans="1:10" customFormat="1" ht="13.2">
       <c r="A110" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B110">
         <v>10</v>
       </c>
       <c r="C110" t="s">
+        <v>945</v>
+      </c>
+      <c r="D110" t="s">
         <v>946</v>
       </c>
-      <c r="D110" t="s">
-        <v>947</v>
-      </c>
       <c r="F110" t="s">
+        <v>936</v>
+      </c>
+      <c r="G110" t="s">
         <v>937</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>938</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>939</v>
       </c>
-      <c r="I110" t="s">
+      <c r="J110" t="s">
         <v>940</v>
-      </c>
-      <c r="J110" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
       </c>
       <c r="C111" t="s">
+        <v>978</v>
+      </c>
+      <c r="D111" t="s">
         <v>979</v>
       </c>
-      <c r="D111" t="s">
-        <v>980</v>
-      </c>
       <c r="F111" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="G111" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="H111" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="J111" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="J111" s="2" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B112" s="2">
         <v>2</v>
       </c>
       <c r="C112" t="s">
+        <v>980</v>
+      </c>
+      <c r="D112" t="s">
         <v>981</v>
       </c>
-      <c r="D112" t="s">
-        <v>982</v>
-      </c>
       <c r="F112" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="G112" t="s">
         <v>965</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="I112" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>968</v>
       </c>
       <c r="J112" s="2">
         <v>1949</v>
@@ -7636,89 +7636,89 @@
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B113" s="2">
         <v>3</v>
       </c>
       <c r="C113" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>984</v>
-      </c>
       <c r="F113" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="G113" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="G113" s="2" t="s">
+      <c r="H113" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="H113" s="2" t="s">
+      <c r="I113" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="I113" s="2" t="s">
+      <c r="J113" s="2" t="s">
         <v>972</v>
-      </c>
-      <c r="J113" s="2" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B114" s="2">
         <v>4</v>
       </c>
       <c r="C114" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="D114" s="2" t="s">
-        <v>986</v>
-      </c>
       <c r="F114" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="G114" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="I114" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="J114" s="2" t="s">
         <v>977</v>
-      </c>
-      <c r="J114" s="2" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B115" s="2">
         <v>5</v>
       </c>
       <c r="C115" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="F115" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="I115" t="s">
         <v>991</v>
       </c>
-      <c r="I115" t="s">
+      <c r="J115" s="2" t="s">
         <v>992</v>
-      </c>
-      <c r="J115" s="2" t="s">
-        <v>993</v>
       </c>
     </row>
   </sheetData>
@@ -7748,730 +7748,730 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>436</v>
-      </c>
       <c r="D2" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>439</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>443</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>446</v>
-      </c>
       <c r="D5" s="8" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>449</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>451</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>453</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>457</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4">
       <c r="A9" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>459</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>460</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>461</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>464</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>465</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>466</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>467</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>469</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>470</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>471</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>473</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>474</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>475</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>477</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>479</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>483</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>487</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>493</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>495</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="26.4">
       <c r="A20" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>503</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>506</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>507</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>509</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>514</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>515</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B24" s="8" t="s">
         <v>517</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>519</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>521</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>522</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="B26" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="C26" s="8" t="s">
         <v>525</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="8" t="s">
         <v>526</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="C27" s="8" t="s">
         <v>529</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="D27" s="8" t="s">
         <v>530</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="26.4">
       <c r="A28" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="8" t="s">
         <v>534</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>536</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="D29" s="8" t="s">
         <v>538</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="D30" s="8" t="s">
         <v>542</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="C31" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="D31" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>548</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>550</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D33" s="8" t="s">
         <v>554</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="B34" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="D34" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
         <v>562</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="B36" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="C36" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D36" s="8" t="s">
         <v>566</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B37" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C37" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="D37" s="8" t="s">
         <v>570</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="D38" s="8" t="s">
         <v>574</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>576</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>577</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
         <v>578</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>582</v>
-      </c>
       <c r="D40" s="8" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>583</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>585</v>
-      </c>
       <c r="D41" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="8" t="s">
         <v>587</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="D42" s="8" t="s">
         <v>588</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>590</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="C43" s="8" t="s">
         <v>591</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="D43" s="8" t="s">
         <v>592</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>594</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>596</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>598</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="C45" s="8" t="s">
         <v>599</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>600</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B46" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="C46" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="8" t="s">
         <v>604</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="D47" s="8" t="s">
         <v>608</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="D48" s="8" t="s">
         <v>612</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>616</v>
-      </c>
       <c r="D49" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="C50" s="8" t="s">
         <v>618</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>619</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="8" t="s">
         <v>622</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>627</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -8497,296 +8497,296 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="26.4">
       <c r="A2" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>675</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>678</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>679</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="26.4">
       <c r="A4" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>682</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>683</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="26.4">
       <c r="A5" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>685</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>686</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>687</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="26.4">
       <c r="A6" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>690</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>691</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4">
       <c r="A7" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>694</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>695</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>697</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>698</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>699</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="26.4">
       <c r="A9" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>701</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>703</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4">
       <c r="A10" s="8" t="s">
+        <v>704</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>707</v>
-      </c>
       <c r="D10" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="26.4">
       <c r="A11" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
         <v>710</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="26.4">
       <c r="A12" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>714</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="B13" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>718</v>
-      </c>
       <c r="D13" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="26.4">
       <c r="A14" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="C14" s="8" t="s">
         <v>720</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>721</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4">
       <c r="A15" s="8" t="s">
+        <v>722</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="8" t="s">
         <v>724</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>725</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="26.4">
       <c r="A16" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D16" s="8" t="s">
         <v>729</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4">
       <c r="A17" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>731</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C17" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>732</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="26.4">
       <c r="A18" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>734</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>736</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="26.4">
       <c r="A19" s="8" t="s">
+        <v>737</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>740</v>
-      </c>
       <c r="D19" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>741</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>742</v>
-      </c>
       <c r="D20" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="26.4">
       <c r="A21" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="C21" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="D21" s="8" t="s">
         <v>745</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>746</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="146" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20B195E1-482D-49E9-8E1A-93751046DFAC}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E86C0D-9A4B-4B61-9FA3-0F6726C208B0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1322" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1052">
   <si>
     <t>id</t>
   </si>
@@ -3333,6 +3333,91 @@
   </si>
   <si>
     <t>Az iskola hivatalos e-mail címének a 10. betűje a következő kód.</t>
+  </si>
+  <si>
+    <t>ecseri</t>
+  </si>
+  <si>
+    <t>Ecseriúti séta</t>
+  </si>
+  <si>
+    <t>🎬 A mozi elkezdődik:
+Egy hűvös őszi estén elindulsz a város egyik parkjának sarkáról egy különleges kalandra — ahol te vagy a főszereplő.
+A telefonodon már ott vár egy MystiGo-játék: 5 állomás, mindegyik egy apró filmes rejtvényt rejt.
+A szabály egyszerű: ha jól válaszolsz, mehet tovább a történet. Ha nem… nos, mint a filmekben, néha újra kell venni a jelenetet. 🎥</t>
+  </si>
+  <si>
+    <t>A játék utolsó pontján egy padon ülve, a város fényei lassan kigyúlnak a távolban.
+A telefon kijelzőjén ez áll: „Gratulálok! A film még csak most kezdődik.” 🌙🎞️</t>
+  </si>
+  <si>
+    <t>thumbnails\ecseri.png</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Az út szélén egy különös fénycsóva villan, mintha lézerkard hasítaná ketté a sötétséget. A levegő vibrál, és egy mély hang szól: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>„Én vagyok az apád.”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Vajon felismered, melyik űreposzban hallottuk ezt először?</t>
+    </r>
+  </si>
+  <si>
+    <t>„Én vagyok az apád” – A Star Wars melyik részében hangzik el ez a híres mondat? Mi a rész címe?</t>
+  </si>
+  <si>
+    <t>A földön bonbonpapírok vezetnek egy padhoz.</t>
+  </si>
+  <si>
+    <t>47.46883833071997</t>
+  </si>
+  <si>
+    <t>19.108197346471446</t>
+  </si>
+  <si>
+    <t>47.46928436357227</t>
+  </si>
+  <si>
+    <t>19.108106151374056</t>
+  </si>
+  <si>
+    <t>47.46988994683366</t>
+  </si>
+  <si>
+    <t>19.108583584530987</t>
+  </si>
+  <si>
+    <t>47.4704084946455</t>
+  </si>
+  <si>
+    <t>19.109055653361576</t>
+  </si>
+  <si>
+    <t>47.47116772303721</t>
+  </si>
+  <si>
+    <t>19.110034232827644</t>
+  </si>
+  <si>
+    <t>47.47144977388295</t>
+  </si>
+  <si>
+    <t>19.109071151454334</t>
   </si>
 </sst>
 </file>
@@ -3648,7 +3733,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4233,13 +4318,36 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="F18" s="6"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>1036</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
@@ -4272,11 +4380,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G77" sqref="G77"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7721,6 +7829,156 @@
         <v>992</v>
       </c>
     </row>
+    <row r="116" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A116" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>796</v>
+      </c>
+      <c r="I116" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="J116" s="8" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A117" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G117" t="s">
+        <v>894</v>
+      </c>
+      <c r="H117" t="s">
+        <v>895</v>
+      </c>
+      <c r="I117" t="s">
+        <v>896</v>
+      </c>
+      <c r="J117" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A118" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F118" t="s">
+        <v>899</v>
+      </c>
+      <c r="G118" t="s">
+        <v>696</v>
+      </c>
+      <c r="H118" t="s">
+        <v>900</v>
+      </c>
+      <c r="I118" t="s">
+        <v>901</v>
+      </c>
+      <c r="J118" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A119" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B119">
+        <v>4</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F119" t="s">
+        <v>902</v>
+      </c>
+      <c r="G119" t="s">
+        <v>903</v>
+      </c>
+      <c r="H119" t="s">
+        <v>904</v>
+      </c>
+      <c r="I119" t="s">
+        <v>905</v>
+      </c>
+      <c r="J119" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" customFormat="1" ht="13.2">
+      <c r="A120" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B120">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F120" t="s">
+        <v>908</v>
+      </c>
+      <c r="G120" t="s">
+        <v>909</v>
+      </c>
+      <c r="H120" t="s">
+        <v>910</v>
+      </c>
+      <c r="I120" t="s">
+        <v>947</v>
+      </c>
+      <c r="J120" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" customFormat="1" ht="13.2"/>
+    <row r="122" spans="1:10" customFormat="1" ht="13.2"/>
+    <row r="123" spans="1:10" customFormat="1" ht="13.2"/>
+    <row r="124" spans="1:10" customFormat="1" ht="13.2"/>
+    <row r="125" spans="1:10" customFormat="1" ht="13.2"/>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21E86C0D-9A4B-4B61-9FA3-0F6726C208B0}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40A6680B-8219-4A9B-931B-F910A0A2847D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1371" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1420" uniqueCount="1092">
   <si>
     <t>id</t>
   </si>
@@ -3418,6 +3418,133 @@
   </si>
   <si>
     <t>19.109071151454334</t>
+  </si>
+  <si>
+    <t>bokaykert-teszt</t>
+  </si>
+  <si>
+    <t>47.43409501504324</t>
+  </si>
+  <si>
+    <t>19.176980647832337</t>
+  </si>
+  <si>
+    <t>thumbnails\bokay.png</t>
+  </si>
+  <si>
+    <t>Mysti cica a Bókay-kertben</t>
+  </si>
+  <si>
+    <t>Egy napsütéses tavasz reggelen Mysti cica új reménnyel és izgalommal lépte át a Bókay-kert kapuját. A medálja halk, csilingelő hangot adott, jelezve, hogy talán új nyomok várnak rá ebben a nagy parkban. Mysti már hosszú ideje keresi elveszett testvéreit, és minden új helyszín egy újabb esélyt jelenthet. A kertben barátságos gyerekzsivaj keveredett madárcsicsergéssel, de Mysti fülét mégis valami más ragadta meg: apró, titokzatos zörejek a bokrok mögül.
+Amikor közelebbről megnézte, csillogó tappancsnyomokat talált a járdán – olyat, amit csak a testvérei hagyhatnak. A cica szíve nagyot dobbant, ahogy megérezte, hogy jó helyen kutakodik. Tudta, hogy minden pont közelebb viszi őt a nagy találkozáshoz. Így kezdődött Mysti új kalandja a Bókay-kertben – tele reménnyel, izgalommal és megoldásra váró titkokkal.</t>
+  </si>
+  <si>
+    <t>Mysti leült a rétesbolt elé, és óvatosan megtapogatta a fénylő szalagdarabot. Érezte rajta a testvérei ismert, meleg illatát – mintha csak néhány perccel korábban hagyhatták volna ott. Bár még mindig nem találta meg őket, egyre biztosabb volt abban, hogy közel jár a nagy felfedezéshez.
+Aznap rájött, hogy minden apró jel egy újabb lépés a családja felé. Az őszi szél a medálját ringatta, mintha csak biztatná: „Folytasd, Mysti, jó úton jársz!” A cica felállt, körbenézett, és elhatározta, hogy másnap újra visszatér – mert ahol ennyi nyom van, ott a testvérei sem lehetnek messze. Mysti így folytatta kalandos útját, tele reménnyel… és egy újabb rejtéllyel, amit meg kell fejtenie.</t>
+  </si>
+  <si>
+    <t>47.43393365969575</t>
+  </si>
+  <si>
+    <t>19.17789455431231</t>
+  </si>
+  <si>
+    <t>47.4349655331677</t>
+  </si>
+  <si>
+    <t>19.17696420204077</t>
+  </si>
+  <si>
+    <t>47.43524724323107</t>
+  </si>
+  <si>
+    <t>19.17706103316563</t>
+  </si>
+  <si>
+    <t>47.43557951071052</t>
+  </si>
+  <si>
+    <t>19.17732577841204</t>
+  </si>
+  <si>
+    <t>47.435862152176384</t>
+  </si>
+  <si>
+    <t>19.17710568897575</t>
+  </si>
+  <si>
+    <t>**Teniszpálya**
+A teniszpálya kerítése mellett egy elgurult teniszlabda állt meg Mysti előtt. A labda furcsán vibrált, mintha frissen mozdították volna el. A cica körbeszimatolt, és újabb finom illatot érzett – pontosan olyat, amilyen a testvérei bundájához tartozott.</t>
+  </si>
+  <si>
+    <t>**Míves Rétes bolt **
+Mire Mysti a rétesbolt elé ért, a bejárat mellett egy apró, csillogó szalagdarabot talált. Pontosan olyan anyagból volt, amilyen a testvérei kis nyakdíszét díszítette. Mysti elmosolyodott – bár még nem találta meg őket, ez a jel azt mutatta, hogy nagyon jó irányban kutat.</t>
+  </si>
+  <si>
+    <t>**Roller pálya**
+A roller pálya gyors kanyarjai Mystit a rajzfilmek száguldó hőseire emlékeztették. Eszébe jutott egy mese, ahol egy kék sün szalad végig villámgyorsan – pont úgy, ahogy ő képzeli a testvérei nyomát.</t>
+  </si>
+  <si>
+    <t>Melyik rajzfilmes hős híres arról, hogy villámgyorsan fut, és kék színű?</t>
+  </si>
+  <si>
+    <t>Videójátékban is szerepel, tüskékkel a hátán.</t>
+  </si>
+  <si>
+    <t>A neve úgy hangzik, mint egy angol szó „hang” vagy „rezgés”.</t>
+  </si>
+  <si>
+    <t>Sonic</t>
+  </si>
+  <si>
+    <t>**Dísztó**
+Ahogy Mysti a vízre nézett, eszébe jutott egy másik kedves mese, amelyben egy kék halacskának nagyon fontos mondatot mondanak: „Csak ússz tovább!”</t>
+  </si>
+  <si>
+    <t>Melyik animációs filmben hangzik el a híres mondat: „Csak ússz és evezz!”?</t>
+  </si>
+  <si>
+    <t>Egy apuka hal keresi a fiát.</t>
+  </si>
+  <si>
+    <t>A kék hal neve Dory.</t>
+  </si>
+  <si>
+    <t>Mi annak a híres sárga pólós medvének a neve, aki nagyon szereti a mézet?</t>
+  </si>
+  <si>
+    <t>Róla szól a „Százholdas Pagony” története.</t>
+  </si>
+  <si>
+    <t>Malacka barátja.</t>
+  </si>
+  <si>
+    <t>Micimackó</t>
+  </si>
+  <si>
+    <t>**Teqball pálya**
+Az íves teqball asztal láttán Mysti eszébe jutott egy mese, ahol a szereplők sokszor együtt csapatmunkával oldanak meg feladatokat — pont olyan összhangban, ahogyan a játékosok is együtt dolgoznak egy meccsen.</t>
+  </si>
+  <si>
+    <t>Melyik sorozat hősei, akik mindig segítenek a város lakóinak?</t>
+  </si>
+  <si>
+    <t>Kutyusokból áll a csapat.</t>
+  </si>
+  <si>
+    <t>Ryder a vezetőjük</t>
+  </si>
+  <si>
+    <t>Mancs Őrjárat;mancsőrjárat</t>
+  </si>
+  <si>
+    <t>Hogy hívják a Jégkorszak mamutját?</t>
+  </si>
+  <si>
+    <t>A neve „d”-re végződik.</t>
+  </si>
+  <si>
+    <t>Manfréd;Manny</t>
   </si>
 </sst>
 </file>
@@ -3490,7 +3617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3509,6 +3636,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3729,11 +3859,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3923,118 +4053,115 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>798</v>
+        <v>1052</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="C6" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>800</v>
+      <c r="F6" s="6" t="s">
+        <v>1057</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>803</v>
+        <v>1053</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="I6" s="2">
-        <v>10</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>801</v>
+        <v>1054</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>1058</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>802</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>309</v>
+        <v>798</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>1018</v>
+        <v>799</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1030</v>
+        <v>800</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>310</v>
+        <v>803</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>311</v>
+        <v>804</v>
       </c>
       <c r="I7" s="2">
         <v>10</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>1019</v>
+        <v>801</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>327</v>
+        <v>802</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>1018</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1004</v>
+        <v>1030</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>994</v>
+        <v>310</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>995</v>
+        <v>311</v>
       </c>
       <c r="I8" s="2">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>954</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>23</v>
@@ -4042,31 +4169,34 @@
       <c r="E9" s="2">
         <v>0</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
+      <c r="F9" s="5" t="s">
+        <v>1004</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
+        <v>994</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>49</v>
+        <v>995</v>
+      </c>
+      <c r="I9" s="2">
+        <v>2</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>1017</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>954</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
@@ -4075,30 +4205,30 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>151</v>
+        <v>47</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>152</v>
+        <v>48</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>155</v>
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>23</v>
@@ -4106,31 +4236,31 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>156</v>
+      <c r="F11" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>23</v>
@@ -4138,31 +4268,31 @@
       <c r="E12" s="2">
         <v>0</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>181</v>
+      <c r="F12" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>184</v>
+        <v>158</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>223</v>
+        <v>179</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C13" t="s">
-        <v>220</v>
+      <c r="C13" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>23</v>
@@ -4170,162 +4300,162 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>221</v>
+      <c r="F13" s="5" t="s">
+        <v>181</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>308</v>
+        <v>183</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A14" s="2" t="s">
-        <v>332</v>
+      <c r="A14" s="3" t="s">
+        <v>223</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>350</v>
+      <c r="C14" t="s">
+        <v>220</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="2">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>351</v>
+        <v>221</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="I14" s="2">
-        <v>10</v>
+        <v>219</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>352</v>
+        <v>222</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>385</v>
+      <c r="A15" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>389</v>
+        <v>350</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>390</v>
+        <v>351</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>386</v>
+        <v>336</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>387</v>
+        <v>337</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>388</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>667</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>956</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="2">
-        <v>0</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>957</v>
+        <v>1000</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>669</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>182</v>
+        <v>666</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>958</v>
+        <v>667</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>670</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>993</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>1033</v>
+      <c r="A18" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>956</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -4333,39 +4463,62 @@
       <c r="E18" s="2">
         <v>0</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>1034</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>1040</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J19" s="6" t="s">
         <v>1035</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>1036</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="F20" s="6"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="6"/>
+      <c r="J21"/>
+      <c r="K21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4382,9 +4535,9 @@
   </sheetPr>
   <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4393,7 +4546,7 @@
     <col min="2" max="2" width="12.6640625" style="2"/>
     <col min="3" max="3" width="36.33203125" style="2" customWidth="1"/>
     <col min="4" max="5" width="18.88671875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.6640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" style="2" customWidth="1"/>
     <col min="7" max="8" width="12.6640625" style="2"/>
     <col min="9" max="9" width="41.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="25" style="2" customWidth="1"/>
@@ -7974,11 +8127,151 @@
         <v>911</v>
       </c>
     </row>
-    <row r="121" spans="1:10" customFormat="1" ht="13.2"/>
-    <row r="122" spans="1:10" customFormat="1" ht="13.2"/>
-    <row r="123" spans="1:10" customFormat="1" ht="13.2"/>
-    <row r="124" spans="1:10" customFormat="1" ht="13.2"/>
-    <row r="125" spans="1:10" customFormat="1" ht="13.2"/>
+    <row r="121" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A121" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I121" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J121" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A122" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1085</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I122" t="s">
+        <v>1087</v>
+      </c>
+      <c r="J122" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A123" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B123">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H123" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A124" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I124" t="s">
+        <v>1079</v>
+      </c>
+      <c r="J124" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
+      <c r="A125" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B125">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I125" t="s">
+        <v>1082</v>
+      </c>
+      <c r="J125" t="s">
+        <v>1083</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7992,8 +8285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B9CE32-7434-4EBC-8E6B-DB471C0DA13A}">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D30"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="49.6640625" defaultRowHeight="13.2"/>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40A6680B-8219-4A9B-931B-F910A0A2847D}"/>
+  <xr:revisionPtr revIDLastSave="286" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3325D516-9FD8-4836-9CBA-8783366B5B4D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2208" yWindow="840" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -3477,10 +3477,6 @@
 A teniszpálya kerítése mellett egy elgurult teniszlabda állt meg Mysti előtt. A labda furcsán vibrált, mintha frissen mozdították volna el. A cica körbeszimatolt, és újabb finom illatot érzett – pontosan olyat, amilyen a testvérei bundájához tartozott.</t>
   </si>
   <si>
-    <t>**Míves Rétes bolt **
-Mire Mysti a rétesbolt elé ért, a bejárat mellett egy apró, csillogó szalagdarabot talált. Pontosan olyan anyagból volt, amilyen a testvérei kis nyakdíszét díszítette. Mysti elmosolyodott – bár még nem találta meg őket, ez a jel azt mutatta, hogy nagyon jó irányban kutat.</t>
-  </si>
-  <si>
     <t>**Roller pálya**
 A roller pálya gyors kanyarjai Mystit a rajzfilmek száguldó hőseire emlékeztették. Eszébe jutott egy mese, ahol egy kék sün szalad végig villámgyorsan – pont úgy, ahogy ő képzeli a testvérei nyomát.</t>
   </si>
@@ -3545,6 +3541,10 @@
   </si>
   <si>
     <t>Manfréd;Manny</t>
+  </si>
+  <si>
+    <t>**Míves Rétes bolt **
+Mire Mysti a Míves Rétes-bolt elé ért, a bódé mellett egy apró, csillogó szalagdarabot talált. Pontosan olyan anyagból volt, amilyen a testvérei kis nyakdíszét díszítette. Mysti elmosolyodott – bár még nem találta meg őket, ez a jel azt mutatta, hogy nagyon jó irányban kutat. Ennek örömére kedvet kapott megkóstolni egy finom Meggyes-mákos rétest, ami az ország legjobb rétese.</t>
   </si>
 </sst>
 </file>
@@ -4536,8 +4536,8 @@
   <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8141,19 +8141,19 @@
         <v>1060</v>
       </c>
       <c r="F121" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G121" t="s">
         <v>1071</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>1072</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>1073</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>1074</v>
-      </c>
-      <c r="J121" t="s">
-        <v>1075</v>
       </c>
     </row>
     <row r="122" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
@@ -8170,19 +8170,19 @@
         <v>1062</v>
       </c>
       <c r="F122" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G122" t="s">
         <v>1084</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>1085</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>1086</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>1087</v>
-      </c>
-      <c r="J122" t="s">
-        <v>1088</v>
       </c>
     </row>
     <row r="123" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
@@ -8202,16 +8202,16 @@
         <v>1069</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>622</v>
       </c>
       <c r="I123" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J123" s="8" t="s">
         <v>1090</v>
-      </c>
-      <c r="J123" s="8" t="s">
-        <v>1091</v>
       </c>
     </row>
     <row r="124" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
@@ -8228,16 +8228,16 @@
         <v>1066</v>
       </c>
       <c r="F124" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G124" t="s">
         <v>1076</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>1077</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>1078</v>
-      </c>
-      <c r="I124" t="s">
-        <v>1079</v>
       </c>
       <c r="J124" t="s">
         <v>749</v>
@@ -8257,19 +8257,19 @@
         <v>1068</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1070</v>
+        <v>1091</v>
       </c>
       <c r="G125" t="s">
+        <v>1079</v>
+      </c>
+      <c r="H125" t="s">
         <v>1080</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>1081</v>
       </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
         <v>1082</v>
-      </c>
-      <c r="J125" t="s">
-        <v>1083</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="286" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3325D516-9FD8-4836-9CBA-8783366B5B4D}"/>
+  <xr:revisionPtr revIDLastSave="287" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{951B6B79-1907-4635-AF61-8BF02A20430C}"/>
   <bookViews>
-    <workbookView xWindow="2208" yWindow="840" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -3435,10 +3435,6 @@
     <t>Mysti cica a Bókay-kertben</t>
   </si>
   <si>
-    <t>Egy napsütéses tavasz reggelen Mysti cica új reménnyel és izgalommal lépte át a Bókay-kert kapuját. A medálja halk, csilingelő hangot adott, jelezve, hogy talán új nyomok várnak rá ebben a nagy parkban. Mysti már hosszú ideje keresi elveszett testvéreit, és minden új helyszín egy újabb esélyt jelenthet. A kertben barátságos gyerekzsivaj keveredett madárcsicsergéssel, de Mysti fülét mégis valami más ragadta meg: apró, titokzatos zörejek a bokrok mögül.
-Amikor közelebbről megnézte, csillogó tappancsnyomokat talált a járdán – olyat, amit csak a testvérei hagyhatnak. A cica szíve nagyot dobbant, ahogy megérezte, hogy jó helyen kutakodik. Tudta, hogy minden pont közelebb viszi őt a nagy találkozáshoz. Így kezdődött Mysti új kalandja a Bókay-kertben – tele reménnyel, izgalommal és megoldásra váró titkokkal.</t>
-  </si>
-  <si>
     <t>Mysti leült a rétesbolt elé, és óvatosan megtapogatta a fénylő szalagdarabot. Érezte rajta a testvérei ismert, meleg illatát – mintha csak néhány perccel korábban hagyhatták volna ott. Bár még mindig nem találta meg őket, egyre biztosabb volt abban, hogy közel jár a nagy felfedezéshez.
 Aznap rájött, hogy minden apró jel egy újabb lépés a családja felé. Az őszi szél a medálját ringatta, mintha csak biztatná: „Folytasd, Mysti, jó úton jársz!” A cica felállt, körbenézett, és elhatározta, hogy másnap újra visszatér – mert ahol ennyi nyom van, ott a testvérei sem lehetnek messze. Mysti így folytatta kalandos útját, tele reménnyel… és egy újabb rejtéllyel, amit meg kell fejtenie.</t>
   </si>
@@ -3545,6 +3541,10 @@
   <si>
     <t>**Míves Rétes bolt **
 Mire Mysti a Míves Rétes-bolt elé ért, a bódé mellett egy apró, csillogó szalagdarabot talált. Pontosan olyan anyagból volt, amilyen a testvérei kis nyakdíszét díszítette. Mysti elmosolyodott – bár még nem találta meg őket, ez a jel azt mutatta, hogy nagyon jó irányban kutat. Ennek örömére kedvet kapott megkóstolni egy finom Meggyes-mákos rétest, ami az ország legjobb rétese.</t>
+  </si>
+  <si>
+    <t>Egy napsütéses őszi reggelen Mysti cica új reménnyel és izgalommal lépte át a Bókay-kert kapuját. A medálja halk, csilingelő hangot adott, jelezve, hogy talán új nyomok várnak rá ebben a nagy parkban. Mysti már hosszú ideje keresi elveszett testvéreit, és minden új helyszín egy újabb esélyt jelenthet. A kertben barátságos gyerekzsivaj keveredett madárcsicsergéssel, de Mysti fülét mégis valami más ragadta meg: apró, titokzatos zörejek a bokrok mögül.
+Amikor közelebbről megnézte, csillogó tappancsnyomokat talált a járdán – olyat, amit csak a testvérei hagyhatnak. A cica szíve nagyot dobbant, ahogy megérezte, hogy jó helyen kutakodik. Tudta, hogy minden pont közelebb viszi őt a nagy találkozáshoz. Így kezdődött Mysti új kalandja a Bókay-kertben – tele reménnyel, izgalommal és megoldásra váró titkokkal.</t>
   </si>
 </sst>
 </file>
@@ -3862,8 +3862,8 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1057</v>
+        <v>1091</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>1053</v>
@@ -4077,7 +4077,7 @@
         <v>1054</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>1055</v>
@@ -4535,9 +4535,9 @@
   </sheetPr>
   <dimension ref="A1:J125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F125" sqref="F125"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -8135,25 +8135,25 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D121" t="s">
         <v>1059</v>
       </c>
-      <c r="D121" t="s">
-        <v>1060</v>
-      </c>
       <c r="F121" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G121" t="s">
         <v>1070</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>1071</v>
       </c>
-      <c r="H121" t="s">
+      <c r="I121" t="s">
         <v>1072</v>
       </c>
-      <c r="I121" t="s">
+      <c r="J121" t="s">
         <v>1073</v>
-      </c>
-      <c r="J121" t="s">
-        <v>1074</v>
       </c>
     </row>
     <row r="122" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
@@ -8164,25 +8164,25 @@
         <v>2</v>
       </c>
       <c r="C122" t="s">
+        <v>1060</v>
+      </c>
+      <c r="D122" t="s">
         <v>1061</v>
       </c>
-      <c r="D122" t="s">
-        <v>1062</v>
-      </c>
       <c r="F122" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G122" t="s">
         <v>1083</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>1084</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>1085</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>1086</v>
-      </c>
-      <c r="J122" t="s">
-        <v>1087</v>
       </c>
     </row>
     <row r="123" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
@@ -8193,25 +8193,25 @@
         <v>3</v>
       </c>
       <c r="C123" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D123" t="s">
         <v>1063</v>
       </c>
-      <c r="D123" t="s">
-        <v>1064</v>
-      </c>
       <c r="F123" s="9" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>622</v>
       </c>
       <c r="I123" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J123" s="8" t="s">
         <v>1089</v>
-      </c>
-      <c r="J123" s="8" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="124" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
@@ -8222,22 +8222,22 @@
         <v>4</v>
       </c>
       <c r="C124" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D124" t="s">
         <v>1065</v>
       </c>
-      <c r="D124" t="s">
-        <v>1066</v>
-      </c>
       <c r="F124" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G124" t="s">
         <v>1075</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>1076</v>
       </c>
-      <c r="H124" t="s">
+      <c r="I124" t="s">
         <v>1077</v>
-      </c>
-      <c r="I124" t="s">
-        <v>1078</v>
       </c>
       <c r="J124" t="s">
         <v>749</v>
@@ -8251,25 +8251,25 @@
         <v>5</v>
       </c>
       <c r="C125" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D125" t="s">
         <v>1067</v>
       </c>
-      <c r="D125" t="s">
-        <v>1068</v>
-      </c>
       <c r="F125" s="9" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="G125" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H125" t="s">
         <v>1079</v>
       </c>
-      <c r="H125" t="s">
+      <c r="I125" t="s">
         <v>1080</v>
       </c>
-      <c r="I125" t="s">
+      <c r="J125" t="s">
         <v>1081</v>
-      </c>
-      <c r="J125" t="s">
-        <v>1082</v>
       </c>
     </row>
   </sheetData>

--- a/games/games_free.xlsx
+++ b/games/games_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="287" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{951B6B79-1907-4635-AF61-8BF02A20430C}"/>
+  <xr:revisionPtr revIDLastSave="328" documentId="13_ncr:1_{4B763810-652C-4457-A747-B90EBEE01994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8092A6A2-B035-4A45-BCA2-355034D5DBD6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2537,66 +2537,6 @@
     <t>Az erdei ösvényen egy kőbe szúrt fémkalapács áll. A játékosok próbálják megemelni, de meg se mozdul — csak az, aki méltó rá, képes felemelni. Vajon ki volt az, akinek ez a filmben sikerült? ⚡</t>
   </si>
   <si>
-    <t>47.443808785306835</t>
-  </si>
-  <si>
-    <t>19.212115593654556</t>
-  </si>
-  <si>
-    <t>47.44284370757273</t>
-  </si>
-  <si>
-    <t>19.213789294974305</t>
-  </si>
-  <si>
-    <t>47.44173349973655</t>
-  </si>
-  <si>
-    <t>19.214819263261774</t>
-  </si>
-  <si>
-    <t>47.440630524950926</t>
-  </si>
-  <si>
-    <t>19.215516637508053</t>
-  </si>
-  <si>
-    <t>47.43962911992409</t>
-  </si>
-  <si>
-    <t>19.214787076688175</t>
-  </si>
-  <si>
-    <t>47.43907761335556</t>
-  </si>
-  <si>
-    <t>19.214443753860277</t>
-  </si>
-  <si>
-    <t>47.43818503129704</t>
-  </si>
-  <si>
-    <t>19.213778566091072</t>
-  </si>
-  <si>
-    <t>47.43716180883292</t>
-  </si>
-  <si>
-    <t>19.213081191764363</t>
-  </si>
-  <si>
-    <t>47.436428849997945</t>
-  </si>
-  <si>
-    <t>19.21442229626966</t>
-  </si>
-  <si>
-    <t>47.43546365101761</t>
-  </si>
-  <si>
-    <t>19.216256927225103</t>
-  </si>
-  <si>
     <t>A „Rózsaszín párduc” – mi ez valójában a filmben?</t>
   </si>
   <si>
@@ -3545,6 +3485,66 @@
   <si>
     <t>Egy napsütéses őszi reggelen Mysti cica új reménnyel és izgalommal lépte át a Bókay-kert kapuját. A medálja halk, csilingelő hangot adott, jelezve, hogy talán új nyomok várnak rá ebben a nagy parkban. Mysti már hosszú ideje keresi elveszett testvéreit, és minden új helyszín egy újabb esélyt jelenthet. A kertben barátságos gyerekzsivaj keveredett madárcsicsergéssel, de Mysti fülét mégis valami más ragadta meg: apró, titokzatos zörejek a bokrok mögül.
 Amikor közelebbről megnézte, csillogó tappancsnyomokat talált a járdán – olyat, amit csak a testvérei hagyhatnak. A cica szíve nagyot dobbant, ahogy megérezte, hogy jó helyen kutakodik. Tudta, hogy minden pont közelebb viszi őt a nagy találkozáshoz. Így kezdődött Mysti új kalandja a Bókay-kertben – tele reménnyel, izgalommal és megoldásra váró titkokkal.</t>
+  </si>
+  <si>
+    <t>47.4433286636593</t>
+  </si>
+  <si>
+    <t>19.212355536162438</t>
+  </si>
+  <si>
+    <t>47.44137846766688</t>
+  </si>
+  <si>
+    <t>19.216055590562732</t>
+  </si>
+  <si>
+    <t>47.43719306851711</t>
+  </si>
+  <si>
+    <t>19.21305727074815</t>
+  </si>
+  <si>
+    <t>47.435527445916996</t>
+  </si>
+  <si>
+    <t>19.216195937522745</t>
+  </si>
+  <si>
+    <t>47.43332667200853</t>
+  </si>
+  <si>
+    <t>19.220329791276654</t>
+  </si>
+  <si>
+    <t>47.43219604256578</t>
+  </si>
+  <si>
+    <t>19.22447640390043</t>
+  </si>
+  <si>
+    <t>47.42902842461491</t>
+  </si>
+  <si>
+    <t>19.227372653352596</t>
+  </si>
+  <si>
+    <t>47.43059931072407</t>
+  </si>
+  <si>
+    <t>19.220227721021978</t>
+  </si>
+  <si>
+    <t>47.43237635289659</t>
+  </si>
+  <si>
+    <t>19.21542108860765</t>
+  </si>
+  <si>
+    <t>47.43711995266827</t>
+  </si>
+  <si>
+    <t>19.213036458738607</t>
   </si>
 </sst>
 </file>
@@ -3863,7 +3863,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3928,7 +3928,7 @@
         <v>300</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>942</v>
+        <v>922</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>427</v>
@@ -3986,13 +3986,13 @@
     </row>
     <row r="4" spans="1:13" customFormat="1" ht="13.2">
       <c r="A4" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>949</v>
+        <v>929</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>427</v>
@@ -4001,22 +4001,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>880</v>
+        <v>860</v>
       </c>
       <c r="G4" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="H4" t="s">
-        <v>882</v>
+        <v>862</v>
       </c>
       <c r="I4" s="2">
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>883</v>
+        <v>863</v>
       </c>
       <c r="K4" t="s">
-        <v>884</v>
+        <v>864</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1">
@@ -4053,13 +4053,13 @@
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>1056</v>
+        <v>1036</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>23</v>
@@ -4068,30 +4068,30 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>1091</v>
+        <v>1071</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>1053</v>
+        <v>1033</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>1054</v>
+        <v>1034</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>1057</v>
+        <v>1037</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>1055</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>23</v>
@@ -4100,22 +4100,22 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
       <c r="I7" s="2">
         <v>10</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1">
@@ -4126,7 +4126,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>1018</v>
+        <v>998</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1030</v>
+        <v>1010</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>310</v>
@@ -4147,7 +4147,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>1019</v>
+        <v>999</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>327</v>
@@ -4170,19 +4170,19 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1004</v>
+        <v>984</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>995</v>
+        <v>975</v>
       </c>
       <c r="I9" s="2">
         <v>2</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>1017</v>
+        <v>997</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>303</v>
@@ -4193,7 +4193,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>954</v>
+        <v>934</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>45</v>
@@ -4440,6 +4440,9 @@
       <c r="H17" s="2" t="s">
         <v>667</v>
       </c>
+      <c r="I17" s="2">
+        <v>50</v>
+      </c>
       <c r="J17" s="5" t="s">
         <v>670</v>
       </c>
@@ -4449,13 +4452,13 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>954</v>
+        <v>934</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>956</v>
+        <v>936</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
@@ -4464,7 +4467,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>957</v>
+        <v>937</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>182</v>
@@ -4473,21 +4476,21 @@
         <v>183</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>958</v>
+        <v>938</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>993</v>
+        <v>973</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>1032</v>
+        <v>1012</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>1033</v>
+        <v>1013</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -4496,19 +4499,19 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1034</v>
+        <v>1014</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>1041</v>
+        <v>1021</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>1035</v>
+        <v>1015</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>1036</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1">
@@ -4536,8 +4539,8 @@
   <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E125" sqref="E125"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -4599,7 +4602,7 @@
         <v>27</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>90</v>
@@ -4629,16 +4632,16 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="6" t="s">
-        <v>858</v>
+        <v>838</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>868</v>
+        <v>848</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>869</v>
+        <v>849</v>
       </c>
       <c r="J3" t="s">
         <v>507</v>
@@ -4658,19 +4661,19 @@
         <v>97</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>859</v>
+        <v>839</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>871</v>
+        <v>851</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>872</v>
+        <v>852</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>873</v>
+        <v>853</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1">
@@ -4687,7 +4690,7 @@
         <v>99</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>860</v>
+        <v>840</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>76</v>
@@ -4716,10 +4719,10 @@
         <v>101</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>861</v>
+        <v>841</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>874</v>
+        <v>854</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>81</v>
@@ -4745,7 +4748,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>862</v>
+        <v>842</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>82</v>
@@ -4774,19 +4777,19 @@
         <v>105</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>863</v>
+        <v>843</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>875</v>
+        <v>855</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>876</v>
+        <v>856</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>877</v>
+        <v>857</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>878</v>
+        <v>858</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1">
@@ -4803,7 +4806,7 @@
         <v>107</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>864</v>
+        <v>844</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>113</v>
@@ -4832,7 +4835,7 @@
         <v>109</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>865</v>
+        <v>845</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>67</v>
@@ -4861,7 +4864,7 @@
         <v>111</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>866</v>
+        <v>846</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>112</v>
@@ -4884,28 +4887,28 @@
         <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>996</v>
+        <v>976</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>997</v>
+        <v>977</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1005</v>
+        <v>985</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>1006</v>
+        <v>986</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>1008</v>
+        <v>988</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>1009</v>
+        <v>989</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>1007</v>
+        <v>987</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1">
@@ -4916,28 +4919,28 @@
         <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>998</v>
+        <v>978</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>999</v>
+        <v>979</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1010</v>
+        <v>990</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>1011</v>
+        <v>991</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1012</v>
+        <v>992</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>1013</v>
+        <v>993</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>1014</v>
+        <v>994</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1">
@@ -4948,16 +4951,16 @@
         <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1001</v>
+        <v>981</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1015</v>
+        <v>995</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>523</v>
@@ -4980,16 +4983,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1002</v>
+        <v>982</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1003</v>
+        <v>983</v>
       </c>
       <c r="E15" s="2">
         <v>4</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1016</v>
+        <v>996</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>539</v>
@@ -6013,7 +6016,7 @@
         <v>276</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>1031</v>
+        <v>1011</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>286</v>
@@ -6202,10 +6205,10 @@
         <v>10</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>1025</v>
+        <v>1005</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>1020</v>
+        <v>1000</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>314</v>
@@ -6234,10 +6237,10 @@
         <v>10</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>1026</v>
+        <v>1006</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>1021</v>
+        <v>1001</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>318</v>
@@ -6266,10 +6269,10 @@
         <v>10</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>1027</v>
+        <v>1007</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>1022</v>
+        <v>1002</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>320</v>
@@ -6298,10 +6301,10 @@
         <v>10</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>1028</v>
+        <v>1008</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>1023</v>
+        <v>1003</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>322</v>
@@ -6330,10 +6333,10 @@
         <v>35</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>1029</v>
+        <v>1009</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>1024</v>
+        <v>1004</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>325</v>
@@ -6977,10 +6980,13 @@
         <v>1</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>775</v>
+        <v>1072</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>776</v>
+        <v>1073</v>
+      </c>
+      <c r="E82" s="2">
+        <v>50</v>
       </c>
       <c r="F82" t="s">
         <v>765</v>
@@ -6989,10 +6995,10 @@
         <v>746</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>747</v>
@@ -7006,10 +7012,13 @@
         <v>2</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>777</v>
+        <v>1074</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>778</v>
+        <v>1075</v>
+      </c>
+      <c r="E83" s="2">
+        <v>50</v>
       </c>
       <c r="F83" t="s">
         <v>766</v>
@@ -7035,10 +7044,13 @@
         <v>3</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>779</v>
+        <v>1076</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>780</v>
+        <v>1077</v>
+      </c>
+      <c r="E84" s="2">
+        <v>50</v>
       </c>
       <c r="F84" t="s">
         <v>767</v>
@@ -7064,10 +7076,13 @@
         <v>4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>781</v>
+        <v>1078</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>782</v>
+        <v>1079</v>
+      </c>
+      <c r="E85" s="2">
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>768</v>
@@ -7093,10 +7108,13 @@
         <v>5</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>783</v>
+        <v>1080</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>784</v>
+        <v>1081</v>
+      </c>
+      <c r="E86" s="2">
+        <v>50</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>769</v>
@@ -7122,10 +7140,13 @@
         <v>6</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>785</v>
+        <v>1082</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>786</v>
+        <v>1083</v>
+      </c>
+      <c r="E87" s="2">
+        <v>50</v>
       </c>
       <c r="F87" t="s">
         <v>770</v>
@@ -7151,10 +7172,13 @@
         <v>7</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>787</v>
+        <v>1084</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>788</v>
+        <v>1085</v>
+      </c>
+      <c r="E88" s="2">
+        <v>50</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>771</v>
@@ -7180,16 +7204,19 @@
         <v>8</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>789</v>
+        <v>1086</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>790</v>
+        <v>1087</v>
+      </c>
+      <c r="E89" s="2">
+        <v>50</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>772</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="H89" s="8" t="s">
         <v>754</v>
@@ -7209,10 +7236,13 @@
         <v>9</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>791</v>
+        <v>1088</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>792</v>
+        <v>1089</v>
+      </c>
+      <c r="E90" s="2">
+        <v>50</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>773</v>
@@ -7238,10 +7268,13 @@
         <v>10</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>793</v>
+        <v>1090</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>794</v>
+        <v>1091</v>
+      </c>
+      <c r="E91" s="2">
+        <v>50</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>774</v>
@@ -7261,31 +7294,31 @@
     </row>
     <row r="92" spans="1:10" ht="15.75" customHeight="1">
       <c r="A92" s="3" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="B92" s="2">
         <v>1</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>806</v>
+        <v>786</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>807</v>
+        <v>787</v>
       </c>
       <c r="E92" s="2">
         <v>20</v>
       </c>
       <c r="F92" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>808</v>
+        <v>788</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>855</v>
+        <v>835</v>
       </c>
       <c r="I92" s="2" t="s">
-        <v>856</v>
+        <v>836</v>
       </c>
       <c r="J92" s="2">
         <v>4</v>
@@ -7293,63 +7326,63 @@
     </row>
     <row r="93" spans="1:10" ht="15.75" customHeight="1">
       <c r="A93" s="3" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="B93" s="2">
         <v>2</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>809</v>
+        <v>789</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>810</v>
+        <v>790</v>
       </c>
       <c r="E93" s="2">
         <v>5</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>849</v>
+        <v>829</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>811</v>
+        <v>791</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>813</v>
+        <v>793</v>
       </c>
       <c r="I93" s="2" t="s">
-        <v>814</v>
+        <v>794</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>812</v>
+        <v>792</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="15.75" customHeight="1">
       <c r="A94" s="3" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="B94" s="2">
         <v>3</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>822</v>
+        <v>802</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>821</v>
+        <v>801</v>
       </c>
       <c r="E94" s="2">
         <v>5</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>851</v>
+        <v>831</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>950</v>
+        <v>930</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>820</v>
+        <v>800</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>819</v>
+        <v>799</v>
       </c>
       <c r="J94" s="2">
         <v>11</v>
@@ -7357,22 +7390,22 @@
     </row>
     <row r="95" spans="1:10" ht="15.75" customHeight="1">
       <c r="A95" s="3" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="B95" s="2">
         <v>4</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>815</v>
+        <v>795</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>816</v>
+        <v>796</v>
       </c>
       <c r="E95" s="2">
         <v>5</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>25</v>
@@ -7381,39 +7414,39 @@
         <v>24</v>
       </c>
       <c r="I95" s="2" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>817</v>
+        <v>797</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="15.75" customHeight="1">
       <c r="A96" s="3" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="B96" s="2">
         <v>5</v>
       </c>
       <c r="C96" t="s">
-        <v>824</v>
+        <v>804</v>
       </c>
       <c r="D96" t="s">
-        <v>825</v>
+        <v>805</v>
       </c>
       <c r="E96" s="2">
         <v>5</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>852</v>
+        <v>832</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>823</v>
+        <v>803</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>826</v>
+        <v>806</v>
       </c>
       <c r="I96" s="2" t="s">
-        <v>854</v>
+        <v>834</v>
       </c>
       <c r="J96" s="2">
         <v>1763</v>
@@ -7421,31 +7454,31 @@
     </row>
     <row r="97" spans="1:10" ht="15.75" customHeight="1">
       <c r="A97" s="3" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="B97" s="2">
         <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>829</v>
+        <v>809</v>
       </c>
       <c r="D97" t="s">
-        <v>830</v>
+        <v>810</v>
       </c>
       <c r="E97" s="2">
         <v>10</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>952</v>
+        <v>932</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>951</v>
+        <v>931</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>827</v>
+        <v>807</v>
       </c>
       <c r="I97" s="2" t="s">
-        <v>828</v>
+        <v>808</v>
       </c>
       <c r="J97" s="2">
         <v>1814</v>
@@ -7453,63 +7486,63 @@
     </row>
     <row r="98" spans="1:10" ht="15.75" customHeight="1">
       <c r="A98" s="3" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="B98" s="2">
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>831</v>
+        <v>811</v>
       </c>
       <c r="D98" t="s">
-        <v>832</v>
+        <v>812</v>
       </c>
       <c r="E98" s="2">
         <v>10</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>953</v>
+        <v>933</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>834</v>
+        <v>814</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>835</v>
+        <v>815</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>836</v>
+        <v>816</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>833</v>
+        <v>813</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="15.75" customHeight="1">
       <c r="A99" s="3" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="B99" s="2">
         <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>837</v>
+        <v>817</v>
       </c>
       <c r="D99" t="s">
-        <v>838</v>
+        <v>818</v>
       </c>
       <c r="E99" s="2">
         <v>10</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>853</v>
+        <v>833</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>839</v>
+        <v>819</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>840</v>
+        <v>820</v>
       </c>
       <c r="I99" s="2" t="s">
-        <v>841</v>
+        <v>821</v>
       </c>
       <c r="J99" s="2">
         <v>63</v>
@@ -7517,89 +7550,89 @@
     </row>
     <row r="100" spans="1:10" ht="15.75" customHeight="1">
       <c r="A100" s="3" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="B100" s="2">
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>842</v>
+        <v>822</v>
       </c>
       <c r="D100" t="s">
-        <v>843</v>
+        <v>823</v>
       </c>
       <c r="E100" s="2">
         <v>20</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>845</v>
+        <v>825</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>847</v>
+        <v>827</v>
       </c>
       <c r="I100" s="2" t="s">
-        <v>848</v>
+        <v>828</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>846</v>
+        <v>826</v>
       </c>
     </row>
     <row r="101" spans="1:10" customFormat="1" ht="13.2">
       <c r="A101" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="B101">
         <v>1</v>
       </c>
       <c r="C101" t="s">
-        <v>885</v>
+        <v>865</v>
       </c>
       <c r="D101" t="s">
-        <v>886</v>
+        <v>866</v>
       </c>
       <c r="F101" t="s">
-        <v>887</v>
+        <v>867</v>
       </c>
       <c r="G101" t="s">
-        <v>948</v>
+        <v>928</v>
       </c>
       <c r="H101" t="s">
-        <v>888</v>
+        <v>868</v>
       </c>
       <c r="I101" t="s">
-        <v>889</v>
+        <v>869</v>
       </c>
       <c r="J101" t="s">
-        <v>890</v>
+        <v>870</v>
       </c>
     </row>
     <row r="102" spans="1:10" customFormat="1" ht="13.2">
       <c r="A102" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="B102">
         <v>2</v>
       </c>
       <c r="C102" t="s">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="D102" t="s">
-        <v>892</v>
+        <v>872</v>
       </c>
       <c r="F102" t="s">
-        <v>893</v>
+        <v>873</v>
       </c>
       <c r="G102" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="H102" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="I102" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="J102" t="s">
         <v>748</v>
@@ -7607,57 +7640,57 @@
     </row>
     <row r="103" spans="1:10" customFormat="1" ht="13.2">
       <c r="A103" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
       <c r="C103" t="s">
-        <v>897</v>
+        <v>877</v>
       </c>
       <c r="D103" t="s">
-        <v>898</v>
+        <v>878</v>
       </c>
       <c r="F103" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="G103" t="s">
         <v>696</v>
       </c>
       <c r="H103" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="I103" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="J103" t="s">
-        <v>941</v>
+        <v>921</v>
       </c>
     </row>
     <row r="104" spans="1:10" customFormat="1" ht="13.2">
       <c r="A104" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="B104">
         <v>4</v>
       </c>
       <c r="C104" t="s">
-        <v>943</v>
+        <v>923</v>
       </c>
       <c r="D104" t="s">
-        <v>944</v>
+        <v>924</v>
       </c>
       <c r="F104" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
       <c r="G104" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
       <c r="H104" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="I104" t="s">
-        <v>905</v>
+        <v>885</v>
       </c>
       <c r="J104" t="s">
         <v>710</v>
@@ -7665,57 +7698,57 @@
     </row>
     <row r="105" spans="1:10" customFormat="1" ht="13.2">
       <c r="A105" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="B105">
         <v>5</v>
       </c>
       <c r="C105" t="s">
-        <v>906</v>
+        <v>886</v>
       </c>
       <c r="D105" t="s">
-        <v>907</v>
+        <v>887</v>
       </c>
       <c r="F105" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
       <c r="G105" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="H105" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="I105" t="s">
-        <v>947</v>
+        <v>927</v>
       </c>
       <c r="J105" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
     </row>
     <row r="106" spans="1:10" customFormat="1" ht="13.2">
       <c r="A106" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="B106">
         <v>6</v>
       </c>
       <c r="C106" t="s">
-        <v>912</v>
+        <v>892</v>
       </c>
       <c r="D106" t="s">
-        <v>913</v>
+        <v>893</v>
       </c>
       <c r="F106" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
       <c r="G106" t="s">
-        <v>915</v>
+        <v>895</v>
       </c>
       <c r="H106" t="s">
-        <v>916</v>
+        <v>896</v>
       </c>
       <c r="I106" t="s">
-        <v>917</v>
+        <v>897</v>
       </c>
       <c r="J106" t="s">
         <v>749</v>
@@ -7723,28 +7756,28 @@
     </row>
     <row r="107" spans="1:10" customFormat="1" ht="13.2">
       <c r="A107" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="B107">
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>918</v>
+        <v>898</v>
       </c>
       <c r="D107" t="s">
-        <v>919</v>
+        <v>899</v>
       </c>
       <c r="F107" t="s">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="G107" t="s">
-        <v>921</v>
+        <v>901</v>
       </c>
       <c r="H107" t="s">
-        <v>922</v>
+        <v>902</v>
       </c>
       <c r="I107" t="s">
-        <v>923</v>
+        <v>903</v>
       </c>
       <c r="J107" t="s">
         <v>753</v>
@@ -7752,57 +7785,57 @@
     </row>
     <row r="108" spans="1:10" customFormat="1" ht="13.2">
       <c r="A108" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="B108">
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>924</v>
+        <v>904</v>
       </c>
       <c r="D108" t="s">
-        <v>925</v>
+        <v>905</v>
       </c>
       <c r="F108" t="s">
-        <v>926</v>
+        <v>906</v>
       </c>
       <c r="G108" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="H108" t="s">
-        <v>928</v>
+        <v>908</v>
       </c>
       <c r="I108" t="s">
-        <v>929</v>
+        <v>909</v>
       </c>
       <c r="J108" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
     </row>
     <row r="109" spans="1:10" customFormat="1" ht="13.2">
       <c r="A109" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="B109">
         <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>931</v>
+        <v>911</v>
       </c>
       <c r="D109" t="s">
-        <v>932</v>
+        <v>912</v>
       </c>
       <c r="F109" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
       <c r="G109" t="s">
-        <v>934</v>
+        <v>914</v>
       </c>
       <c r="H109" t="s">
         <v>444</v>
       </c>
       <c r="I109" t="s">
-        <v>935</v>
+        <v>915</v>
       </c>
       <c r="J109" t="s">
         <v>369</v>
@@ -7810,86 +7843,86 @@
     </row>
     <row r="110" spans="1:10" customFormat="1" ht="13.2">
       <c r="A110" t="s">
-        <v>879</v>
+        <v>859</v>
       </c>
       <c r="B110">
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>945</v>
+        <v>925</v>
       </c>
       <c r="D110" t="s">
-        <v>946</v>
+        <v>926</v>
       </c>
       <c r="F110" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
       <c r="G110" t="s">
-        <v>937</v>
+        <v>917</v>
       </c>
       <c r="H110" t="s">
-        <v>938</v>
+        <v>918</v>
       </c>
       <c r="I110" t="s">
-        <v>939</v>
+        <v>919</v>
       </c>
       <c r="J110" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
       <c r="B111" s="2">
         <v>1</v>
       </c>
       <c r="C111" t="s">
-        <v>978</v>
+        <v>958</v>
       </c>
       <c r="D111" t="s">
-        <v>979</v>
+        <v>959</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>961</v>
+        <v>941</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>962</v>
+        <v>942</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>963</v>
+        <v>943</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
       <c r="B112" s="2">
         <v>2</v>
       </c>
       <c r="C112" t="s">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="D112" t="s">
-        <v>981</v>
+        <v>961</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>964</v>
+        <v>944</v>
       </c>
       <c r="G112" t="s">
-        <v>965</v>
+        <v>945</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>966</v>
+        <v>946</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>967</v>
+        <v>947</v>
       </c>
       <c r="J112" s="2">
         <v>1949</v>
@@ -7897,115 +7930,115 @@
     </row>
     <row r="113" spans="1:10" ht="15.75" customHeight="1">
       <c r="A113" s="2" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
       <c r="B113" s="2">
         <v>3</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>982</v>
+        <v>962</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>983</v>
+        <v>963</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>968</v>
+        <v>948</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>970</v>
+        <v>950</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>971</v>
+        <v>951</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>972</v>
+        <v>952</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
       <c r="B114" s="2">
         <v>4</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>984</v>
+        <v>964</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>985</v>
+        <v>965</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>973</v>
+        <v>953</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>974</v>
+        <v>954</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>975</v>
+        <v>955</v>
       </c>
       <c r="I114" s="2" t="s">
-        <v>976</v>
+        <v>956</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>977</v>
+        <v>957</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="15.75" customHeight="1">
       <c r="A115" s="2" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
       <c r="B115" s="2">
         <v>5</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>986</v>
+        <v>966</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>987</v>
+        <v>967</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>988</v>
+        <v>968</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>989</v>
+        <v>969</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="I115" t="s">
-        <v>991</v>
+        <v>971</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>992</v>
+        <v>972</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="15.75" customHeight="1">
       <c r="A116" s="3" t="s">
-        <v>1032</v>
+        <v>1012</v>
       </c>
       <c r="B116" s="2">
         <v>1</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1042</v>
+        <v>1022</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1043</v>
+        <v>1023</v>
       </c>
       <c r="F116" t="s">
-        <v>1037</v>
+        <v>1017</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>1038</v>
+        <v>1018</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="J116" s="8" t="s">
         <v>747</v>
@@ -8013,28 +8046,28 @@
     </row>
     <row r="117" spans="1:10" customFormat="1" ht="13.2">
       <c r="A117" s="3" t="s">
-        <v>1032</v>
+        <v>1012</v>
       </c>
       <c r="B117">
         <v>2</v>
       </c>
       <c r="C117" t="s">
-        <v>1044</v>
+        <v>1024</v>
       </c>
       <c r="D117" t="s">
-        <v>1045</v>
+        <v>1025</v>
       </c>
       <c r="F117" t="s">
-        <v>1039</v>
+        <v>1019</v>
       </c>
       <c r="G117" t="s">
-        <v>894</v>
+        <v>874</v>
       </c>
       <c r="H117" t="s">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="I117" t="s">
-        <v>896</v>
+        <v>876</v>
       </c>
       <c r="J117" t="s">
         <v>748</v>
@@ -8042,57 +8075,57 @@
     </row>
     <row r="118" spans="1:10" customFormat="1" ht="13.2">
       <c r="A118" s="3" t="s">
-        <v>1032</v>
+        <v>1012</v>
       </c>
       <c r="B118">
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>1046</v>
+        <v>1026</v>
       </c>
       <c r="D118" t="s">
-        <v>1047</v>
+        <v>1027</v>
       </c>
       <c r="F118" t="s">
-        <v>899</v>
+        <v>879</v>
       </c>
       <c r="G118" t="s">
         <v>696</v>
       </c>
       <c r="H118" t="s">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="I118" t="s">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="J118" t="s">
-        <v>941</v>
+        <v>921</v>
       </c>
     </row>
     <row r="119" spans="1:10" customFormat="1" ht="13.2">
       <c r="A119" s="3" t="s">
-        <v>1032</v>
+        <v>1012</v>
       </c>
       <c r="B119">
         <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>1048</v>
+        <v>1028</v>
       </c>
       <c r="D119" t="s">
-        <v>1049</v>
+        <v>1029</v>
       </c>
       <c r="F119" t="s">
-        <v>902</v>
+        <v>882</v>
       </c>
       <c r="G119" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
       <c r="H119" t="s">
-        <v>904</v>
+        <v>884</v>
       </c>
       <c r="I119" t="s">
-        <v>905</v>
+        <v>885</v>
       </c>
       <c r="J119" t="s">
         <v>710</v>
@@ -8100,144 +8133,144 @@
     </row>
     <row r="120" spans="1:10" customFormat="1" ht="13.2">
       <c r="A120" s="3" t="s">
-        <v>1032</v>
+        <v>1012</v>
       </c>
       <c r="B120">
         <v>5</v>
       </c>
       <c r="C120" t="s">
-        <v>1050</v>
+        <v>1030</v>
       </c>
       <c r="D120" t="s">
-        <v>1051</v>
+        <v>1031</v>
       </c>
       <c r="F120" t="s">
-        <v>908</v>
+        <v>888</v>
       </c>
       <c r="G120" t="s">
-        <v>909</v>
+        <v>889</v>
       </c>
       <c r="H120" t="s">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="I120" t="s">
-        <v>947</v>
+        <v>927</v>
       </c>
       <c r="J120" t="s">
-        <v>911</v>
+        <v>891</v>
       </c>
     </row>
     <row r="121" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A121" s="3" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>1058</v>
+        <v>1038</v>
       </c>
       <c r="D121" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>1069</v>
+        <v>1049</v>
       </c>
       <c r="G121" t="s">
-        <v>1070</v>
+        <v>1050</v>
       </c>
       <c r="H121" t="s">
-        <v>1071</v>
+        <v>1051</v>
       </c>
       <c r="I121" t="s">
-        <v>1072</v>
+        <v>1052</v>
       </c>
       <c r="J121" t="s">
-        <v>1073</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="122" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A122" s="3" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
       <c r="C122" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="D122" t="s">
-        <v>1061</v>
+        <v>1041</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1082</v>
+        <v>1062</v>
       </c>
       <c r="G122" t="s">
-        <v>1083</v>
+        <v>1063</v>
       </c>
       <c r="H122" t="s">
-        <v>1084</v>
+        <v>1064</v>
       </c>
       <c r="I122" t="s">
-        <v>1085</v>
+        <v>1065</v>
       </c>
       <c r="J122" t="s">
-        <v>1086</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="123" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A123" s="3" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="B123">
         <v>3</v>
       </c>
       <c r="C123" t="s">
-        <v>1062</v>
+        <v>1042</v>
       </c>
       <c r="D123" t="s">
-        <v>1063</v>
+        <v>1043</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>1068</v>
+        <v>1048</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>1087</v>
+        <v>1067</v>
       </c>
       <c r="H123" s="8" t="s">
         <v>622</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>1088</v>
+        <v>1068</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>1089</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="124" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A124" s="3" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="B124">
         <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>1064</v>
+        <v>1044</v>
       </c>
       <c r="D124" t="s">
-        <v>1065</v>
+        <v>1045</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>1074</v>
+        <v>1054</v>
       </c>
       <c r="G124" t="s">
-        <v>1075</v>
+        <v>1055</v>
       </c>
       <c r="H124" t="s">
-        <v>1076</v>
+        <v>1056</v>
       </c>
       <c r="I124" t="s">
-        <v>1077</v>
+        <v>1057</v>
       </c>
       <c r="J124" t="s">
         <v>749</v>
@@ -8245,31 +8278,31 @@
     </row>
     <row r="125" spans="1:10" customFormat="1" ht="17.399999999999999" customHeight="1">
       <c r="A125" s="3" t="s">
-        <v>1052</v>
+        <v>1032</v>
       </c>
       <c r="B125">
         <v>5</v>
       </c>
       <c r="C125" t="s">
-        <v>1066</v>
+        <v>1046</v>
       </c>
       <c r="D125" t="s">
-        <v>1067</v>
+        <v>1047</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>1090</v>
+        <v>1070</v>
       </c>
       <c r="G125" t="s">
-        <v>1078</v>
+        <v>1058</v>
       </c>
       <c r="H125" t="s">
-        <v>1079</v>
+        <v>1059</v>
       </c>
       <c r="I125" t="s">
-        <v>1080</v>
+        <v>1060</v>
       </c>
       <c r="J125" t="s">
-        <v>1081</v>
+        <v>1061</v>
       </c>
     </row>
   </sheetData>
